--- a/data/news1_아프간난민수용보도에찬반뜨거워.xlsx
+++ b/data/news1_아프간난민수용보도에찬반뜨거워.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D474"/>
+  <dimension ref="A1:E472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>내용</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>추천수</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -469,6 +474,11 @@
           <t>무슬림 받으면 여기가 아프카니스탄이 된다!</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -489,6 +499,11 @@
           <t>일단 한번받으면 아마 계속 받아야할거다. 그리고 1만명만 받아도 30년뒤면 수백만에 가깝게 불어나는게 무슬림이다... 10명씩낳고 10대에 결혼하고.. 결국 한국도 무슬림화 될수밖에없다..유럽을봐라</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -509,6 +524,11 @@
           <t>아프간 난민수용 절대 반대한다..!!</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -529,6 +549,11 @@
           <t>인도적 차원수용? 개뿔 수용찬성하는 니들 집구석에서 수용해라</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -549,6 +574,11 @@
           <t>한번 뚫리면 '야 저긴 된다'라면서 몰려들텐데. 잘 판단해봐라. 걔들 자기들 문화 못 버리고 인구수가 어느 정도 되면 권리 요구할 거다. 우리는 탈북 난민들 많이 받고 있잖아. 그걸로 충분하지 뭘 더 받냐.</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -569,6 +599,11 @@
           <t>친반 뜨거운게 아니라 반대만 뜨겁다!!</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -589,6 +624,11 @@
           <t>같은 문화권인 이슬람쪽으로 가고 각국에서 인도적차원으로 구호품 지원해주는게 낫지않나?그게 서로 편할텐데</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -609,6 +649,11 @@
           <t>절대 반대. 저 인간들 군사훈련 받는 동영상 봤나? 애국은커녕 진지함조차 1도 찾아볼 수 없다. 문맹률 95%에 정신마저 썩어빠진 무슬림 맹신자들. 자기네 나라에조차 무신경한 인간들이 남의 나라를 존중하겠나? 인간형 역병들이다. 받지 마라.</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -629,6 +674,11 @@
           <t>막연한 외국인 혐오 아니구요~누누히 얘기하지만 우리나라는 잠재적 북한난민. 탈북민이 2천7백만명이나 있습니다~북한에서 내일이라도 탈북한다고 하면 우리나라는 무조건 다 받아줘야 하는데.......우리나라는 난민을 수용할 수 없는 상황입니다~~</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -649,6 +699,11 @@
           <t>찬성하는사람들 실명공개하고 본인집에 하나씩 수용하던지 아니면 그사람들 거주할곳 지원할 세금 각출해서 내세요  우리 아이들 태어나면서 빚얼마나 가지고 태어나는지아나요? 인도적 차원 떠들고잇네.. 잘살지도 못하는 나라 빚으로 살고잇는지도 모르고</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -669,6 +724,11 @@
           <t>세계 언론에 욕을 먹던 말던, 절대 받으면 안됨. 과거 난민 받은 유럽들이 현재 어떤 문제들을 안고 골치 아프게 있는지 확인하길.. 미국도 땅덩이 겁나 넓은데 수용소 없다고 우리나라나 일본에 왜 맡기려고 할까?</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -689,6 +749,11 @@
           <t>난민수용 절대 반대합니다국민의힘 , 정의당  먼저  대한민국  국민을 생각하세요일순위가 대한민국 국민입니다  미국눈치 보며  할일이 아닙니다난민들 누가  불쌍한거 몰라요 임시적 수용 절대 있을수 없고 한번 들어오면 애 낳고 정착하려할텐데 20년후  30년후에  애 많이 낳는 그들의 세상이 될수도 있습니다  그들은 종교와 사상이 워낙 강해 그들과 다르면 죽여서라도 바꾸려고 들 겁니다그럼 우리 아이들의 미래는요?</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -709,6 +774,11 @@
           <t>무슬림은 타민족과의 소통 융합 안되고.여성에대한 기본 가치관도 틀리고..자기들것만 고집해서 반대하는거지  난민이라고 무조건 반대하는건 아닙니다..무슬림.이슬람.  특히  단합하지않는 국민인 이슬람 .한국에 들어와 사는거 반대입니다.유럽 어딜가봐도 이슬람 중동인들이 많이 사는곳은  부정적인 지역으로 바뀌더라구요.</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -729,6 +799,11 @@
           <t>안받을수 있으면 안받아야한다. 이슬람은 다른종교를 죽여서라도 개종시키려하기 때문이다.</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -749,6 +824,11 @@
           <t>안전한 국가를 원한다. 지금도 코로나니 뭐니 국민들 인내하고 버티는데 한계다. 집안은 들끓고 난리인데 바깥에 불났다고 우리집 물 퍼다 붓는 멍청한 짓이다. 대한민국 국민도 지금 삶이 버겁다. 아프간은 그동안 미국이 20년동안 지원해줬을 때 방만하게 국가 경영하다 이꼴이 났다. 이 국토는 선조들이 목숨걸고 피와 땀으로 지켜낸 국토이다.!!!!!! 자기 국가를 버리고 탈출한 저들을 지금도 팍팍한 우리가 돌볼 이유는 없다. 국민부터 좀 살자!!</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -769,6 +849,11 @@
           <t>그리고 아프간칭구들 잘 들어. 니들이 동정표를 받고 싶으면 지금 총을 들고 탈레반에 맞서라. 니네들이 전장에 나섬으로써 뒤에 남겨진 가족이 불안하다면 국제사회에 도움을 요청해. 그걸 무시하는 국제사회는 아닐거라고 본다. 니들이 아프간에 도망나와 다른 나라에서 행복하길 바라겠지만, 거기에 낙원은 없다. 낙원은 스스로 만드는 거지, 누가 떠먹여주는게 아님.</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -789,6 +874,11 @@
           <t>젊은 여자랑 젓먹이 아이들만 받아줍시다. 아프칸 남자들은 아무짝에도 쓸모 없음이 입증됐음.</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -809,6 +899,11 @@
           <t>무슬람 정말 무서운 집단입니다. 서서히  스며들게 될거고, 결국 그들의 목소리가 높아지연  우리사회의 크큰 골치덩어리가 될겁니다. 지금 인도적인 문제 논쟁할 때가 아닙니다. 자국민이 가장 중요한것 아닙니까?</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -829,6 +924,11 @@
           <t>한국은 탈북민 고려인 조선족 받아야하는것만으로도 충분합니다~좁은 땅덩어리비율도 생각을 해야죠~ 미국 땅덩이도 넓으면서 잔머리쓰네</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -849,6 +949,11 @@
           <t>주제 파악하시길 목구녕이 포도청이다 지금 국민들도 목메기 직전이다 누가 누굴 구한단 말인가</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -869,6 +974,11 @@
           <t>반대하는쪽이지만 어린아이들과 여성들만이라면 그런데로 받아는 들일수 있겠지만 이슬람 남자들은……물론 아이들과 여성들만 받아주는것은 형평성 문제가 있는데 아무튼 무슬림들이 들어오는건 솔직히 아니 진짜 반대임. 걔네들은 구해줬더니 보따리 내놔라 하는 인간들인듯 싶어서.. 남의 나라에 와서도 종교를 안좋게 말했다는 이유로 프랑스교사 참수하는 정신머리를 상실한 인간들임 이슬람이 존중되는 나라로 갈것이지ㅉㅉ</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -889,6 +999,11 @@
           <t>한국에서 난민 수용을 관대하게 한다고 소문 나면 겉잡을 수 없이 밀려옵니다. 온정주의에 치우쳐 후손에게 짐을 지우지 맙시다.</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -909,6 +1024,11 @@
           <t>진짜 받지마라 저들이 들어오면 나라 망한다 이슬람은 우리나라랑 정서가 안맞다 숫자 많아지는 순간 간강당하는 여성들과 어린아이 종교때문에 참수당하는 우리나라 국민들 여럿 나올거다 오지랖도 생각 좀 하면서 부려라 지금도 심각하다</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -929,6 +1049,11 @@
           <t>일단 정우성네 보내</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -949,6 +1074,11 @@
           <t>저기요 수용하자는 정치인들 당신들 집에 이슬람 남자 난민 둘 이상 같이 살며 솔선수범하며 주장해라 그렇지 않으면 개소리 말고</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -969,6 +1099,11 @@
           <t>절대 반대.  여자 아이들만 받으라고?  절대반대. 받으면 남편들 어떻게해서든 들어올라 난리고. 인권충들은 들어오게 할라고 난리일거다. 들어와서 온갖혜택 다 누리도 성범죄에 이슬람화될거다.  대한민국을 지키자.  난민 탈퇴하라.</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -989,6 +1124,11 @@
           <t>우리나라에 이미 있는 사람을 굳이 또 추방할 필욘 당연히 없겠지. 하지만 더 받는건 말도안됨</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1009,6 +1149,11 @@
           <t>이슬람 교리에 이교도는 죽이라고 되어있어요지금 미국이랑 전쟁하는이유도 종교때문인데 폭탄을 왜데려옵니까?머릿수가많아지면 이슬람율법을 강요하고 폭력적인모습이 드러날거에요 가까운예료 유럽을보면 됩니다</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1029,6 +1174,11 @@
           <t>이슬람은 단순한 종교가 아니라 정교일치의 전체주의와 같으므로 우리나라도 예맨난민같은 무슬림들을 무분별하게 수용하면 후대의 위험을 자초하는 짓이다!!!!! 대구 대현동 경북대근처에 무슬림유학생들이 이슬람사원을 짓겠다고 해서 주민들이 반대하고 난리났다!!!! 그들이 모이는 곳은 게토화되고 슬럼화되어서 주민들의 생존권과 재산권이 침해받기 때문에 강력히 반대한다!!!! 소수일때는 조용하지만 다수가 되면 사회불만을 테러로 폭발시키는 게 무슬림이고 1세대가 적응하느라 조용하지만 다수가 되면 샤리아법으로 그곳을 통제하므로 경찰도 못 들어간다</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1049,6 +1199,11 @@
           <t>난민수용 반대한다.선진국 어느나라도 난민을 받아서 안전했던곳은 없다.무슬림은 특히더 반대한다</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1069,6 +1224,11 @@
           <t>착한척 하지말자. 세계는 힘의 논리다. 미국도 골치아프니 떠넘기려는거다. 그들이 세계 곳곳에서 일으키는테러를 봐라. 이게 한국에서도 벌어질수있다</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1089,6 +1249,11 @@
           <t>솔찍히 우리 선조가 6.25때 탱크에 온몸을 부딛혀가며 나라를 지켰기에 지금의 대한민국이 있는데... 목숨 걸고 도망칠 정신으로 탈레반과 싸워야지요. 정부군도 국민도 싸울 의지가 없는데 다른 나라 도움이 무슨 의미가 있나요? 난민들은 한없이 불쌍하지만 뼈저리게 느껴야합니다. 왜 나라를 잃었는지</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1109,6 +1274,11 @@
           <t>이슬람 종교를 가진 사람들 절대 받아주면 안됩니다  인도적 운운 하면서 받아주면 미래에 우리아이들이 고통 받을것입니다 그들은 타종교를 인정하지도 않고 특히 여자들은 인격체로 보지 않는 상식이 통하지 않는 사람들입니다 절대 받아주면 안됩니다</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1129,6 +1299,11 @@
           <t>다른 건 몰라도 가장 위험한 건 난민속에 섞여 숨어 들어오는 테러리스트들이다.</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1149,6 +1324,11 @@
           <t>이들은  나라를  목숨걸고  스스로  지키려고   노력은   하지 않고   다른나라로  가려고만  하네요.....  대한민국의 자유는  그렇게  쉽게  오지  않습니다.  생명걸고  혼신의 힘으로  나라를   구하려고  노력했습니다.  명심하십시오 .   지킬려는  노력이  없으면  무너지고 마는것을   타산지석으로  삼아야합니다!!!</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1169,6 +1349,11 @@
           <t>대한민국 이슬림화  되겠네. 저들이 대책없이 낳는 아이들때문에 우리세금 살살 녹고 연금 받을때쯤은 폭동나서 다 빼앗기겠다. 인간적으로 난민을 받아도 무슬림은 아니다 정말.  무슬림은 흡수되는 민족이 아니다. 섞이지 못하는 종족이야</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1189,6 +1374,11 @@
           <t>우리도 자국민 생각해서 받지말자 우리가 동네 북이냐</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1209,6 +1399,11 @@
           <t>유럽이란 실패 사례가 있는데 왜 받으려하는지 의문입니다.유럽은 테러리스트만 골라 받은건가요? 처음엔 이민자들 한국에 만족하며 거주하겠죠. 근데 아프간 이민자들이 부유할 가능성은 적겠죠? 그러면 슬슬 불만이 생기고 문화차이가 더해지면서 폭력적으로 갈등 표출하는 사람 분명 나옵니다. 안그래도 지역, 이념, 성별갈등 많은 나라에서 왜 사서 분란을 만드나요. 그래도 다 같이 행복해야지 이딴 망상 하지 마세요. 현실은 현실입니다.</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1229,6 +1424,11 @@
           <t>21세기 대한민국에서도 굶어 죽고 고독사 하는 사람이 있는데 난민수용 입 밖으로 꺼내는 정치인은 영원히 퇴출시켜야 함</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1249,6 +1449,11 @@
           <t>이슬람 난민 받아주면 우리후손들에게 무거운 짐이 될거다 50년전에 이슬람 빋아준 유럽을 봐라 받아주면 우리 후손들에게 큰죄를 짓는것이다</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1269,6 +1474,11 @@
           <t>제주도 이슬람 남자들 오백명도  다 잡아들여 추방해야 하는데 또 받자고 국민이 싫다는데 정치하는것들은 누굴위해 그자리에 있는것이냐.</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1289,6 +1499,11 @@
           <t>인권팔이,민주 팔이, 이념 감성팔이 넘들 또 설쳐고 난리나겠네.</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1309,6 +1524,11 @@
           <t>이슬람은 받지마라, 유럽을 봐라 어떤일이 일어났는지</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1329,6 +1549,11 @@
           <t>무슬림은 인구로   자기들의 영역을 확장해요. 한사람이5~10 명씩 애낳고  작은동네에서 시작해 한 도시를..자기들의 영역으로만들어요. 지금의 유럽이그래요. 그들은 여성무시가 코란에서 인정받고있어요. 임시로 들어와도 난민인정해달라 할꺼고 그럼 우리나라에선 지원도 나가야하죠..차라리 언어와 문화가같은 북한국민들 받는게낫겠네요. 우린 휴전국가에요.   땅덩이도 좁고요..    간단히불쌍하단 감정으로 받으면 않됩니다.</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1349,6 +1574,11 @@
           <t>자국민도 제대로보호도못하고, 범죄자들살기좋은나라에. 이슬람까지받자구요? 지금도 조선족들 무질서한데. 좁은땅에 이슬람까지 난반대</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1369,6 +1599,11 @@
           <t>외국인혐호가 아니라 이슬람 혐호다. 미개한짓들을 좀했냐. 인도 뉴스들중에  비상식적인일이 한두개냐. 한국에 있는 이슬람 사람들도 다 지들나라 보냈으면 좋겠구만</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1389,6 +1624,11 @@
           <t>미국이  슬적 흘리고  한국에  여론 동향을 지켜보면서  회심에  저울질을 하겠지  절대 받으면안된다   나라가 혼란스러워진다</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1409,6 +1649,11 @@
           <t>막연한 외국인 혐오가 아니라, 그들이 오면 서민들과 같이 살고 서민들과 경쟁한다. 윗놈들이야 높은 곳에서 고상한척하면 그만이지만...</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1429,6 +1674,11 @@
           <t>이슬람이다 유럽에들어간 난민들 지들끼리 자경단조직해 술집 과 여자들에 시비걸고 있단다 재들은 난민이 아니다 지들 스스로 지키길 포기한 것들이다 ... 받아주면 우리나라와서 지들이 큰 소리치면서 여자들에게 ~~~입을것을 강요하고 주점 없에라고 대모할꺼다~~!!!</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1449,6 +1699,11 @@
           <t>자국민들이 죽어나가는데 정말 태평한소리를 짖거리는 국개들을 당장 내손으로라도 처단하고 싶다 ㅠㅠ</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1469,6 +1724,11 @@
           <t>책임못질일은 안하는게  맞는겁니다</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1489,6 +1749,11 @@
           <t>조선족만으로도 벅차다..</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1509,6 +1774,11 @@
           <t>미국은 지들이 뭔데 한국기지에 데려오라는거야? 땅은 지들이 더 넓지 않아?</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1529,6 +1799,11 @@
           <t>난민 수용 찬성하는 인간들아 너네 집에  100명씩 넣줄까~~생각하고  찬성해라. 지금 우리나라 국민코가 석자인데  지금 누굴 도와~~</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1549,6 +1824,11 @@
           <t>국민중에 찬성하는 사람들을 못봤는데.. 왜 수용하려고하는건지... 수용하려면 국회의원들 집 크니까 거기서 해주길 아니면 찬성한 연예인들이나.. 지금 살기 각박하다고.. 마스크쓰는것도 답답한데 무슬림을 들이면 이제 밖에도 못나가...같은 사람아니야.. 사상이다른데 절대 안바껴 사람</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1569,6 +1849,11 @@
           <t>이슬람은 바퀴벌레임. 알까고 새끼치고 영원히 안나가고 여자를 똥닦는휴지로 여겨서  성폭행 하고 돌아다님. 그리고 이슬람 기도하게 사원 지어달라고함 . 하루에 몇백명씩 왔다갔다거리면서 하루에 10번도 더 기도함. 주변에 시끄러워서 못산다</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1589,6 +1874,11 @@
           <t>절대 안됨...난민인건 딱하지만 그렇다고 받아주면 우리나라 개판됨...제발 국민의견 들어주기를</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1609,6 +1899,11 @@
           <t>왜 여야 찬성하는지 압니까? 정치인들은 이 나라의 진정한 미래에는 관심이 없어요. 개판된 나라 꼴 때문에 전 세계 최하위라는 대단한 수준의 초저출산을 겪고 있는 상황에서 이슬람 난민은 출산율 올리는데는 제격이거든요. 수많은 유럽 국가들 보면 그 결과를 압니다. 이 나라는 이미 탈북민으로 충분히 상응하는 대가를 치루고 있습니다. 당신들 밥그릇 싸움하면서 꼴아박은 유례없는 초저출산 어떻게 해보겠다고 시한폭탄인 이슬람 난민 받겠다고요? 저런 상황에서도 종교로 서로 총질하고 죽이는 인간들을? 정말 미치지 않고서야 할 수 없는 발언들입니다.</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1629,6 +1924,11 @@
           <t>오지말고 맞서싸워라 여기 자리없다 여기 자국민도 집이 없는 나라야. 그리고 어딜봐도 찬성 한명도 없다 생각이란걸 할 줄 안다면 누가 아프간오는걸 찬성하겠냐 반대만 뜨겁다 물타지마라. 댓글 다신 분들의 의견에 찬성합니다!1. 아프간인들의 숫자가 많아져 자신들의 권리를 주장하는 세상이 될것이다2.범죄와 테러가 많아질 것이다3.이슬람 종교의식을 하는 사원이나 아프간인들을 길거리에서많이 보며 살아야 할것이다4.특히 성밤죄나 폭력범죄가 늘어날 것이다5.돈이 많이 들것이다6.일자리도 더욱 줄어들고 살기 힘들어질것이다대한민국이 감당할 능력도x</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1649,6 +1949,11 @@
           <t>절대로 안된다 타하루시 라고 하는 집단강간을 놀이로 생각하는 민족 절대로 한국땅에 들어오면안된다 그들은 샤리아 율법 이라고해서 그율법으로살고 한국문화을 무시할꺼다 물론 법도 절대 안된다 한국땅에 있는 다른 이슬람 교도들 도 출국시켜라!</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1669,6 +1974,11 @@
           <t>무슬림들은 이유여하를 막론하고 절대반대!   인류애고 사랑이고,, 다 필요없고 무조껀 이슬람체류는 반대. 근본은 개슬람.</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1689,6 +1999,11 @@
           <t>이슬람난민  결사반대 합니다!!!   돈이나 물품으로 지원하세요!!!가뜩이나 코로나 때문에  우리국민들도 사네못사네 하는 판국에 땅덩어리도 쬐깐해서 세계지도 보면 찾기도 힘든 나라에서 뭔 난민까지 받아요?</t>
         </is>
       </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1709,6 +2024,11 @@
           <t>찬성하는 자들을 아프간으로 보내자.  인권운동은 현장에가서 해야지.</t>
         </is>
       </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1729,6 +2049,11 @@
           <t>죄송하지만  다른 종교를 존중하지 않는 무슬림  아프간 난민 받지 말아주세요.ㅠㅠ .미안하지만  화합.융화하지 못하는 사람들과 같아 살기 힘들어요.  6.25때 우리 국민들은 해외에서 뭐든 열심히 했죠.</t>
         </is>
       </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1749,6 +2074,11 @@
           <t>역사적으로 종교적 차이는 극복되기 어렵습니다.종교가 다르다고 싸우는 그들이 우리 나라에서도 같은 이유로 사람을 죽인 다면 누가 책임지나요?</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1769,6 +2099,11 @@
           <t>베트남처럼  아프가니스탄도 미국이 손절한 이유는 피아가 구분안되는 전쟁이라서 그렇다. 탈레반이 싫다면서도 미군이 종교적으로 자신들의 적이라는 무슬림들의 사상때문에 대부분 중립적이다가도 미군의 실수나 오해가 생기면 뒤에서 쓰러진 탈레반군 총으로  미군을쏜다. 그래서  저기는 답없다.손절만이 최선</t>
         </is>
       </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1789,6 +2124,11 @@
           <t>아프간의 일은 세계에서 적극 개입해야한다고 보지만 미국이 웃긴게 왜 다른 나라 땅에서 난민수용을 결정하냐는거다. 아프간도 혼란스럽게 하고 우리나라도 우습게 보는 처사다. 미국이 책임지고 난민을 받아들이는게 맞지않나</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1809,6 +2149,11 @@
           <t>아프칸 난민 수용은 정치적 문제가 아니다!국민의 세금이 들어가고! 국민의  안전 테러 가능성  !무엇보다 국민의 의견이 중요하다!일방적 아프칸 난민을 받아들인다면?그건 독재이고 국민을 무시하고 배척하는 행동이면 자유민주주의  국가 대한민국에 반기을 드는 행동이다!</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1829,6 +2174,11 @@
           <t>그냥난민도아니고 무슬림이잖아</t>
         </is>
       </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1849,6 +2199,11 @@
           <t>암세포도 생명이다라는 말이 떠오르네요... 좀 가려받읍시다</t>
         </is>
       </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1869,6 +2224,11 @@
           <t>민주주의 정치는 국민에 의해서 행해지는것이다 일부 정치꾼들이 결정할 사항이아니다 국민투표에붙이자</t>
         </is>
       </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1889,6 +2249,11 @@
           <t>한국은 아직  준비가 안되었다  이민, 난민, 혼혈 등 다민족국가에 대한 연구 , 국민교육, 국민토론 등이 우선이다 .  철저한 준비없는 수용은  국민들이 우려하는 큰 사회문제로 댓가를 치룰 것임에 틀림없다정치인들은 하루살이 정책 , 포퓰리즘 정책은 그만좀 하시라 배운 사람들이 꼭 무뇌인냥 행동하고 발언할 때 국민들은 희망이 없어진다</t>
         </is>
       </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1909,6 +2274,11 @@
           <t>전국민이 반대하는대  뭔 찬반인가</t>
         </is>
       </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1929,6 +2299,11 @@
           <t>911테러가 누구때문에 났지 그리고 런던지하철테러 파리촉동 니스폭동 퀼른폭동?바로 이슬람놈들받아들여서이다. (빈라덴빼고 나머지가담자가 전부 이민자출신)</t>
         </is>
       </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1949,6 +2324,11 @@
           <t>무슨 찬반입니까 대다수가 반대인데</t>
         </is>
       </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1969,6 +2349,11 @@
           <t>다른 종교도 아닌 이슬람이다,, 특히 저런 무슬림들은 위험율이 상당하다, 한국 정서상 맞지 않다는것이다,,</t>
         </is>
       </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1989,6 +2374,11 @@
           <t>난민 수용 반대합니다. 무슬림 성전이 전국에 120개라네요. 지금 들어와 있는 아프간인 1만명이구요. 과연 그들이 돌아갈까요? 교육받아 돌아가서 나라를 구할생각을 할지 궁금합니다...일시적이라고 하는데 과연 그럴지...들어와서 정착하면 가족데려올 생각할겁니다...</t>
         </is>
       </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2009,6 +2399,11 @@
           <t>탈레반중에서 신분증 위조해서 난민으로 속이고 입국하는 인간들도 꽤 많을 듯. 그리고 20년간 미국이 100조원이나 들여서 신식 무기 주고 군사훈련도 시켰는데 자기 나라도 못 지키고 남한테 손벌리는 나라는 대우받을 자격이 없다고 생각됩니다. 언어도 안 통하고 문화권도 다른 대한민국에서 그들이 적응할까요?</t>
         </is>
       </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2029,6 +2424,11 @@
           <t>난민 받지 말아라 외국인 혐오가 아니고 치안과 생존 걱정때문에 그런건데 그걸 외국인 혐오라고 곡해하는건 사람 색히냐? 고위층이라 저런 난민이랑 마주치지도 않을거고 경호원 딱 붙어다니니 상관없겠지만 일반 서민들은 저런 사람들과 길거리에서 마주치고 마트에서 편의점에서 마주치고 심한 경우 이웃이 될지도 모름 난민이 그렇게 좋으면 고위층들 집 주워먹은것도 많은데 본인들 집 쟁여놓은거 난민에게 제공해라~니들 선에서 해결해 살기 힘든 서민에게 난민까지 떠넘기지 말고</t>
         </is>
       </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2049,6 +2449,11 @@
           <t>아프가니스탄 한번씩 침략했던 나라들도 받아주길 꺼려하는데 아무 상관없는 한국이 뒷처리를 왜 해줘? 국제 호구세요?</t>
         </is>
       </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2069,6 +2474,11 @@
           <t>난민유입에 전향적이었던 유럽이 현재 난민을 결사반대 하는 이유를 알고도 찬성한다는 개소리를 하는 거냐?</t>
         </is>
       </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2089,6 +2499,11 @@
           <t>왜 하필 우리나라야? 가까운나라 그동네 많쟈나?우리도 살기 힘들고, 위에선 미사일 언제쏠찌 모르는데 왜 한국에까지? 안그래도 아래위로 사방에적이라 힘든데, 왜 그렇게까지 해야하는데? 바이든이 다 델꼬 가라고 해 제발..오죽 능력이 없으면 트럼프도 안한짓을 하나!안그래도 코로나로 힘든데 이게 왠 ㅠㅠ</t>
         </is>
       </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2109,6 +2524,11 @@
           <t>나라도 좁디좁은데, 중국 조선애들한테,   인천차이나타운도 모자라 대림 ,가산,  점점 뚤려가는데, , 이젠  아프간.. 이건아니지 우리도 아직 휴전국가다~!! 누가누굴도와~~!!</t>
         </is>
       </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2129,6 +2549,11 @@
           <t>찬반 안 뜨거운데 제목 이렇게 쓰지 마세요. 다수가 반대합니다.</t>
         </is>
       </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2149,6 +2574,11 @@
           <t>혐오가 아니라 나라 버린 인간들이 여기서 뭘 한단 말인가? 연변족들도 감당 못하고 넘쳐나는 불체자들도 어케 못해서 난리인데. 자국민들 죽어가는 소리 안들리는가? 자살율이 높은 나라다. 스스로 죽어간 그들이 어디 난민이더냐? 연변족이더냐? 불체자더냐? 그들은 사는게 죽는 것 보다 더 힘들어 죽음을 택한 대한민국 국민이자 한국인이었다</t>
         </is>
       </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2169,6 +2599,11 @@
           <t>자유를 원하면 싸워서 지켜내세요. 무슬림은  절대반대.</t>
         </is>
       </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2189,6 +2624,11 @@
           <t>자기나라 버리고 오는 사람들을 왜 받아주냐 안그래도 울나라 외국인들 천진데 더받아주면 안된다 동남아도 골치아픈데 이슬람까지 들어오면 나라 꼴이 어떻게 되겠냐</t>
         </is>
       </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2209,6 +2649,11 @@
           <t>난민 수용하는순간 우리나라 박살난다. 강간 성폭행 강도 살인 인봐도 비디오. 아! 정우성집은 괜찮음</t>
         </is>
       </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2229,6 +2674,11 @@
           <t>받자는 애들만 자기집에 받아준다는 조건으로 받아라</t>
         </is>
       </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2249,6 +2699,11 @@
           <t>난민 받자는 놈  다음 선거에 보자</t>
         </is>
       </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2269,6 +2724,11 @@
           <t>결국 한국에서 살게 되는건데 대책도 없으면서 무슬림 무자비하게  씨뿌리고 애낳아서   나라 뺏긴다 ㆍ폭군정부 못봤어 ?  이슬람사원이  벌써  200개다 ᆢ 사상이  얼마나 무서운데그들은 그들의  문화를 최고로 여긴다  그피가 어디  가나 ?  텔레반의 표적이될뿐 아니라  우리국민의 안전은 ? 그돈으로  자영업자나 도와주시죠</t>
         </is>
       </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2289,6 +2749,11 @@
           <t>인도적 차원이라 말하지만.. 이슬람 같이 문화가 전혀 다른 국민을 받아들이는 것은 잠재적으로 엄청나게 큰 리스크를 떠안게 될 것이다. 문화가 다르다는건 정말 큰 부분이다..저 많은 난민을 받게 된다면 돌이킬 수가 없다. 구호 물품이나 이런것을 지원하는 쪽으로 도와줘야지.. 수용을 하는 것은 절대 반대이다!!!!</t>
         </is>
       </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2309,6 +2774,11 @@
           <t>짱깨 조선족 난민은 안받는게 답이다</t>
         </is>
       </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2329,6 +2799,11 @@
           <t>현실적 접근 해야한다.ㅡ 감성팔이에 나라 절단난다.</t>
         </is>
       </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2349,6 +2824,11 @@
           <t>몇년 전 무슬림 난민들 받아줄 때 각국 유럽 안에서 무슬림들 깽판친 거 기억하지??</t>
         </is>
       </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2369,6 +2849,11 @@
           <t>이슬람은안된다.좋은예로 이슬람난민받아줬다가 무슨꼴났지는 ㅏㄹ봤지않는가..</t>
         </is>
       </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2389,6 +2874,11 @@
           <t>탈북민만해도 벅차다..</t>
         </is>
       </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2409,6 +2899,11 @@
           <t>아프간 난민을 우리가 왜 받아. 이미 만명있다 우리나라에. 걔네도 탈레반핑계대며 죄다 난민신청할게 뻔한대 아마 불체하던 애들도 난민신청할걸? 난민신청하면 불체도 봐주거든</t>
         </is>
       </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2429,6 +2924,11 @@
           <t>모든 무슬림은 테러리스트가 아니지만 모든 테러리스트는 무슬림이다!!!! 여성인권이 최악인 나라이고 남자를 대동하지 않으면 외출도 하지 못하는 곳이 이슬람국가인데 저런 미개한 이슬람국가출신 외노자와 난민 좀 그만 받아라!!! 대구 대현동 경북대근처에 무슬림유학생들이 이슬람사원을 짓겠다고 해서 주민들이 반대하고 난리났다!!!! 그들이 모이는 지역은 게토화되고 슬럼화되어서 주민들의 생존권과 재산권이 침해받기 때문에 강력히 반대한다!!!!무슬림 난민 1세대는 생활에 적응하느라 조용하지만 2~3세대가 되면 사회불만을 테러로 폭발시킨다는 것</t>
         </is>
       </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2449,6 +2949,11 @@
           <t>문화권이 일단 너무 다르기도 하고 .. 조건부로 받는 건 안되나요? 국내법준수하고 위반시 추방도 받아들인다고.</t>
         </is>
       </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2469,6 +2974,11 @@
           <t>자국인부터 살려라 지금 코로나로 나라 개판에 빚더민데난민 받아서 어쩌려고 그러냐 청년백수가 백만이다 제발 정신차려라</t>
         </is>
       </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2489,6 +2999,11 @@
           <t>받아주고싶지만 솔까 무섭다</t>
         </is>
       </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2509,6 +3024,11 @@
           <t>유럽의 상황을 알면 막연이라는 표현 못쓰죠 막연이라니요 지금 유럽의 큰 문제 피해가 다 드러나는데요 전혀 댜른 문화와 가치관으로 우리국민  피해가 불 보듯  뻔한데 사람 살리자는 막연한 생각으로 대처하지 말아요 우리나라는 살인 아동성폭행에 사형도 없는 나라인데 어떻게 대처하겠다는건지 안일합니다</t>
         </is>
       </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2529,6 +3049,11 @@
           <t>받더라도 주아프간 한국대사관에서 일한 사람이 보복때문에 오는거 정도만 받아야지.. 로마에 가도 로마법따르기보다 종교가 우선인 사람들이라...그냥 아랍,동남아에 이슬람문화권으로 가라고. 서로 편하자너</t>
         </is>
       </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2549,6 +3074,11 @@
           <t>이슬람교도 받으면 영토뺏긴다. 지금도 봐라, 무슬림 한명 거주하도록 해주면 수단과 방법 가리지 않고 100명들어온다. 반대!!! 우리도 살기힘들어. 애네들 세금 줘야해? ㅁㅊ네.</t>
         </is>
       </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2569,6 +3099,11 @@
           <t>강경 종교를 지지하는 난민을 받으면 차후에 사회적 부작용이 발생할 겁니다. 아프칸 난민들이 한국화 되지 않을거라 봅니다</t>
         </is>
       </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2589,6 +3124,11 @@
           <t>일본이 우리나라보다 땅도 넓고 고령화시대에 묻혀가는 신도시도 더많은데..왜 한국을 들먹이냐? 현재 불법체류하고 있는 이들만이라도 추방대신 다른 방법을 검토하는것으로 인도주의적 의무는 다하는것이다.</t>
         </is>
       </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2609,6 +3149,11 @@
           <t>정우성이네 집으로</t>
         </is>
       </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2629,6 +3174,11 @@
           <t>지들나라 지키려시도는 하지않고 아이들과 여자들 버려두고 도망쳐오는 사지멀쩡한 성인 남자들 도망오는거 왜받아주나?</t>
         </is>
       </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2649,6 +3199,11 @@
           <t>한국이 얼마나 미개한지 보여준다 아프간을 들여온다? 이슬람교가 온통 트러블 야기하고 성범죄 살인등 수도없이 일어날건데 찬성한다고? 프랑스꼴 나고싶나?</t>
         </is>
       </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2669,6 +3224,11 @@
           <t>해외미군주둔지라 했는데,한국내 미군기지이면 미국이 마음대로 해도 된다는것 아닌가?  미국이  결정하면 우리가 아무리 반대해도  그냥 하겠죠?  일은 지들이 벌이고,감당은 동맹국들한테 떠넘기는거지.</t>
         </is>
       </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2689,6 +3249,11 @@
           <t>조선족도 처음에 인도적 차원에서 받아줬었다. 근데 지금은 어떤가?</t>
         </is>
       </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2709,6 +3274,11 @@
           <t>난민 수용하자는 인간들 자기 집에 난민 한 명 이상씩 받아들여서 같이 먹고 자고할 자신있는 것들만 난민 수용 찬성해라</t>
         </is>
       </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2729,6 +3299,11 @@
           <t>문재인 사저에 난민 수용해라</t>
         </is>
       </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2749,6 +3324,11 @@
           <t>찬성 하는 사람들 집근처에 정착지켜도 계속 찬성할건지 궁금하네?</t>
         </is>
       </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2769,6 +3349,11 @@
           <t>미국은 왜 동맹국인 한국에 떠넘깁니까? 난민들이 달갑지 않습니다. 들이지 마세요!</t>
         </is>
       </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2789,6 +3374,11 @@
           <t>스웨덴봐봐 어찌됬나 무능정부  인도적차원에서 무슬림 받았더니 나라가 이슬람화되고 종교사원에  이슬람 인구수가 3명중1명이 이슬람인구수다ㆍ번식을 얼마나 해되는지 ㅡ 지금 후회하고 있는정부 ㆍ 끔찍한 범죄는 입에 담기도 힘들다더라 96퍼가 전부 무슬림집단범죄 살인 폭행 마약천국 ㆍ 강간</t>
         </is>
       </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2809,6 +3399,11 @@
           <t>천퍼센트 반대합니다!무슬림들 정신세계는 완전히 다릅니다 자신들이 맹신하는 이념,신념,신앙에 1이라도 어긋나면 그 자리에서 바로 사람을 죽이고 신을 위해 옳은 일을 했다고 외치는 족속들임..그 어떤 살인과 범죄도 서슴치 않는 무슬림 남성들은 절대 난민으로 받아 줘선 안됩니다..훗날 큰 재앙이 될 것임</t>
         </is>
       </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2829,6 +3424,11 @@
           <t>결사반대임. 지금 우리나라에서 사는 불법체류자며 외노들 보면 진짜 가관임. 고물같은 차를 스포츠카 끄는거마냥 끌고다니질않나 로타리회전하는곳에 정차하고있질않나 그러면서 창문 다 열고 실실쪼개는 표정짓는 외노들 보면 열이받음 ㅡㅡ 우리나란데 왜 지네들 놀이터마냥 그러는지. 감성팔이에 속아 인도적행동인거라 하지말아라. 우리나라 지키려고 목숨 건 조상님들 생각하면 이럴순 없다ㅡㅡ</t>
         </is>
       </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2849,6 +3449,11 @@
           <t>집구석 관리도 못하는 모지리 새ᆢᆢ키들이 딴 집 사람들 신경쓰고 자빠졌네.못난 가장이 그러지.지 식구들 굶어 죽는데, 밖에서는 퍼주는 가장놈들</t>
         </is>
       </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2869,6 +3474,11 @@
           <t>외국인의 대한 혐오보단 테러와 무슬림에 대한 혐오가 있음.</t>
         </is>
       </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2889,6 +3499,11 @@
           <t>정우성이랑 정치인들 집에서 재워주면 인정 아니면 절대 반대</t>
         </is>
       </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2909,6 +3524,11 @@
           <t>국민들이 나라지킨다는 마음으로 막아야합니다.</t>
         </is>
       </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2929,6 +3549,11 @@
           <t>이슬람 난민은 절대로 안된다.</t>
         </is>
       </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2949,6 +3574,11 @@
           <t>정우성 집 마당에 수용하는걸로!</t>
         </is>
       </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2969,6 +3599,11 @@
           <t>야 김진변호사! 이주제도 실패 때문이라고? 그래서 유럽에서 난민 반대 목소리가 나온거냐? 이슬람 애들이 테러하고 유럽국민들이랑 동화되지 않아서 유럽도 골머리 앓고 난민반대 하잖아. 굳이 우리가 싼 똥도 아닌데 똥인지 된장인지 꼭 찍어먹어봐야 알겠냐?</t>
         </is>
       </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2989,6 +3624,11 @@
           <t>난민수용 반대입장입니다땅넓은나라로 분배해서 받으라고 하세요특히 중국으로 가는거 추천합니다좁은 땅에 난민수용 그리고 난민에 대한 현실가능한 대책과 정책 제대로 되어있나요? 코로나땜 정신사나운데 정신들좀 차립시다</t>
         </is>
       </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3009,6 +3649,11 @@
           <t>무슬림은 절대 받아들이지 말아야 한다 나중에  크게 당한다</t>
         </is>
       </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3029,6 +3674,11 @@
           <t>이슬람은 안됨.</t>
         </is>
       </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3049,6 +3699,11 @@
           <t>살리자는분들  본인돈으로 캐어하세요ㅈ</t>
         </is>
       </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3069,6 +3724,11 @@
           <t>자국민이나 살린것이지 자영업자들은 손놓고 지켜보고 난민을 받아줘??? 개소리 야무지게하시네</t>
         </is>
       </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3089,6 +3749,11 @@
           <t>수용찬성하는 분들 집에서 거둡시다</t>
         </is>
       </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3109,6 +3774,11 @@
           <t>유럽의 이슬람 난민들의 행태를 봐야합니다.</t>
         </is>
       </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3129,6 +3799,11 @@
           <t>난민수용반대 무섭다</t>
         </is>
       </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3149,6 +3824,11 @@
           <t>자국민도 먹고 살기 힘든데 누가 누굴 도와? oecd나 탈퇴해라 주제도 안되면서 왜 그나라들과 어깨를 나란히 하려고 하냐? 어깨 나란 한 건 국개의원 연봉과 세금뿐. 백신 확보능력은 후진국과 개발도상국 수준</t>
         </is>
       </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3169,6 +3849,11 @@
           <t>보통 난민은 되는데 이슬람 난민은 절대 안된다  막연한 외국인 혐오가 아니고 이미 난민을 먼저 받은 유럽만 봐도 이슬람  난민은 받으면 안되는 이유가 분명히 있다</t>
         </is>
       </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3189,6 +3874,11 @@
           <t>난민수용 절대 반대합니다그들의 종교와 문화는  우리와 맞지 않습니다유럽만 봐도 난민수용으로 골머리를 썩고 있습니다임시적 수용이라는것도 말이 안됩니다한번 수용하면  내보내는게 쉬울까요?인도적 차원에서  구호품 지원은  해야 된다고 생각하나  난민수용은 절대반대합니다</t>
         </is>
       </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3209,6 +3899,11 @@
           <t>받고싶은사람들은  난민받아서 각자집에서  같이살아라</t>
         </is>
       </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3229,6 +3924,11 @@
           <t>문재인씨 서민이나 좀 살려주오…. 남의나라가 더 중요하니? 만주당하고 너네는 이젠 다신 안찍는다 찬일파아니라 친일파 할아부지라도 우리만저 먼저 챙기면 그쪽 뽑는다 사실 친일파도 민주당에도 잔뜩있드만 그게 뭔 의미가 있겠나… 대통령 아부지도 친일이라던데… 유시민도… 그런거 같고…. 진짜 아무의미없더라… 한국은 이미 바로잡기엔 너무 늦은듯…</t>
         </is>
       </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3249,6 +3949,11 @@
           <t>난민 수용 반대해봤자 소용없는게 이미 한국에 이슬람 외노자 엄청 많음 안산같이 공장 많은 지역 가면 길거리에 돌아다니는 사람 절반이 동남아나 파키스탄 같은데서 온사람들</t>
         </is>
       </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3269,6 +3974,11 @@
           <t>들어오면 종교없음 조건으로  해라</t>
         </is>
       </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3289,6 +3999,11 @@
           <t>사람부터 살리자고 지지하는 인간들 집에 한사람씩 데리고 살면 되겠네</t>
         </is>
       </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3309,6 +4024,11 @@
           <t>난민이 그냥 난민이어야 받아주지 종교난민은 절대 안된다</t>
         </is>
       </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3329,6 +4049,11 @@
           <t>조선족으로 들어오는 중국인들도 벅찬데 무슬림까지? 미! 친!거! 라고 ....하... 인도ᆢ주의 좋아하다 나라 말아먹는다. 호국영령들 지하에서 통곡하실라~</t>
         </is>
       </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3349,6 +4074,11 @@
           <t>코로나 백신도 부족해서 접종율도 낮은데 난민들을 받는다??</t>
         </is>
       </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3369,6 +4099,11 @@
           <t>한국의 법과 관습을 지키면 괜찮지만 이슬람은 오직 샤리아법만을 따르는게 문제임</t>
         </is>
       </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3389,6 +4124,11 @@
           <t>넘 무섭습니다. 하나 받으면 계속 몰려올겁니다. 문화 정서 다 너무 다른데. 그리고 분명 불법체류자가 늘어날 것이고 탈레반의 표적이 될수도 있습니다.</t>
         </is>
       </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3409,6 +4149,11 @@
           <t>인도적 차원 좋아하네~ 무슬림은 무조건 안된다</t>
         </is>
       </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3429,6 +4174,11 @@
           <t>탈네반이  한국에와서  테러 발생한다.</t>
         </is>
       </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3449,6 +4199,11 @@
           <t>반대예요</t>
         </is>
       </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3469,6 +4224,11 @@
           <t>반대에요.. 무슬림이라.. 무서워요.</t>
         </is>
       </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3489,6 +4249,11 @@
           <t>지금 난민 받을 처치나 되는줄 아냐? 대한민국이? 받고 싶은 년놈들이 집팔고 차팔아서 미국으로 보낼 여비 만들어줘라</t>
         </is>
       </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3509,6 +4274,11 @@
           <t>제발 ㅠㅠ 생각없이 일벌이지맙시다</t>
         </is>
       </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3529,6 +4299,11 @@
           <t>아이들, 임산부는 인간적으로 받고, 멀쩡한데 와서 세금 축내고 무슬림 거리 만들려는 것들은 발도 붙이지 못하게 해라</t>
         </is>
       </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3549,6 +4324,11 @@
           <t>찬성하는 인간들, 니네가 세금 따라 추가 납부해서 먹여살려. 니네 결정으로 반대하는 사람들 세금 더 내게하지 말고 이기적인 인간들아. PC주의 개극혐한다. 본인들이 책임도 못질거면서 말로만 쳐떠드는 따뜻한 세상 어쩌구 하는거 소름끼치게 혐오감들어.</t>
         </is>
       </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3569,6 +4349,11 @@
           <t>여기 댓글에 수용하자는사람들 집주소 공개하고 니네집으로 보내라고해 지금 코로나사태에 나랑 망하자는것도 아니고 인도주의도 상황봐가면서 해야지</t>
         </is>
       </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3589,6 +4374,11 @@
           <t>백신으로 장사치하는 미쿡의 개인적 문제로 한국이 수용해야 하나? 미쿡 하는 짓거리를 보면 아프간 난민을 도와야 하는지 의문이 든다. 수니파의 형제 국가도 시아파 이란도 국경문을 걸어 잠궜고, 싸가지 없는 행위 국가와 그닥 얽히고 싶지 않다. 미쿡이 감당해야 할 일이다. 20년 동안 서양 문물만 가르치고, 아프간인들도 서양 문물 흡수하여 따라쟁이하며 자생력을 키우지 못하였으니.. 참담함은 어쩔 도리 없다. 철저한 국익을 위한 전쟁을 치룬 미쿡이 스스로 책임지길 바란다. 동맹국이라서 백신도 베짱 튕기고 안 줬냐? 육두문자 쏟아질라구래~</t>
         </is>
       </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3609,6 +4399,11 @@
           <t>아프간 난민 절대 반대다</t>
         </is>
       </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3629,6 +4424,11 @@
           <t>개독들 때문에 힘들어죽겠는대이스람 까지보태게아주 개죽쓰겠네</t>
         </is>
       </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3649,6 +4449,11 @@
           <t>자국민도 못지켜주는데 무슨 난민을 받아?</t>
         </is>
       </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3669,6 +4474,11 @@
           <t>미군 그들이 왜 우리나라로 난민 데려오는 걸 결정하죠? 그건 우리나라가 결정해야 하는 것 아닌가요.</t>
         </is>
       </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3689,6 +4499,11 @@
           <t>근본 자체가..게으르고..신념 자체가 종교빼면...무지한..민족...그저 여성을 노예정도로..생각하는 민족이것 까지...너무하다...받아주지말자...인권무시하는것 아니고..자신들만 아는 민족이고 자기들 종교만 아는...골수민족을...우리와 섞지말자...안그래도 필×핀.베×남 섞여 골치다</t>
         </is>
       </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3709,6 +4524,11 @@
           <t>난민수용은좋지만 이슬람 절대반대 그들을 절대로  종교를 버리지 않는다.</t>
         </is>
       </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3729,6 +4549,11 @@
           <t>찬성하는인간들 느그들 집에 데리고 있어라.짱깨들인가?무슬림은 아니다.유럽 난민 받고 어떤지 찾아나봐라.안된다.있는 사람도 보낼판에...</t>
         </is>
       </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3749,6 +4574,11 @@
           <t>손가락이 있으면   최소한   스웨덴의 무슬림  한번  검색좀  하고  우리  토론 해보자~     프랑스야  이미  무슬림에다  아프리카인  천국이고      // 안그래도   출산률  최악의  한국이  자리한번 잡으면  자식  5~6은  기본인  무슬림에  먹히는건  아마  50년이면  될것으로 보임   //  정신  차리자    //   이  논의는    지금  우리  어른 세대에 대한  논의가  아니고   우리  자식세대에  대한  논의이다</t>
         </is>
       </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3769,6 +4599,11 @@
           <t>멀리 볼꺼도 없다 이스아엘봐도  남에 하나둘드어오기시작하면서 그냥  옛날자기선조땅이라고 우기고 지나라만들었고 우리나라는 그렇게 안되다고 확신합니까 정말 이십년삼십년 넘어가면 정말 수백만명 수천만명 되어서 이제 울나라정치권도 대통령도 지들이 안한다고 보장할수잇니 제발 인도적 차원으로 말좀하지마라 국민세금이 니돈이냐 여기서 왜우리가 저사람들하고 또 경쟁해야하고 일자리도 없는데 지들편하자고 그냥 막말하네 정말 끝까지 받으면 안되 유럽받아서 지금테러만일어나고 국민들 저사람들때문에 죽고하면 누구에 책임이지요 받자고 하는 사람들 집에 한명씩</t>
         </is>
       </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3789,6 +4624,11 @@
           <t>자유. 민주주의, 독립을 위해 싸울생각이 없는 민족은 받아주면 안된다.  무책임한 무슬림들 자꾸 받아주면 민족정체성, 국가 정체성도 모호해지고 인구밀도도 높아져 살기 힘든다.  중국넘들, 조선족들 아파트, 땅 마구 사들여서 집갑도 엄청 올리고 내나라 국민들이 힘들어 못살겠다.  외국인도 영주권이 없으면 주택,땅 구입 못하게 하라.......  못살겠다...</t>
         </is>
       </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3809,6 +4649,11 @@
           <t>절대 반대 입니다.</t>
         </is>
       </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -3829,6 +4674,11 @@
           <t>난민 받자고 하는 국회의원 지역구 있는 곳으로 보내라 제발...그것도 싫으면 정우성 진중권 같은 난민 받자고 하는 인간들 집에 몇명 넣어라</t>
         </is>
       </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3849,6 +4699,11 @@
           <t>무슬림은 굉장히 위험한 존재들이다</t>
         </is>
       </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3869,6 +4724,11 @@
           <t>범죄를안저지른다고하것지물론,  글치만 나도반댈세  이슬람정말무서움  가뜩이나 우리도 저출산에 일자리없는데 난민들 출산율높아지면 지금당장은몰라도 우리자녀세대들 너무힘들어짐 ㅠㅠ그들상황은 넘 맘에아프지만 자꾸 남의나라올게아니라 우리가그랬던것처럼 자신들의삶을 지키려 피흘려대항하면 좋겠음</t>
         </is>
       </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3889,6 +4749,11 @@
           <t>인권시민 단체 모두들 입 쳐닫고 있슴. 누가 좌뺠  꼭두각시 아닐랄까봐 ㅋㅋ</t>
         </is>
       </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3909,6 +4774,11 @@
           <t>우리나라 무종교인들이 절반 넘는거 알제?</t>
         </is>
       </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3929,6 +4799,11 @@
           <t>자신들의 문화와 신념밖에 모르는 저사람들절때  같이 살수 없다. 절때 반대!</t>
         </is>
       </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3949,6 +4824,11 @@
           <t>코르나 확산문제가 더 염려됨. 그들이 우리에게 감염이 되던 우리를 감염시키든  둘다 치료및 백신접종 둘다 문제.</t>
         </is>
       </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3969,6 +4849,11 @@
           <t>절대반대</t>
         </is>
       </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -3989,6 +4874,11 @@
           <t>주한미군기지가 이슬람난민촌으로 되면..주한미군주주둔군협정위반으로.. 우린 주한미군은 난민들데리고 미국으로돌아가라고 주장해야..</t>
         </is>
       </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4009,6 +4899,11 @@
           <t>어 반대 결사반대</t>
         </is>
       </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4029,6 +4924,11 @@
           <t>찬성하는 사람들은 이웃으로 무슬림 함 두고 생활해봐라.</t>
         </is>
       </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4049,6 +4949,11 @@
           <t>정우성 나와~~!!!</t>
         </is>
       </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4069,6 +4974,11 @@
           <t>우리조상들이 반대할겁니다인간적으로는 도와주고싶지만 내나라 내가족이우선입니다  수많은희생들로 지켜온나라입니다 빨갱이들드글거리는 이나라도 골치아파죽겠는데 이슬람난민이라니요우리의안전을위해서라도 반대합니다</t>
         </is>
       </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4089,6 +4999,11 @@
           <t>바이든 니네 본국에서 난민 받아!!!</t>
         </is>
       </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4109,6 +5024,11 @@
           <t>정치인들 집구석에 수용시키세요 밖으로 못나가게하시고 자기 나라 지키기 싫어서 미군 등골빨아먹다가 탈레반에 넘어가니까 난민이라고 살려달라고 하는 모습 꼴보기 싫은데 사회적으로 인정받고 싶어하는 우리 정치인님들이 거둬가세요</t>
         </is>
       </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4129,6 +5049,11 @@
           <t>아프간이 이꼴나는데 기여도가 큰 나라, 즉, 영국이나 러시아 위주로 받아야할거같은데? 미국이야 911테러라는 전쟁의 충분한 명분이 있었고, 아프간을 자립시키려 노력한거 정상참작하고.</t>
         </is>
       </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4149,6 +5074,11 @@
           <t>범죄 늘어난다 특히 성범죄</t>
         </is>
       </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4169,6 +5099,11 @@
           <t>미국으로 보내</t>
         </is>
       </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4189,6 +5124,11 @@
           <t>대한민국 ㅡ 이좁은 땅 덩어리에 ㅡ 순수 한국인이.얼마나 될까 ㅡ 이주노동자도 많고 울산엔 조선족 중국인만 사는.마을까지 있는데... 출산율은..떨어지고이러다 ㅡ.대한민국이.아니라 대한외국인나라가될거같아. 난민보호를 왜 우리나라에서 하냐?넓은 나라로 가라!</t>
         </is>
       </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4209,6 +5149,11 @@
           <t>도대체 어떤 사람들이 찬성 한다는거지?  우리는 북한 탈출한 사람들만 감당하기도 힘들다고 . 국제사회에 어필해야한다.</t>
         </is>
       </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4229,6 +5174,11 @@
           <t>우라나라 사람부터 살려라</t>
         </is>
       </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4249,6 +5199,11 @@
           <t>마약. 강간.폭력. 강도,천국의 한국.  연일 권리주장하는 데모 불보듯 뻔함. 요즘 동남아인들의 음주운전사고 쓰레기유럽북중미인들의 노 마스크. 한국인멸시 등이 우리나라에서 버젓이 벌어지고 있는 때에 이스람인들을 받으라고?  여자를 강간하고 죽여도 인정받는 그런사람들을 인도적차원에서 받으라고?</t>
         </is>
       </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4269,6 +5224,11 @@
           <t>막연한? Is.  탈레반 등이 여성인권 유린하는데 막연한이라니  ?   이슬람국가와 사람들은 여성을 단순한 물건취급 혹은 성적노리개취급만할뿐! 중동에 어는 나라가 여자에게 자유를 주나?  우리애들의 미래를 위해서라도 주한미군이철수하더라도 이슬람난민만은막아야한다!  그리고 여성을 성적노리개정도로보기때문에 난민을 받으면 기하급수적으로 인원수가 늘것이며 이는 또 난민수용시설의 확대와 아동교육등등 여러가지 복잡한문제를 불러오고 또한 한국처럼 좁은땅에 연일 대모가 있을것이며 결국은 몇년 후에는 나라의 예산이 이를 감당 못할것이다.</t>
         </is>
       </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4289,6 +5249,11 @@
           <t>막연한 반대같은 소리하고 있네. 무슬림들 10명씩 자식나아서 50년 지나면 감당 못한다!</t>
         </is>
       </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4309,6 +5274,11 @@
           <t>중동은 번식이 강하다 아프간 후손들을 먹여살릴껀가? 대한민국이 조만간 중동국가 된다</t>
         </is>
       </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4329,6 +5299,11 @@
           <t>아마 받을 거다 한국은 현재 인구 절벽에 현장 업무 볼 사람이 없거든 그 와중에 난민이 생겼으니 향후 어떻게되든말든 인도주의를 표방하면서 노동자로 부려먹을 난민은 적극 수용할 거다 그리고 10년 뒤 알라후아르바크! 를 외치면 RPG-7이 날아다닐거다 프랑스 봐봐라 난민 받아줬더니 슬럼가 만들어서 지나다니는 학생 여자 납치해서 강간을 일삼는데 경찰도 못건드려</t>
         </is>
       </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4349,6 +5324,11 @@
           <t>탈레반의 표적</t>
         </is>
       </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4369,6 +5349,11 @@
           <t>중국인과 이슬람은 받으면 안된다. 나라 개판난다.</t>
         </is>
       </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4389,6 +5374,11 @@
           <t>출산율이 아무리 부족해도 이슬람은 안 됩니다.. 중국보다 더 해롭습니다 종교 때문에</t>
         </is>
       </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4409,6 +5399,11 @@
           <t>진짜 자영업자 다 뒤지게 생겼는데 그럴돈있으면 세금이나 좀 감면해주고 자국민좀 챙겨라 쓰레기들아....</t>
         </is>
       </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4426,7 +5421,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>호주의 이랔 난민들  복지제도 이용해서 얘 4명 이상 낳으면 그 육아 수당등으로 평생을 먹고 논다 그래서 5~ 6명씩 무제한 출산으로 급기야 열받은 호주 정부 복지제도 변경 시킴~ 독일 무슬림도 마찬가지 ~ 일 않고 독일 국민의 세금에 합법 연명해서 분노 유발~메르케 정치생명 간당 간당으로 연립정부에 목메달게 됨  게으름과 종교를 교묘히 섞어 비난을 신자라는 프레임으로 희석시김  마치 울나라 좌빨이 김일성이 주체사상 이념을 인권과 반일을 믹서시켜 옳은척 약자인 척 친일과 프레임 논쟁으로 물타기 하듯이~</t>
+          <t>CNN 아프칸 총살 영상보면 절대 난민이건 뭐건 간에 이슬람은 절대 받아들이지 못합니다. 우리 아이들과 여자들 지킬 자신들이 있습니까? 아프칸사태 보면서  대한민국이 적화되었을때 저렇게 될 수도 있겠다라는걸 느껐습니다! 이땅에 더이상 난민, 불법체류자, 조선족 그리고 북한추종세력들이 있어서는 안됩니다!</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4446,7 +5446,12 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>CNN 아프칸 총살 영상보면 절대 난민이건 뭐건 간에 이슬람은 절대 받아들이지 못합니다. 우리 아이들과 여자들 지킬 자신들이 있습니까? 아프칸사태 보면서  대한민국이 적화되었을때 저렇게 될 수도 있겠다라는걸 느껐습니다! 이땅에 더이상 난민, 불법체류자, 조선족 그리고 북한추종세력들이 있어서는 안됩니다!</t>
+          <t>조선족 짱꼴라에 빨갱이 간첩에 무슬람에 아주 나라 개판이네ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4466,7 +5471,12 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>조선족 짱꼴라에 빨갱이 간첩에 무슬람에 아주 나라 개판이네ㅋㅋㅋ</t>
+          <t>무슬람 절대반대!</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4486,7 +5496,12 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>무슬람 절대반대!</t>
+          <t>굳이 분단된 이 좁은 땅덩어리에...?인구밀도 낮은 곳으로 가는 것이 합리적 생각일듯.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4506,7 +5521,12 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>굳이 분단된 이 좁은 땅덩어리에...?인구밀도 낮은 곳으로 가는 것이 합리적 생각일듯.</t>
+          <t>절대반대</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4526,7 +5546,12 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>절대반대</t>
+          <t>지금도 조선족.중국인.외노자들 집단으로 다니며 강력범죄.음주운전.마약. ..수도 없이 일어나는 벙죄에 사회가더 혼란스러워짐.그 안에도 난민 가장한 탈ㅇ레반이 없으란 법 보장이 어디 있을ㅇ런지.절대반대합니다.지금으로도 충분히 우리 국민들 지치고 힘들지 않습니까? 서민들 먹고살기도 힘든데 난민까지 챙길 여려기 있나요? 절대반대합니다.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4546,7 +5571,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>지금도 조선족.중국인.외노자들 집단으로 다니며 강력범죄.음주운전.마약. ..수도 없이 일어나는 벙죄에 사회가더 혼란스러워짐.그 안에도 난민 가장한 탈ㅇ레반이 없으란 법 보장이 어디 있을ㅇ런지.절대반대합니다.지금으로도 충분히 우리 국민들 지치고 힘들지 않습니까? 서민들 먹고살기도 힘든데 난민까지 챙길 여려기 있나요? 절대반대합니다.</t>
+          <t>반대</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4566,7 +5596,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>인접국가들은 장벽까지 세운다던데? ? 왜세우겠노?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4586,7 +5621,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>인접국가들은 장벽까지 세운다던데? ? 왜세우겠노?</t>
+          <t>우리가 진짜 혐오하는건 이슬람이다.</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4606,7 +5646,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>우리가 진짜 혐오하는건 이슬람이다.</t>
+          <t>우리도 한국에 협조했던 아프간 사람들만 받으면 안되냐.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4626,7 +5671,12 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>우리도 한국에 협조했던 아프간 사람들만 받으면 안되냐.</t>
+          <t>찬성하는 사람들도 몇 안되지만 있긴 하지..댓글들 보면 아주 일관적이고 비슷비슷한 내용...한국도 6.25때 서방의 도움을 받았다는둥, 우리도 언제 난민이 될지 모른다는둥, 왜 받으면 안돼냐는둥.. 그런사람들 댓글모음 들어가보면...중국관련기사에 중국옹호 댓글 일색인 중국인이나 조선족, 그리고 본인 혹은 자식이 외국국적이라 언제라도 한국에 문제생겨도 떠날수 있는 사람들, 세금루팡 시민단체들...자신과 가족이 죽을때까지 한국에 살고 전쟁나면 나라 지키러 남을 사람들은 다 반대더구만.  이게 찬반이 뜨거운거냐?? 여론조작이지</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4646,7 +5696,12 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>찬성하는 사람들도 몇 안되지만 있긴 하지..댓글들 보면 아주 일관적이고 비슷비슷한 내용...한국도 6.25때 서방의 도움을 받았다는둥, 우리도 언제 난민이 될지 모른다는둥, 왜 받으면 안돼냐는둥.. 그런사람들 댓글모음 들어가보면...중국관련기사에 중국옹호 댓글 일색인 중국인이나 조선족, 그리고 본인 혹은 자식이 외국국적이라 언제라도 한국에 문제생겨도 떠날수 있는 사람들, 세금루팡 시민단체들...자신과 가족이 죽을때까지 한국에 살고 전쟁나면 나라 지키러 남을 사람들은 다 반대더구만.  이게 찬반이 뜨거운거냐?? 여론조작이지</t>
+          <t>미국넘들 완전 웃김. 나몰라라 미군 철수해서 이 사태를 만들어 놓고, 왜 지들 맘대로 난민을 보내느니 마니..</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4666,7 +5721,12 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>미국넘들 완전 웃김. 나몰라라 미군 철수해서 이 사태를 만들어 놓고, 왜 지들 맘대로 난민을 보내느니 마니..</t>
+          <t>무슬림은않됨 ~~!!반대한표요</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4686,7 +5746,12 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>무슬림은않됨 ~~!!반대한표요</t>
+          <t>"착한척" 좋은데...대가는 치뤄야되는건 아시죠??...내가족 이웃 손주들의 목숨이 그 대가예요 알고서 찬성하는거죠?? 받아들이면 그들의 자손대대 그 이념과 신념을 전수할꺼고 영국처럼 정착한 2세대 3세대가 폭탄테러 샤리아법 인정추진...알고들 있으신거죠??</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4706,7 +5771,12 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>"착한척" 좋은데...대가는 치뤄야되는건 아시죠??...내가족 이웃 손주들의 목숨이 그 대가예요 알고서 찬성하는거죠?? 받아들이면 그들의 자손대대 그 이념과 신념을 전수할꺼고 영국처럼 정착한 2세대 3세대가 폭탄테러 샤리아법 인정추진...알고들 있으신거죠??</t>
+          <t>반대의견이 대다수구만!! 찬반이 뜨겁다고 하는건 찬성과 반대의견이 비슷할때나 쓰는 용어 아닌가?? 기레기들 클릭수 올리려고 애쓴다</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4726,7 +5796,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>반대의견이 대다수구만!! 찬반이 뜨겁다고 하는건 찬성과 반대의견이 비슷할때나 쓰는 용어 아닌가?? 기레기들 클릭수 올리려고 애쓴다</t>
+          <t>이슬람국가  애들은 정신 상태가  자기위주다 남을 배려하는것이 하나도 없다  우리와는 섞일래야 섞일수 없는 존재들  자기들끼리 살아야 한다</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4746,7 +5821,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>이슬람국가  애들은 정신 상태가  자기위주다 남을 배려하는것이 하나도 없다  우리와는 섞일래야 섞일수 없는 존재들  자기들끼리 살아야 한다</t>
+          <t>찬반이 뜨겁다고??? 찬성이 애초에 있기나 하나</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4766,7 +5846,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>찬반이 뜨겁다고??? 찬성이 애초에 있기나 하나</t>
+          <t>모더나 백신 수급이 급작스럽게 이뤄지고 미군기지 난민수용이 제안되고.....우연치곤 뭔가.......공교롭다</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4786,7 +5871,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>모더나 백신 수급이 급작스럽게 이뤄지고 미군기지 난민수용이 제안되고.....우연치곤 뭔가.......공교롭다</t>
+          <t>장혜원 김재원 일단 니네 집에 먼저 데려다가 보호 해보자</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4806,7 +5896,12 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>장혜원 김재원 일단 니네 집에 먼저 데려다가 보호 해보자</t>
+          <t>미쳐돌아가는군...누구 맘대로 받아... 지들 나라야..왜?  국민들 의사는 안중에도 없이 뭐하는짓이여.</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4826,7 +5921,12 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>미쳐돌아가는군...누구 맘대로 받아... 지들 나라야..왜?  국민들 의사는 안중에도 없이 뭐하는짓이여.</t>
+          <t>개슬람이 바퀴벌레 같이 밀려오면 보기 좋겠다 서울시내에서 알라후 아쿠바르 뒤에 폭탄 터지는거 보고 싶냐?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4846,7 +5946,12 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>개슬람이 바퀴벌레 같이 밀려오면 보기 좋겠다 서울시내에서 알라후 아쿠바르 뒤에 폭탄 터지는거 보고 싶냐?</t>
+          <t>십자군을   모집하여    탈레반 무장세력을  몰아내고  자유아프간 공화국을 건설하자    성전에  동참하라</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4866,7 +5971,12 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>십자군을   모집하여    탈레반 무장세력을  몰아내고  자유아프간 공화국을 건설하자    성전에  동참하라</t>
+          <t>절대 아니되옵니다.이미  국내 들어와있는  외국인들 범죄율이 높은상태이고  그자녀드뢴차별과 갈등으로  충분히 어려운상태입니다.</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4881,12 +5991,17 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2021.08.23. 00:53</t>
+          <t>2021.09.20. 20:37</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>절대 아니되옵니다.이미  국내 들어와있는  외국인들 범죄율이 높은상태이고  그자녀드뢴차별과 갈등으로  충분히 어려운상태입니다.</t>
+          <t>마약에  어린남자애들을 성놀이개  여자를  사람취급도안하고애낳는 기계로 생각하고 자기 나라를 버린 도망자들을  구원해줄 필요없다</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4906,7 +6021,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>마약에  어린남자애들을 성놀이개  여자를  사람취급도안하고애낳는 기계로 생각하고 자기 나라를 버린 도망자들을  구원해줄 필요없다</t>
+          <t>대한민국 정말 강해지자!!! 국방력 재 정비하고 정말 나도 딸가진 여자지만 여자도 군대가고 정신무장 전투력 무장해야 어떻게 변할지 모를 세상을 준비해야 한다고 본다 누구도 넘볼수 없이 강해진다면 텔레반도 북한도 이슬람교도 두렵지 않을것 같다</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4926,7 +6046,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>대한민국 정말 강해지자!!! 국방력 재 정비하고 정말 나도 딸가진 여자지만 여자도 군대가고 정신무장 전투력 무장해야 어떻게 변할지 모를 세상을 준비해야 한다고 본다 누구도 넘볼수 없이 강해진다면 텔레반도 북한도 이슬람교도 두렵지 않을것 같다</t>
+          <t>이슬람은 단순히 종교가 아니라 정교일치의 전체주의와 같으므로 우리나라도 예맨난민같은 무슬림들을 무분별하게 수용하면 후대의 위험을 자초하는 짓이다!!! 대구 대현동 경북대근처에 무슬림유학생들이 이슬람사원을 짓겠다고 해서 주민들이 반대하고 난리났다!!! 그들은 소수일때는 조용하지만 다수가 되면 테러 폭동을 일으키는 것을 유럽에서 이미 스스로 증명하였다!!!!그들이 모이는 지역은 게토화되고 슬럼화되어서 주민들의 생존권과 재산권이 침해받기 때문에 강력히 반대한다!!! 무슬림1세대는 적응하느라 조용하지만 2~3세대는 테러를 한다</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4946,7 +6071,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>이슬람은 단순히 종교가 아니라 정교일치의 전체주의와 같으므로 우리나라도 예맨난민같은 무슬림들을 무분별하게 수용하면 후대의 위험을 자초하는 짓이다!!! 대구 대현동 경북대근처에 무슬림유학생들이 이슬람사원을 짓겠다고 해서 주민들이 반대하고 난리났다!!! 그들은 소수일때는 조용하지만 다수가 되면 테러 폭동을 일으키는 것을 유럽에서 이미 스스로 증명하였다!!!!그들이 모이는 지역은 게토화되고 슬럼화되어서 주민들의 생존권과 재산권이 침해받기 때문에 강력히 반대한다!!! 무슬림1세대는 적응하느라 조용하지만 2~3세대는 테러를 한다</t>
+          <t>유럽을 보면 답나오지.</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4966,7 +6096,12 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>유럽을 보면 답나오지.</t>
+          <t>그들은 우리와 사는 이유가 다른 . 것 같습니다.우리는 미래에 더 잘 살아보려 노력하지만 그들은 종교 차이로 사람을 죽입니다.여자는 인격이 아닌 소유물로 . 취급하는데 우리나라에 와서 문화적 정서적 차이로 사회적 문제가 되지 안을까요.  미국은 자신들이 일으킨 전쟁에서 항상패배하네요. 왜 전쟁을 시작하고 끝을 맺지 못할까요.시작은 거창하게 하고 끝은 흐지부지 그것도 재능이네여</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -4986,7 +6121,12 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>그들은 우리와 사는 이유가 다른 . 것 같습니다.우리는 미래에 더 잘 살아보려 노력하지만 그들은 종교 차이로 사람을 죽입니다.여자는 인격이 아닌 소유물로 . 취급하는데 우리나라에 와서 문화적 정서적 차이로 사회적 문제가 되지 안을까요.  미국은 자신들이 일으킨 전쟁에서 항상패배하네요. 왜 전쟁을 시작하고 끝을 맺지 못할까요.시작은 거창하게 하고 끝은 흐지부지 그것도 재능이네여</t>
+          <t>나도 다른 나라의 인권에 관심을 가져야 된다는덴 찬성 하지만 이 문제는 조금 다르다고 생각함 보통은 탄압하는 주체의 잘못이지만 아프간은 그 사람들 자체가 문제임 너무 극단적임 저 사람들에게 가서 종교와 가족들의 목숨 중 하나를 택하라 고 물어보세요 종교를 택하면 광신도입니다.. 그런 질문이 잘못된건 맞지만 이유는 본토의 수많은 사람들 안전을 위해서인데 가족들 목숨보다 종교를 택한다면 극단주의 광신도란 소리죠 만약 가족을 택한다면 최소한 광신도는 아니라는 말이기 때문에 이후 본토에 가서 이슬람 종교를 믿는 안 믿든 자유라고 생각함</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5006,7 +6146,12 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>나도 다른 나라의 인권에 관심을 가져야 된다는덴 찬성 하지만 이 문제는 조금 다르다고 생각함 보통은 탄압하는 주체의 잘못이지만 아프간은 그 사람들 자체가 문제임 너무 극단적임 저 사람들에게 가서 종교와 가족들의 목숨 중 하나를 택하라 고 물어보세요 종교를 택하면 광신도입니다.. 그런 질문이 잘못된건 맞지만 이유는 본토의 수많은 사람들 안전을 위해서인데 가족들 목숨보다 종교를 택한다면 극단주의 광신도란 소리죠 만약 가족을 택한다면 최소한 광신도는 아니라는 말이기 때문에 이후 본토에 가서 이슬람 종교를 믿는 안 믿든 자유라고 생각함</t>
+          <t>아프카니 받으면 털마니 난것들이 가만있겠냐? 정의당 당사가 먼저 날아가고 저 이상한 여자부터 뒷통수에 총알이 박힐거다 털들이 전부 보고있다고ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5026,7 +6171,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>아프카니 받으면 털마니 난것들이 가만있겠냐? 정의당 당사가 먼저 날아가고 저 이상한 여자부터 뒷통수에 총알이 박힐거다 털들이 전부 보고있다고ㅋㅋ</t>
+          <t>미국땅이 넓은데 왜?미국가라</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5046,7 +6196,12 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>미국땅이 넓은데 왜?미국가라</t>
+          <t>유럽봐라!!!!  현상황을!!!   불쌍하다고 난민들 받아  범죄가 얼마나 엄청난지!!  유럽은 땅덩이도 넓지!!길거리에 거지되에 범죄에  노출된걸!!</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5066,7 +6221,12 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>유럽봐라!!!!  현상황을!!!   불쌍하다고 난민들 받아  범죄가 얼마나 엄청난지!!  유럽은 땅덩이도 넓지!!길거리에 거지되에 범죄에  노출된걸!!</t>
+          <t>민족주의 성향이 강한 나라인데   억지로 들여오면 반감만생긴다</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5086,7 +6246,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>민족주의 성향이 강한 나라인데   억지로 들여오면 반감만생긴다</t>
+          <t>조선족도 골치아픈데 무슬림타운 ㄷㄷ 생각만해도 끔직하다..절대반대지..</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5106,7 +6271,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>조선족도 골치아픈데 무슬림타운 ㄷㄷ 생각만해도 끔직하다..절대반대지..</t>
+          <t>살리는건 둘째치고 그후에는?코로나 때문에 스트레스받는데 난민의나라로 만드려고 작정한건가</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5126,7 +6296,12 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>살리는건 둘째치고 그후에는?코로나 때문에 스트레스받는데 난민의나라로 만드려고 작정한건가</t>
+          <t>그리고 지금 코로나인데요….. ㅠㅠㅠㅠㅠㅠㅠ 저사람들 자가격리 컨트롤 되겟습니까??? ㅠㅠㅠ 문화권도 다르고 한데 …</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5146,7 +6321,12 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>그리고 지금 코로나인데요….. ㅠㅠㅠㅠㅠㅠㅠ 저사람들 자가격리 컨트롤 되겟습니까??? ㅠㅠㅠ 문화권도 다르고 한데 …</t>
+          <t>이미들어온사람은내보내면안되지만더이상난민들은들어오면안됨특히이슬람믿는사람들은</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5166,7 +6346,12 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>이미들어온사람은내보내면안되지만더이상난민들은들어오면안됨특히이슬람믿는사람들은</t>
+          <t>선진국 독일이 무슬림 때문에 휘청거리는데 아… 한국은 어쩌려고 ㅠㅠ</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5186,7 +6371,12 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>선진국 독일이 무슬림 때문에 휘청거리는데 아… 한국은 어쩌려고 ㅠㅠ</t>
+          <t>저 난민중에 코로나람다 있으면 어떡할거냐?여태 백신맞은거 무용지물</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5206,7 +6396,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>저 난민중에 코로나람다 있으면 어떡할거냐?여태 백신맞은거 무용지물</t>
+          <t>한국에 협력했던 사람들은 받아들여야지. 그리고 이미 한국에 거주하고 있는 사람들의 가족들은 받아들여야하지 않을까. 한국에 유학이든 사업이든 와 있는 사람들을 추방하는 일은 없어야할 테고.</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5226,7 +6421,12 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>한국에 협력했던 사람들은 받아들여야지. 그리고 이미 한국에 거주하고 있는 사람들의 가족들은 받아들여야하지 않을까. 한국에 유학이든 사업이든 와 있는 사람들을 추방하는 일은 없어야할 테고.</t>
+          <t>절대 반대!!! 이슬람 난민 받은 프랑스 꼴 난다!</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5246,7 +6446,12 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>절대 반대!!! 이슬람 난민 받은 프랑스 꼴 난다!</t>
+          <t>미군이 아프간에서 철수 할 땐한국도 미군 빠지면 저 꼴 된다고 꼭 필요하다더니미국이 필요해서 기지에 난민 수용 하겠다고 하는건결사반대???님비정신 최고네 ~~~ 양심이 있으면  같이 고민이라도 해보자~ 해야지</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5266,7 +6471,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>미군이 아프간에서 철수 할 땐한국도 미군 빠지면 저 꼴 된다고 꼭 필요하다더니미국이 필요해서 기지에 난민 수용 하겠다고 하는건결사반대???님비정신 최고네 ~~~ 양심이 있으면  같이 고민이라도 해보자~ 해야지</t>
+          <t>호의가  악의로 돌아올수도~</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5286,7 +6496,12 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>호의가  악의로 돌아올수도~</t>
+          <t>며칠전  강원도 분교에 6명 애들중 한명이 양부모가 한국인이고  너머지 5명으  다문화 가정 출신이네  이 5명이  양부보 한국 학생한명을 그렇게 괴롭히더라고  그래서 왜  물으니  교장이 .그애만  한국 부모라 그런지 애들이 다 그렇게 괴롭 힌다고  하더라...  미국이 만든  난민 당연  세계 최고 미국으로  넓은 땅  미국으로 데리고  가야지...</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5306,7 +6521,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>며칠전  강원도 분교에 6명 애들중 한명이 양부모가 한국인이고  너머지 5명으  다문화 가정 출신이네  이 5명이  양부보 한국 학생한명을 그렇게 괴롭히더라고  그래서 왜  물으니  교장이 .그애만  한국 부모라 그런지 애들이 다 그렇게 괴롭 힌다고  하더라...  미국이 만든  난민 당연  세계 최고 미국으로  넓은 땅  미국으로 데리고  가야지...</t>
+          <t>자유 평화 민주 평등 수호 정의  외치는애들중에 대가리 안깨진애들이 없다</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5326,7 +6546,12 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>자유 평화 민주 평등 수호 정의  외치는애들중에 대가리 안깨진애들이 없다</t>
+          <t>자국민도 감당못하는나라에서 주제넘게..ㅋ수용 찬성하는이들은 소위 국뽕들임?자국민들부터신경쓰셔 자국민부터..난민수용강요하면 미군철수하라고하고핵개발해..ㅡ.ㅡ</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5346,7 +6571,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>자국민도 감당못하는나라에서 주제넘게..ㅋ수용 찬성하는이들은 소위 국뽕들임?자국민들부터신경쓰셔 자국민부터..난민수용강요하면 미군철수하라고하고핵개발해..ㅡ.ㅡ</t>
+          <t>안돼죠.미국에서 책임관리를 한다면 모를까.우리가 약자라서 받아들여야 한다면재고해야 될 문제가 많아진다.</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5366,7 +6596,12 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>안돼죠.미국에서 책임관리를 한다면 모를까.우리가 약자라서 받아들여야 한다면재고해야 될 문제가 많아진다.</t>
+          <t>동정심이 최선이 아니지... 미국이 몇년동안 원조를 몇조 들이박아도 바뀌는게 없는 나라인데, 멀쩡한 남자들이 여자, 아이 다 버리고 도망가는거 보고 유럽애들도 욕하드만</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5386,7 +6621,12 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>동정심이 최선이 아니지... 미국이 몇년동안 원조를 몇조 들이박아도 바뀌는게 없는 나라인데, 멀쩡한 남자들이 여자, 아이 다 버리고 도망가는거 보고 유럽애들도 욕하드만</t>
+          <t>아프간사람들이  긴급한상황이고   한국이도와준다면 지금잘한일이라고생각하겠지만  나중을생각한다면  한국은 범죄와 한국사람들이 많은피해가갈것이다!!  아프간사람들이  아프간에서 몇십년동안  자기나라문화를지키며살아왔는데 한국에도적응할라면 많은시간이필요할것이다!!  다른나라는 몰라도 아프간은 절대받아들이면 안된다!!</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5406,7 +6646,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>아프간사람들이  긴급한상황이고   한국이도와준다면 지금잘한일이라고생각하겠지만  나중을생각한다면  한국은 범죄와 한국사람들이 많은피해가갈것이다!!  아프간사람들이  아프간에서 몇십년동안  자기나라문화를지키며살아왔는데 한국에도적응할라면 많은시간이필요할것이다!!  다른나라는 몰라도 아프간은 절대받아들이면 안된다!!</t>
+          <t>인도주의 운운하며 아프가니스탄 난민을 수용하자는 뚱딴지같은 발언에 어안이 벙벙하다 그 안에 어떤 위장 탈레반이 있을지? 가뜩이나 외국인 우대로 굴러온 돌이 박힌 돌을 빼낼 지경으로 엉망이된 나라에 또다시 주변국도 아닌 우리와는 상관도 없는 거리에 있는 난민을 받겠다고?  그뒷감당은 또 국민의 혈세로?  내코가 석자인 이 마당에 그 말이 나온 저의가 의심된다 그런 인도주의 심경이 흘러넘치는 분들이 아프가니스탄으로 가서 도우라 주변국 종교 문화 비슷한 나라로 인도함이 진정한 인도주의 행동파가  아닐까? 자유대한민국은 절대 안된다!!!</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5426,7 +6671,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>인도주의 운운하며 아프가니스탄 난민을 수용하자는 뚱딴지같은 발언에 어안이 벙벙하다 그 안에 어떤 위장 탈레반이 있을지? 가뜩이나 외국인 우대로 굴러온 돌이 박힌 돌을 빼낼 지경으로 엉망이된 나라에 또다시 주변국도 아닌 우리와는 상관도 없는 거리에 있는 난민을 받겠다고?  그뒷감당은 또 국민의 혈세로?  내코가 석자인 이 마당에 그 말이 나온 저의가 의심된다 그런 인도주의 심경이 흘러넘치는 분들이 아프가니스탄으로 가서 도우라 주변국 종교 문화 비슷한 나라로 인도함이 진정한 인도주의 행동파가  아닐까? 자유대한민국은 절대 안된다!!!</t>
+          <t>만명정도 받는다치자 어디에 정착시킬건데 손바닥만한 나라에 어떤 동네에서 수용할까 장혜영 사는 동네는 어떨까 문제꺼리 만드네</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5446,7 +6696,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>만명정도 받는다치자 어디에 정착시킬건데 손바닥만한 나라에 어떤 동네에서 수용할까 장혜영 사는 동네는 어떨까 문제꺼리 만드네</t>
+          <t>아프간에 들어간 것도. 철군한것도 미국이 결정한거. 우리나라는 거의 단일민족이다. 코로나 시국도 힘들고. 미중 틈에 껴서.또 북문제로도 버겁다. 땅덩어리 넓은 미국에 데려가는게 맞다</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5466,7 +6721,12 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>아프간에 들어간 것도. 철군한것도 미국이 결정한거. 우리나라는 거의 단일민족이다. 코로나 시국도 힘들고. 미중 틈에 껴서.또 북문제로도 버겁다. 땅덩어리 넓은 미국에 데려가는게 맞다</t>
+          <t>땅덩이도 작은나라에 뭔 멍소리야? 가까운 주변국가 많이있다 굳이 여기까지 올 필요는 없다본다. 그리고 코로나는?</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5486,7 +6746,12 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>땅덩이도 작은나라에 뭔 멍소리야? 가까운 주변국가 많이있다 굳이 여기까지 올 필요는 없다본다. 그리고 코로나는?</t>
+          <t>미군이 철수한 이유가 자기나란 스스로 지켜야 한다고 했지. 도망가는 사람들이 죄다 난민이면 전세계 분쟁국 사람들 죄다 받아야</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5506,7 +6771,12 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>미군이 철수한 이유가 자기나란 스스로 지켜야 한다고 했지. 도망가는 사람들이 죄다 난민이면 전세계 분쟁국 사람들 죄다 받아야</t>
+          <t>부칸으로...</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5526,7 +6796,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>부칸으로...</t>
+          <t>이나라도 저렇게 되지 말라는 법없다. 공산주의 사회주의 좌파 모두 배척하고 나라를 바르게 세워야 한다. 말로만 민주자유를 부르짖는 지역민들을 경계하고 우방인 미국을 등져선 정말 우리나라의 미래는 없다 이승만과 박정희 의 헌신없이 현재의 우리가 있을수 없었다. 현행법 10배 20배 강화하고 사형제도 반드시 부활해야 하고 외국 순방가서 큰돈 벌어올수있는분 안보와 치안과 경제를 잘 아는 후보가 대통령에 당선되어 국태민안,, 이 꼭 현실이 되었으면 하는 바램 간절하다.</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5546,7 +6821,12 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>이나라도 저렇게 되지 말라는 법없다. 공산주의 사회주의 좌파 모두 배척하고 나라를 바르게 세워야 한다. 말로만 민주자유를 부르짖는 지역민들을 경계하고 우방인 미국을 등져선 정말 우리나라의 미래는 없다 이승만과 박정희 의 헌신없이 현재의 우리가 있을수 없었다. 현행법 10배 20배 강화하고 사형제도 반드시 부활해야 하고 외국 순방가서 큰돈 벌어올수있는분 안보와 치안과 경제를 잘 아는 후보가 대통령에 당선되어 국태민안,, 이 꼭 현실이 되었으면 하는 바램 간절하다.</t>
+          <t>안돼 황소개구리같은 일이 벌어질거다 절대로 안된다</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5566,7 +6846,12 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>안돼 황소개구리같은 일이 벌어질거다 절대로 안된다</t>
+          <t>무슨 난민을 수용한단 말이고  지금 그럴 처지가 되나    일은 미국이 디 저질라놓고     뒷처리를 우리가 한단 말이고</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5586,7 +6871,12 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>무슨 난민을 수용한단 말이고  지금 그럴 처지가 되나    일은 미국이 디 저질라놓고     뒷처리를 우리가 한단 말이고</t>
+          <t>괜이 난민 수용했다고 들어오는순간 난민새끼들이 한국여자 강간하고 즐기고 있을거 안봐도비디오다. 여자만 입국시키고 남자는 들여보내지마.</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5606,7 +6896,12 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>괜이 난민 수용했다고 들어오는순간 난민새끼들이 한국여자 강간하고 즐기고 있을거 안봐도비디오다. 여자만 입국시키고 남자는 들여보내지마.</t>
+          <t>코로나로 살기도 힘든데....난민수용이요?절대 반대입니다!!!</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5626,7 +6921,12 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>코로나로 살기도 힘든데....난민수용이요?절대 반대입니다!!!</t>
+          <t>확진자들이 넘치는 마당에 아프카니스탄 난민까지 들어 오면  그냥 그들 끼리 살라고 하세요 지금 우리 국민들 힘들어요  언제 벗을지 모를 마스크  쓰고 다니는 어린이들 생각하면 가슴 아파요  받아주면 절대 안됩니다</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5646,7 +6946,12 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>확진자들이 넘치는 마당에 아프카니스탄 난민까지 들어 오면  그냥 그들 끼리 살라고 하세요 지금 우리 국민들 힘들어요  언제 벗을지 모를 마스크  쓰고 다니는 어린이들 생각하면 가슴 아파요  받아주면 절대 안됩니다</t>
+          <t>이슬람 개종하면 가능</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5666,7 +6971,12 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>이슬람 개종하면 가능</t>
+          <t>대부분이 반대인데 무슨 찬반이 뜨거워 ㅡㅡ?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5686,7 +6996,12 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>대부분이 반대인데 무슨 찬반이 뜨거워 ㅡㅡ?</t>
+          <t>뭔 난민을받아 정신쳐나갔네</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5706,7 +7021,12 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>뭔 난민을받아 정신쳐나갔네</t>
+          <t>무슬림 절대 반대 완전 반대</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5726,7 +7046,12 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>무슬림 절대 반대 완전 반대</t>
+          <t>취업난, 코로나, 저출산, 전쟁휴전 등 다방면으로 저희 국민들과 국가가 이미 힘든상황이고 해결할게 많은대 난민한테까지 신경쓸 여럭이 없을거같아요 반대입니다.</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5746,7 +7071,12 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>취업난, 코로나, 저출산, 전쟁휴전 등 다방면으로 저희 국민들과 국가가 이미 힘든상황이고 해결할게 많은대 난민한테까지 신경쓸 여럭이 없을거같아요 반대입니다.</t>
+          <t>왜 하필 우리나라인지 ㅡㅡ거정스러운게 현실</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5766,7 +7096,12 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>왜 하필 우리나라인지 ㅡㅡ거정스러운게 현실</t>
+          <t>호의가 권력이 되는날이 올거다.</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5786,7 +7121,12 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>호의가 권력이 되는날이 올거다.</t>
+          <t>아멘.    받아주세요.</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5806,7 +7146,12 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>아멘.    받아주세요.</t>
+          <t>이슬람  주사파 종교가이렇게무섭다   사람 을너무잔인하게죽인다</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5826,7 +7171,12 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>이슬람  주사파 종교가이렇게무섭다   사람 을너무잔인하게죽인다</t>
+          <t>돈 받았냐? 뭘 난민수용이야</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5846,7 +7196,12 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>돈 받았냐? 뭘 난민수용이야</t>
+          <t>진심 무슨 또 거짓으로 감성팔이해서 나라 망칠라 하냐 지금 있는 애들도 내 보내야 할판이다 제발 유럽 꼴 보고도 느끼는게 없어?? 그렇게 도와주고 싶으면 인권팔이 니들이 돈내서 도와주고 다른 나라 갈 수 있게 도와줘 무슬림이 장난인줄 아나 그들이 숫자 늘어나면 우리가 저렇게 된다고 이 돈에 눈멀어서 똥인지 된장인지 모르는 000나간 인권팔이들아</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5866,7 +7221,12 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>진심 무슨 또 거짓으로 감성팔이해서 나라 망칠라 하냐 지금 있는 애들도 내 보내야 할판이다 제발 유럽 꼴 보고도 느끼는게 없어?? 그렇게 도와주고 싶으면 인권팔이 니들이 돈내서 도와주고 다른 나라 갈 수 있게 도와줘 무슬림이 장난인줄 아나 그들이 숫자 늘어나면 우리가 저렇게 된다고 이 돈에 눈멀어서 똥인지 된장인지 모르는 000나간 인권팔이들아</t>
+          <t>장혜영 ,김재원 의원 집앞에 만드는게 정답이다.  지들이 주장만 해놓고 뒤로 쏙  빠지면 안되지.</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5886,7 +7246,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>장혜영 ,김재원 의원 집앞에 만드는게 정답이다.  지들이 주장만 해놓고 뒤로 쏙  빠지면 안되지.</t>
+          <t>우리나라도 저렇게 될수 있다는 생각으로 어느 정도는 수용해줘야 한다고 본다 생명을  우습게 여기는 공산당놈들과 똑같지는 말아야지</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5906,7 +7271,12 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>우리나라도 저렇게 될수 있다는 생각으로 어느 정도는 수용해줘야 한다고 본다 생명을  우습게 여기는 공산당놈들과 똑같지는 말아야지</t>
+          <t>받자는 사람 집에 우선적으로 배치해라</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5926,7 +7296,12 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>받자는 사람 집에 우선적으로 배치해라</t>
+          <t>저게 무슬림과 무슬림 비교해서 그나마 나은 무슬림인거지,  무슬림을 어디 우리같이 아름다운 나라에 갖다놓을라고 그러냐 아휴..</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5946,7 +7321,12 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>저게 무슬림과 무슬림 비교해서 그나마 나은 무슬림인거지,  무슬림을 어디 우리같이 아름다운 나라에 갖다놓을라고 그러냐 아휴..</t>
+          <t>현재 국내에 있던 난민들은 냅두고 앞으론 더이상 받지 맙시다 차라리 인도적 차원에서 물질로 도와줍시다</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5966,7 +7346,12 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>현재 국내에 있던 난민들은 냅두고 앞으론 더이상 받지 맙시다 차라리 인도적 차원에서 물질로 도와줍시다</t>
+          <t>난민들 받으면 난민들 의식주는 누가 감당하냐? ---&gt;우리세금.난민들 일자리 창출? ---&gt;서민들 일자리 박탈만만하게 볼 문제가 아니다.</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -5986,7 +7371,12 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>난민들 받으면 난민들 의식주는 누가 감당하냐? ---&gt;우리세금.난민들 일자리 창출? ---&gt;서민들 일자리 박탈만만하게 볼 문제가 아니다.</t>
+          <t>우리나라는 탈북자들로 이미 넘치게 난민 수용하는 중이다</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6006,7 +7396,12 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>우리나라는 탈북자들로 이미 넘치게 난민 수용하는 중이다</t>
+          <t>근본부터가 우리나라 국민민족성과는 거리가 멀고 쟤들은 후일 생각 안하고 조혼.다산이 일상 애를 앞세워 감성에호소 나중엔 세력이 커져 나라전체를 전복 극단으로 전개 무슬림들의 반복적인 역사적패턴</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6026,7 +7421,12 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>근본부터가 우리나라 국민민족성과는 거리가 멀고 쟤들은 후일 생각 안하고 조혼.다산이 일상 애를 앞세워 감성에호소 나중엔 세력이 커져 나라전체를 전복 극단으로 전개 무슬림들의 반복적인 역사적패턴</t>
+          <t>미국 땅덩어리가 그렇게 넓은데 알래스카에 모아서살게해줘라 ㅋ</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6046,7 +7446,12 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>미국 땅덩어리가 그렇게 넓은데 알래스카에 모아서살게해줘라 ㅋ</t>
+          <t>재정신이냐 진짜? 난민? 죽어가는 국민은? 니네 운동권들이야 배가 불러 터졌지</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6066,7 +7471,12 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>재정신이냐 진짜? 난민? 죽어가는 국민은? 니네 운동권들이야 배가 불러 터졌지</t>
+          <t>자국민들이 불안하다고 얘기하는데 더이상 무슨 말이 필요한가...</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6086,7 +7496,12 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>자국민들이 불안하다고 얘기하는데 더이상 무슨 말이 필요한가...</t>
+          <t>이슬람 난민 반대한다</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6106,7 +7521,12 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>이슬람 난민 반대한다</t>
+          <t>인도적인 측면에서는 도와야겠지만, 반대로 그들이 종교의 다양성을 인정하는지 모르겠다. 자신에게 관대하길 바란다면 더른 사람들에게도 관대해야지.</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6126,7 +7546,12 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>인도적인 측면에서는 도와야겠지만, 반대로 그들이 종교의 다양성을 인정하는지 모르겠다. 자신에게 관대하길 바란다면 더른 사람들에게도 관대해야지.</t>
+          <t>저기서 찬성하는 사람들 집에 난민들 1명씩 붙여줘서 홈무슨 것처럼 일주일 같이살게 프로그램  해주세요~  꼭 부탁이어요~  자유에는 책임이 따른다는것이 말로만 하는것이 아니라!!~  같이 일주일동안에서 한달정도 쟐케어할수있는지  보고 ~~  말하기는 쉬워요~  자유 인권 평등 그럼 뒷감당도 말한 사람들이 더 적극적으로 해야줘!!~~  말은 당신이 하고 책임은 일반 사람들이 지냐요!!??  넓은 미국땅에다 하면 되지!!~~  왜 우리나라에 한다는거야!!!~~~</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -6146,7 +7571,12 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>코쟁이가 까라면 깔수밖에없는 후진국이라..아마 거제도가 유력하긋지</t>
+          <t>그들에게 조금만 조금만이 앞으로를 준비하는 한걸음 두걸음이 될꺼고 우리나라의 미래는 어때질까?그들이 과연? 적응을했다면 미국이 도와준 20년 전부터 몇년간이라도 바뀌어야했다 그들은 인생을 너무 쉽게 쉽게 받아들이고 돈이 부족하면 어린 아이마저 쉽게 이해할수 없다 이해하고 싶지도 않고 대구는 현재 무섭다고 하는데 타 지역이라고 해서 안전할거 같습니까 여러분? 서울 강남지역에 사는사람은 괜찮다고요? 그나라 출산율 모르세요? 우리나라 최대 4명안쪽이라치면 그나라 10명이상 자식 낳아요 서울도 빼앗길듯 소잃고 외앙간 고치지말고 몰아냅시다</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6166,7 +7596,12 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>저기서 찬성하는 사람들 집에 난민들 1명씩 붙여줘서 홈무슨 것처럼 일주일 같이살게 프로그램  해주세요~  꼭 부탁이어요~  자유에는 책임이 따른다는것이 말로만 하는것이 아니라!!~  같이 일주일동안에서 한달정도 쟐케어할수있는지  보고 ~~  말하기는 쉬워요~  자유 인권 평등 그럼 뒷감당도 말한 사람들이 더 적극적으로 해야줘!!~~  말은 당신이 하고 책임은 일반 사람들이 지냐요!!??  넓은 미국땅에다 하면 되지!!~~  왜 우리나라에 한다는거야!!!~~~</t>
+          <t>그 여자들 마저도 사상이 이상하게 변질되어 있어서타문화를 배척하며 그 아이들 마저도 급식에 위생저하 할랄방식 도축로 된 급식이 안나온다며 밥을 굶기던가 맨밥 이나 야채위주로만 먹고 민원을 건다는데 제정신인가 생각해 보아야할 필요가 있다 우리가 이슬람 문화권인 본인나라에서 준수해야할 사항은 지켜야 되고? 다른나라에 와서 문화가 어떻고 기도를 못하고 본인들 집 근처에 땅사서 이슬람 사원 세우려고 하는 것이 이슬람 무슬림 으로부터 본인들이 앞으로 우리나라를 본인의 나라로 개척해 나간다는 첫걸음이 아닐까?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6186,7 +7621,12 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>그들에게 조금만 조금만이 앞으로를 준비하는 한걸음 두걸음이 될꺼고 우리나라의 미래는 어때질까?그들이 과연? 적응을했다면 미국이 도와준 20년 전부터 몇년간이라도 바뀌어야했다 그들은 인생을 너무 쉽게 쉽게 받아들이고 돈이 부족하면 어린 아이마저 쉽게 이해할수 없다 이해하고 싶지도 않고 대구는 현재 무섭다고 하는데 타 지역이라고 해서 안전할거 같습니까 여러분? 서울 강남지역에 사는사람은 괜찮다고요? 그나라 출산율 모르세요? 우리나라 최대 4명안쪽이라치면 그나라 10명이상 자식 낳아요 서울도 빼앗길듯 소잃고 외앙간 고치지말고 몰아냅시다</t>
+          <t>아니 북한 난민들 많이 받아들이는 한국인데 이슬람까지 받아들여? 미쳤네</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6206,7 +7646,12 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>그 여자들 마저도 사상이 이상하게 변질되어 있어서타문화를 배척하며 그 아이들 마저도 급식에 위생저하 할랄방식 도축로 된 급식이 안나온다며 밥을 굶기던가 맨밥 이나 야채위주로만 먹고 민원을 건다는데 제정신인가 생각해 보아야할 필요가 있다 우리가 이슬람 문화권인 본인나라에서 준수해야할 사항은 지켜야 되고? 다른나라에 와서 문화가 어떻고 기도를 못하고 본인들 집 근처에 땅사서 이슬람 사원 세우려고 하는 것이 이슬람 무슬림 으로부터 본인들이 앞으로 우리나라를 본인의 나라로 개척해 나간다는 첫걸음이 아닐까?</t>
+          <t>무슬림 받으면 전국민 테러리스트화 되겠네</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6226,7 +7671,12 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>아니 북한 난민들 많이 받아들이는 한국인데 이슬람까지 받아들여? 미쳤네</t>
+          <t>난민 받으면 치안이나 난민으로부터 오는 사회적갈등이나 피해를 해결가능하면 받아도 상관없을뜻결론:오지마라!</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6246,7 +7696,12 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>무슬림 받으면 전국민 테러리스트화 되겠네</t>
+          <t>중궈들도 좀 내보내라</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6266,7 +7721,12 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>난민 받으면 치안이나 난민으로부터 오는 사회적갈등이나 피해를 해결가능하면 받아도 상관없을뜻결론:오지마라!</t>
+          <t>무슬림 절대반대 다 죽는다</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6286,7 +7746,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>중궈들도 좀 내보내라</t>
+          <t>찬성하는 사람들이 데리고 살아라</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6306,7 +7771,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>무슬림 절대반대 다 죽는다</t>
+          <t>사상이 무서운거다. 그들이 종교를 버리면 받아주고 그렇지 않으면 반대. 그들보고 목숨과 종교를 선택하라고 해라.  한국내  사이비 종교를 한 번 보고 판단해라</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6326,7 +7796,12 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>찬성하는 사람들이 데리고 살아라</t>
+          <t>반대</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6346,7 +7821,12 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>사상이 무서운거다. 그들이 종교를 버리면 받아주고 그렇지 않으면 반대. 그들보고 목숨과 종교를 선택하라고 해라.  한국내  사이비 종교를 한 번 보고 판단해라</t>
+          <t>알라후 아르바크!!!!!!!</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6366,7 +7846,12 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>난민 받지마라    하와이 미군기지에서 받아라</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6386,7 +7871,12 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>알라후 아르바크!!!!!!!</t>
+          <t>남의 나라얘긴줄만 알고 미군 항공기에 탄 난민들 안타깝게 생각했었는데 우리나라 얘기가 될줄이야 놀랍다. 먼 중동 아랍지역의 난민이 많고 많은 전세계 나라중 1도 상관없는 우리나라라니 어이없네.  그냥 미국 괌근처 태평양 외딴섬에 자기들끼리 살도록 하는게 좋을듯</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6406,7 +7896,12 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>난민 받지마라    하와이 미군기지에서 받아라</t>
+          <t>우리도 지금 이렇게 힘들다.더 잘살고 같은 무슬림에서 받아라</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6426,7 +7921,12 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>남의 나라얘긴줄만 알고 미군 항공기에 탄 난민들 안타깝게 생각했었는데 우리나라 얘기가 될줄이야 놀랍다. 먼 중동 아랍지역의 난민이 많고 많은 전세계 나라중 1도 상관없는 우리나라라니 어이없네.  그냥 미국 괌근처 태평양 외딴섬에 자기들끼리 살도록 하는게 좋을듯</t>
+          <t>오냐오냐해서 망한건데, 또 오냐오냐 해줘야함?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6446,7 +7946,12 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>우리도 지금 이렇게 힘들다.더 잘살고 같은 무슬림에서 받아라</t>
+          <t>정우성 출동~~출장다녀오세요</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6466,7 +7971,12 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>오냐오냐해서 망한건데, 또 오냐오냐 해줘야함?</t>
+          <t>우리로 치면 도망치는 친일파 받는건가?</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6486,7 +7996,12 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>정우성 출동~~출장다녀오세요</t>
+          <t>정치인들 수용하고 싶거든 니네집에 수용해라 절대반대청원갑니다</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6506,7 +8021,12 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>우리로 치면 도망치는 친일파 받는건가?</t>
+          <t>아직 돈 많나보지??</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6526,7 +8046,12 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>정치인들 수용하고 싶거든 니네집에 수용해라 절대반대청원갑니다</t>
+          <t>좀 있는 사람들이나 챙겨줘라 우리가 남 도울 처지가 되나? 북한, 중국, 일본이 호시탐탐 노리는 반도국가다우리는 지금 평화로운 나라가 아닌 휴전국이란 말이다 좀 전쟁휴전국에서 종식이나 된 후에 다른나라 도울 생각을 해라ㅡㅡ</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6546,7 +8071,12 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>아직 돈 많나보지??</t>
+          <t>반대</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6566,7 +8096,12 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>좀 있는 사람들이나 챙겨줘라 우리가 남 도울 처지가 되나? 북한, 중국, 일본이 호시탐탐 노리는 반도국가다우리는 지금 평화로운 나라가 아닌 휴전국이란 말이다 좀 전쟁휴전국에서 종식이나 된 후에 다른나라 도울 생각을 해라ㅡㅡ</t>
+          <t>만의하나 받아들이는 순간!!  우리 아이들 미래는 없다!!!!!절대 절대 반대입니다~</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6586,7 +8121,12 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>찬성하는 사람들은 자비로 충당해라 테러나면 느그들이 책임지고</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6606,7 +8146,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>만의하나 받아들이는 순간!!  우리 아이들 미래는 없다!!!!!절대 절대 반대입니다~</t>
+          <t>테러 일어납니다</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6626,7 +8171,12 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>찬성하는 사람들은 자비로 충당해라 테러나면 느그들이 책임지고</t>
+          <t>평화와 안전을 불쌍한 마음이 든다고 바꾸고 싶지 않아요! 미국이 싼 똥은 미국이 치워라! 이슬람 난민 절대 반대!</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6646,7 +8196,12 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>테러 일어납니다</t>
+          <t>찬성하는 인간집에 살게하면되겠네특히 정의당.너</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6666,7 +8221,12 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>평화와 안전을 불쌍한 마음이 든다고 바꾸고 싶지 않아요! 미국이 싼 똥은 미국이 치워라! 이슬람 난민 절대 반대!</t>
+          <t>난감하네......</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6686,7 +8246,12 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>찬성하는 인간집에 살게하면되겠네특히 정의당.너</t>
+          <t>혹시라도 꼭 받아야할 상황이 된다면 어린애랑 여자만 받아라. 이슬람교 우리나라에 뿌리내리면 여기도 지옥되는거다.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6706,7 +8271,12 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>난감하네......</t>
+          <t>대께문들도 싫어할것이다!!</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6726,7 +8296,12 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>혹시라도 꼭 받아야할 상황이 된다면 어린애랑 여자만 받아라. 이슬람교 우리나라에 뿌리내리면 여기도 지옥되는거다.</t>
+          <t>우리 맨주먹 붉은피로 이룬 나라에 저 싸울 생각도 없이 도망친 사람들을 왜 받아줘야 하며 도망간 대통령은 어쩔껀데? 여자들은 남아서 시위도 하잖아 다시 돌려보내야지 뭘 어째? 도망치다 압사당해 죽을꺼면 싸우다 죽어야지</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6746,7 +8321,12 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>대께문들도 싫어할것이다!!</t>
+          <t>아프간 국민스스로 싸워야지 맨날 다른나라가 도와주길바라냐? 미국도 그동안 돈 많이 썼다. 그들은 우리처럼 왜 저항하지 않는건데? 도망다니고 피하기만 하니까 벗어나질 못하지..</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6766,7 +8346,12 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>우리 맨주먹 붉은피로 이룬 나라에 저 싸울 생각도 없이 도망친 사람들을 왜 받아줘야 하며 도망간 대통령은 어쩔껀데? 여자들은 남아서 시위도 하잖아 다시 돌려보내야지 뭘 어째? 도망치다 압사당해 죽을꺼면 싸우다 죽어야지</t>
+          <t>땅 넓은 미국 땅은 언제 써먹으려고...</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6786,7 +8371,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>아프간 국민스스로 싸워야지 맨날 다른나라가 도와주길바라냐? 미국도 그동안 돈 많이 썼다. 그들은 우리처럼 왜 저항하지 않는건데? 도망다니고 피하기만 하니까 벗어나질 못하지..</t>
+          <t>유럽에서 받아도 살인사건 나서 반대여론 일어나고, 막는 과정에서 물가에 얼굴 박고 죽은 난민보고 동정여론이 일어나고, 남아있던 어린이가 먼지를 뒤집어쓴 상태로 다쳐서 얼어붙은 상태로 외부의 말도 못 알아들어서 동정여론이 또 일어났지. 받아도 문제, 거부해도 문제, 그냥 문제다.</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6806,7 +8396,12 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>땅 넓은 미국 땅은 언제 써먹으려고...</t>
+          <t>찬반이 아니라 그냥 다 반대야!!!</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6826,7 +8421,12 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>유럽에서 받아도 살인사건 나서 반대여론 일어나고, 막는 과정에서 물가에 얼굴 박고 죽은 난민보고 동정여론이 일어나고, 남아있던 어린이가 먼지를 뒤집어쓴 상태로 다쳐서 얼어붙은 상태로 외부의 말도 못 알아들어서 동정여론이 또 일어났지. 받아도 문제, 거부해도 문제, 그냥 문제다.</t>
+          <t>종교에빠진것들 절대안된다  그들이 씨앗되어서 나라망친다 결사반대여 내국민먼저 살려라  우리도 죽기직전이다</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6841,12 +8441,17 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2021.08.22. 19:39</t>
+          <t>2021.09.24. 19:35</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>찬반이 아니라 그냥 다 반대야!!!</t>
+          <t>내국인 세금 오지게 걷어서 외국인만 먹여살리는 나라</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6866,7 +8471,12 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>종교에빠진것들 절대안된다  그들이 씨앗되어서 나라망친다 결사반대여 내국민먼저 살려라  우리도 죽기직전이다</t>
+          <t>인권변호사 출신 대통령이 답해야할 차례다!</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6886,7 +8496,12 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>내국인 세금 오지게 걷어서 외국인만 먹여살리는 나라</t>
+          <t>미군 기지에 어쩔수 없이 잠깐 수용한다면... 매일 찬송가. 불경 틀어주고 매끼 돼지고기 요리를 해서... 먹고 개종하면 그땐 생각을...... 근데 쟤네들 종교도 안버릴 꺼구... 그리고 막상 나중에는 국내에서 지들이 탈레반짓 할듯....</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6906,7 +8521,12 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>인권변호사 출신 대통령이 답해야할 차례다!</t>
+          <t>우리나라가 워낙 배타적이라 적응하기도 힘들겁니다. 일단 미국이 원하는데로 인도적인 차원에서 .받아줬으면 합니다. 우리나라 사람들 전부다 똑똑합니다. 대통령도 탄핵하는 국민입니다. 호락호락하고 만만한 국민성 아닙니다.</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6926,7 +8546,12 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>미군 기지에 어쩔수 없이 잠깐 수용한다면... 매일 찬송가. 불경 틀어주고 매끼 돼지고기 요리를 해서... 먹고 개종하면 그땐 생각을...... 근데 쟤네들 종교도 안버릴 꺼구... 그리고 막상 나중에는 국내에서 지들이 탈레반짓 할듯....</t>
+          <t>넓고 넓은 미국에서 받아주면 되잖아!! 피마캠프로 보내도 되고!! 세계패권 미국 대빵 왜그래???</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6946,7 +8571,12 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>우리나라가 워낙 배타적이라 적응하기도 힘들겁니다. 일단 미국이 원하는데로 인도적인 차원에서 .받아줬으면 합니다. 우리나라 사람들 전부다 똑똑합니다. 대통령도 탄핵하는 국민입니다. 호락호락하고 만만한 국민성 아닙니다.</t>
+          <t>우리 살기도 좁다 양키야 늬들 땅 넓잖아</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6966,7 +8596,12 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>넓고 넓은 미국에서 받아주면 되잖아!! 피마캠프로 보내도 되고!! 세계패권 미국 대빵 왜그래???</t>
+          <t>우리나라에도 먹고살기힘들고 전쟁보다 무서운 가난속에 방치된 노인, 아이가많은데 말도안통하고 통제도안되는 외국인까지 먹여살릴필요가있나..제발 보여주기식 쇼하지말고 지금 가지고있는 우리문제부터 해결하자</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -6986,7 +8621,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>우리 살기도 좁다 양키야 늬들 땅 넓잖아</t>
+          <t>자기네 나라 내팽개치고 도망친 사람들을 왜 받아야하는지?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7006,7 +8646,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>우리나라에도 먹고살기힘들고 전쟁보다 무서운 가난속에 방치된 노인, 아이가많은데 말도안통하고 통제도안되는 외국인까지 먹여살릴필요가있나..제발 보여주기식 쇼하지말고 지금 가지고있는 우리문제부터 해결하자</t>
+          <t>최소한 남성은 받으면 안된다. 나중에 두고두고 후회할 일 생긴다.</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7026,7 +8671,12 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>자기네 나라 내팽개치고 도망친 사람들을 왜 받아야하는지?</t>
+          <t>난민이 아프간만 있는것도 아니고 갑자기 오지랖인가. 미얀마.시리아.레바논.팔레스타인.이라크 등 정치적 난민이 많은데 전부 관여할것도 아니고.</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7046,7 +8696,12 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>최소한 남성은 받으면 안된다. 나중에 두고두고 후회할 일 생긴다.</t>
+          <t>종교에 미친사람들은 절대 안된다</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7066,7 +8721,12 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>난민이 아프간만 있는것도 아니고 갑자기 오지랖인가. 미얀마.시리아.레바논.팔레스타인.이라크 등 정치적 난민이 많은데 전부 관여할것도 아니고.</t>
+          <t>데리고 와서정의당 심상정이네  10명 청와대 쩝쩝이네 50명전남에 10 만명전북어 10 만명</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7086,7 +8746,12 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>종교에 미친사람들은 절대 안된다</t>
+          <t>반대한다 코로나 시국이고 국내확진자가 증가 추세인데  외국인까지 들오면 더 심각해진다~</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7106,7 +8771,12 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>데리고 와서정의당 심상정이네  10명 청와대 쩝쩝이네 50명전남에 10 만명전북어 10 만명</t>
+          <t>짱께들부터 몰아내고 생각할문제</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7126,7 +8796,12 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>반대한다 코로나 시국이고 국내확진자가 증가 추세인데  외국인까지 들오면 더 심각해진다~</t>
+          <t>거지를  집에  들이면   결국  주인  죽이고  가족  내  쫒는다... ..짐승은   집에  들이는게 아니다..... 모든  인간은    어려워지면  짐승이된다. .....</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7146,7 +8821,12 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>짱께들부터 몰아내고 생각할문제</t>
+          <t>개혜영, 개재원 쓰레기들..</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7166,7 +8846,12 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>거지를  집에  들이면   결국  주인  죽이고  가족  내  쫒는다... ..짐승은   집에  들이는게 아니다..... 모든  인간은    어려워지면  짐승이된다. .....</t>
+          <t>인도적 차원의 입장은 이해하지만 적어도 정치인이라면 2015년 유럽행 난민사태에 대해 고민하고 발언하는게 좋을듯~메르켈 총리가 비둘기에게 먹이를 주자 나중엔 많은 비둘기들이 몰려와서 도망가는 만평도 유명하다.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7186,7 +8871,12 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>개혜영, 개재원 쓰레기들..</t>
+          <t>중요한것은 그들이 나라 수호를 위해서 싸우지않았다는것이다. 그리고  살려달라는것은 그 국민성만봐도  난민수용해주면  큰일날것이다</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7206,7 +8896,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>인도적 차원의 입장은 이해하지만 적어도 정치인이라면 2015년 유럽행 난민사태에 대해 고민하고 발언하는게 좋을듯~메르켈 총리가 비둘기에게 먹이를 주자 나중엔 많은 비둘기들이 몰려와서 도망가는 만평도 유명하다.</t>
+          <t>자국민만 신경써라</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7226,7 +8921,12 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>중요한것은 그들이 나라 수호를 위해서 싸우지않았다는것이다. 그리고  살려달라는것은 그 국민성만봐도  난민수용해주면  큰일날것이다</t>
+          <t>손절 . .</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7246,7 +8946,12 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>자국민만 신경써라</t>
+          <t>문슬람도 힘든데, 이슬람까지?? 이건 아니지;;</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7266,7 +8971,12 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>손절 . .</t>
+          <t>이게 찬반 갈릴 일인가.. 당연히 안되지</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7286,7 +8996,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>문슬람도 힘든데, 이슬람까지?? 이건 아니지;;</t>
+          <t>걍 민주당 지지자들 집에 2명씩 집어넣으면 안됨? 제일 깔끔할거 같은데</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7306,7 +9021,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>이게 찬반 갈릴 일인가.. 당연히 안되지</t>
+          <t>난민은 절대 안됩니다  같은 문화권 나라로 보내세요난민오면 절대 지금 정권 지지 안할겁니다</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7326,7 +9046,12 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>걍 민주당 지지자들 집에 2명씩 집어넣으면 안됨? 제일 깔끔할거 같은데</t>
+          <t>정우성네 집으로 보내라니까 그러네</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7346,7 +9071,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>난민은 절대 안됩니다  같은 문화권 나라로 보내세요난민오면 절대 지금 정권 지지 안할겁니다</t>
+          <t>제발 찬성하는 사람들 집에 보냅시다</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7366,7 +9096,12 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>정우성네 집으로 보내라니까 그러네</t>
+          <t>찬성하는  사람이  있긴 한거냐?  무슬림은  절대 안된다</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7386,7 +9121,12 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>제발 찬성하는 사람들 집에 보냅시다</t>
+          <t>여자랑 아이들만 받으면 좋겠다. 아프간 남자들 사상이 이개하고 여자, 아이 우습게 보는거 뻔하잖아.</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7406,7 +9146,12 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>찬성하는  사람이  있긴 한거냐?  무슬림은  절대 안된다</t>
+          <t>니가 한두명이라도 데리고 있든가. 니돈주면서 사빌ᆢ</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7426,7 +9171,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>여자랑 아이들만 받으면 좋겠다. 아프간 남자들 사상이 이개하고 여자, 아이 우습게 보는거 뻔하잖아.</t>
+          <t>참  어리석은 조선인들   그리약해빠지니  맨 역사가  당하고만살지</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7446,7 +9196,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>니가 한두명이라도 데리고 있든가. 니돈주면서 사빌ᆢ</t>
+          <t>처음에 불쌍해서받아줬다가 그들의 신앙 그들의권리 종교자유다 챙겨줘야합니다.!!!!!</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7466,7 +9221,12 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>참  어리석은 조선인들   그리약해빠지니  맨 역사가  당하고만살지</t>
+          <t>인간좀비</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7486,7 +9246,12 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>처음에 불쌍해서받아줬다가 그들의 신앙 그들의권리 종교자유다 챙겨줘야합니다.!!!!!</t>
+          <t>반대ㆍ절대반대ㆍ무슬림을 같은 인간이라고 생각하지마라</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7506,7 +9271,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>인간좀비</t>
+          <t>그래 받아줘바 한번 우리나라 어떠케 돌아가는지 보게 나는 밤마다 물떠넣고 빌어야지 난민들이 문재앙이랑 난민찬성한놈들 대가리 해드샷하게^^ 다 죽어나가바야 정신 차리겟지^^ 아이구 미래에 어떠케 될지 상상이가네^^ 애들한테 공부 때랴치고 총싸움을 가르쳐야하나? ^^ 젓갈같은한국^^ 아주 멋지다 분수도 모르거 ^^</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7526,7 +9296,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>반대ㆍ절대반대ㆍ무슬림을 같은 인간이라고 생각하지마라</t>
+          <t>한반도에 만약 정은이가 쳐들어 와서 장악한다면 우리도 저꼴 날수 있는데.. 도울수 있을때 도와야 우리도 도움을 받지</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7546,7 +9321,12 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>그래 받아줘바 한번 우리나라 어떠케 돌아가는지 보게 나는 밤마다 물떠넣고 빌어야지 난민들이 문재앙이랑 난민찬성한놈들 대가리 해드샷하게^^ 다 죽어나가바야 정신 차리겟지^^ 아이구 미래에 어떠케 될지 상상이가네^^ 애들한테 공부 때랴치고 총싸움을 가르쳐야하나? ^^ 젓갈같은한국^^ 아주 멋지다 분수도 모르거 ^^</t>
+          <t>받아서 군대 보내자</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7566,7 +9346,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>한반도에 만약 정은이가 쳐들어 와서 장악한다면 우리도 저꼴 날수 있는데.. 도울수 있을때 도와야 우리도 도움을 받지</t>
+          <t>절대반대</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7586,7 +9371,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>받아서 군대 보내자</t>
+          <t>난민 받자는 애들 자기네집에 받자하면 눈뒤집어까고 왜 우리집에 들이라는데!!!!!!!빼애애액!!!!!이랄거 100프로</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7606,7 +9396,12 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>절대반대</t>
+          <t>중국으로 보내면 되는데 ㅋㅋㅋ 그래야 탈레반이 위구르쪽 침투해서 중국이랑 싸우지 ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7626,7 +9421,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>난민 받자는 애들 자기네집에 받자하면 눈뒤집어까고 왜 우리집에 들이라는데!!!!!!!빼애애액!!!!!이랄거 100프로</t>
+          <t>교회는 교리대로 사니? 인간을 사랑하냐? 돈으로만 보더라! 무슬림도 인간이다.</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7646,7 +9446,12 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>중국으로 보내면 되는데 ㅋㅋㅋ 그래야 탈레반이 위구르쪽 침투해서 중국이랑 싸우지 ㅋㅋㅋ</t>
+          <t>난민으로 가장한 이슬람을 걸러낼 재주 있으면 받으세요.  지금도 가짜 난민 이슬람 애들이 넘칩니다. 밤되면 끼리끼리 모여서 여성들을 바라보며 휘파람부는 이슬람 아그들… 이놈들아 사원짓겠다고 난리인데 어쩔겁니까?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7666,7 +9471,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>교회는 교리대로 사니? 인간을 사랑하냐? 돈으로만 보더라! 무슬림도 인간이다.</t>
+          <t>중동 국가들  외노자는 수백만씩 수입하면서 같은 이슬람수용해야 uae 쿠웨이트 카타르 사우디는 많은 난민수용해야 왜 다 서구쪽에서 수용하나</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7686,7 +9496,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>난민으로 가장한 이슬람을 걸러낼 재주 있으면 받으세요.  지금도 가짜 난민 이슬람 애들이 넘칩니다. 밤되면 끼리끼리 모여서 여성들을 바라보며 휘파람부는 이슬람 아그들… 이놈들아 사원짓겠다고 난리인데 어쩔겁니까?</t>
+          <t>미국이.만든  상황  미국으로 데려가라   땅도 .넓 잖아... 미국 데려가 .남의나라에  민폐 하지말고</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7706,7 +9521,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>중동 국가들  외노자는 수백만씩 수입하면서 같은 이슬람수용해야 uae 쿠웨이트 카타르 사우디는 많은 난민수용해야 왜 다 서구쪽에서 수용하나</t>
+          <t>코로나  로 4단계  잊었나  자영업자 말하는광경이 암보이나 ... 응  뭘 허자는 거어 .미국은 왜  만든 사태  땅 넓은 미국으로 데려가라  왜 남이 나라에  데리고 올려하나 미국 데려가라</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7726,7 +9546,12 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>미국이.만든  상황  미국으로 데려가라   땅도 .넓 잖아... 미국 데려가 .남의나라에  민폐 하지말고</t>
+          <t>코로나 시국에 난민 받다가 얼마나 더 큰 확산을 당하려고? 게다가 이슬람 애들은 프랑스 선생들 목자르듯이 마음에 안들면 바로 살인에 강간 까지 하고 테러는 기본이다 .... 그리고 일자리는 어쩔건데? 일도 안하고 무의도식 국민 세금으로 먹여주고 입혀주냐? 그보다 더 어렵고 힘들게 사는 국민들 부터 챙겨라</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7746,7 +9571,12 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>코로나  로 4단계  잊었나  자영업자 말하는광경이 암보이나 ... 응  뭘 허자는 거어 .미국은 왜  만든 사태  땅 넓은 미국으로 데려가라  왜 남이 나라에  데리고 올려하나 미국 데려가라</t>
+          <t>무슬림 반대다.절대 반대.</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7766,7 +9596,12 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>코로나 시국에 난민 받다가 얼마나 더 큰 확산을 당하려고? 게다가 이슬람 애들은 프랑스 선생들 목자르듯이 마음에 안들면 바로 살인에 강간 까지 하고 테러는 기본이다 .... 그리고 일자리는 어쩔건데? 일도 안하고 무의도식 국민 세금으로 먹여주고 입혀주냐? 그보다 더 어렵고 힘들게 사는 국민들 부터 챙겨라</t>
+          <t>북한사람도 정착문제, 한국사람 내집 장만하고 결혼하고 가정 꾸리는게 해결 되었을 때 받는거지.지금 북한은 커녕 남한에서도 지역갈등, 성별갈등, 세대갈등 최대치로 끌어 올리고서는 누가 누굴 받습니까?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7786,7 +9621,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>무슬림 반대다.절대 반대.</t>
+          <t>난민 수용 좋다 다만 이슬람은 종교도 아니고 사악한 살인보복집단이다 이슬람을 버리는 조건으로 난민 받아 드려라 이런 조건없이 무조건 난민 받아주면 조국도 시간문제이지 이슬람화 되어 아프간 쪼 나기 때문이다, 이슬람의 확산속도는 빠르다</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7806,7 +9646,12 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>북한사람도 정착문제, 한국사람 내집 장만하고 결혼하고 가정 꾸리는게 해결 되었을 때 받는거지.지금 북한은 커녕 남한에서도 지역갈등, 성별갈등, 세대갈등 최대치로 끌어 올리고서는 누가 누굴 받습니까?</t>
+          <t>미국이 까라면 까야지...</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7826,7 +9671,12 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>난민 수용 좋다 다만 이슬람은 종교도 아니고 사악한 살인보복집단이다 이슬람을 버리는 조건으로 난민 받아 드려라 이런 조건없이 무조건 난민 받아주면 조국도 시간문제이지 이슬람화 되어 아프간 쪼 나기 때문이다, 이슬람의 확산속도는 빠르다</t>
+          <t>성인군자 껍데기 쓰고싶고 관심받고 싶어하는 정신병자들이 많네ㅋㅋㅋ</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7846,7 +9696,12 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>미국이 까라면 까야지...</t>
+          <t>찬성하는것들 집에수용하고 정착금도줘라   개슬람들</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7866,7 +9721,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>성인군자 껍데기 쓰고싶고 관심받고 싶어하는 정신병자들이 많네ㅋㅋㅋ</t>
+          <t>다 필요없고 우리라도 우선 잘 살고보자</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7886,7 +9746,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>찬성하는것들 집에수용하고 정착금도줘라   개슬람들</t>
+          <t>절대로  안돼  결사반대      !!!!</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7906,7 +9771,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>다 필요없고 우리라도 우선 잘 살고보자</t>
+          <t>문재앙 사저에서 지내게 해야</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7926,7 +9796,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>절대로  안돼  결사반대      !!!!</t>
+          <t>우성이형! 형네 집 방 남지?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7946,7 +9821,12 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>문재앙 사저에서 지내게 해야</t>
+          <t>찬성하는 사람들 집에서 의식주 해결해주고 이슬람들한테 생활맞추어 2년간 생활해라</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7966,7 +9846,12 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>우성이형! 형네 집 방 남지?</t>
+          <t>외국인 혐오가 아니라 믿을 수 없는 무슬림이라서 그런거야 가뜩이나 짱깨들때문에 힘들구만 왜 또 받으려 하냐? 난민 받아들이자는 싸가지없는 발상 누구한테 배운거냐?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -7986,7 +9871,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>찬성하는 사람들 집에서 의식주 해결해주고 이슬람들한테 생활맞추어 2년간 생활해라</t>
+          <t>난민들 받아들는데 찬성하는 분들만 자기집에서 받으면 되겠네</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8006,7 +9896,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>외국인 혐오가 아니라 믿을 수 없는 무슬림이라서 그런거야 가뜩이나 짱깨들때문에 힘들구만 왜 또 받으려 하냐? 난민 받아들이자는 싸가지없는 발상 누구한테 배운거냐?</t>
+          <t>코로나만 아니라면  무조건반대하는것도 아니지만지금 상황에 코로나가 더 확산될까 무섭네</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8026,7 +9921,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>난민들 받아들는데 찬성하는 분들만 자기집에서 받으면 되겠네</t>
+          <t>인구밀도를봐라 쓰레기장 지을땅도 없는나라가 돈으로 떼워야 들어온들 가난한자들과 같이 살겠지 유럽봐라 유럽은 식민지배의 댓가라하지만 우리가왜</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8046,7 +9946,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>코로나만 아니라면  무조건반대하는것도 아니지만지금 상황에 코로나가 더 확산될까 무섭네</t>
+          <t>찬성한다는 놈들 집안에 데려다 놓는다면 조건부 찬성한다</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8066,7 +9971,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>인구밀도를봐라 쓰레기장 지을땅도 없는나라가 돈으로 떼워야 들어온들 가난한자들과 같이 살겠지 유럽봐라 유럽은 식민지배의 댓가라하지만 우리가왜</t>
+          <t>지들이 싫어 떠난놈들을 왜 우리나라가 책임져야합니다</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8086,7 +9996,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>찬성한다는 놈들 집안에 데려다 놓는다면 조건부 찬성한다</t>
+          <t>대책도 없이 일 좀 키우지 말았으면한다.</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8106,7 +10021,12 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>지들이 싫어 떠난놈들을 왜 우리나라가 책임져야합니다</t>
+          <t>괜히 이슬람하고 엮힐생각 하지마라.다른 난민국들하곤 차원이 다른 곳.먼 훗날 피의복수나 안 당하면 다행이라고 생각될거다.</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8126,7 +10046,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>대책도 없이 일 좀 키우지 말았으면한다.</t>
+          <t>김재원 장혜영 느그들 집에 인당 난민 50명을 수용하면 생각해봄</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8146,7 +10071,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>괜히 이슬람하고 엮힐생각 하지마라.다른 난민국들하곤 차원이 다른 곳.먼 훗날 피의복수나 안 당하면 다행이라고 생각될거다.</t>
+          <t>경북 의성으로 보내면 되겠네</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8166,7 +10096,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>김재원 장혜영 느그들 집에 인당 난민 50명을 수용하면 생각해봄</t>
+          <t>앞으로 발생할  불필요한 국민분열  사회적갈등을  괜히 만들 필요는 없다고 본다. 울나라  땅덩어리도 작은데 분명 문제가 생길 것으로 본다.그래서 난  반대한다.</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8186,7 +10121,12 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>경북 의성으로 보내면 되겠네</t>
+          <t>적당히들 해라</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8206,7 +10146,12 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>앞으로 발생할  불필요한 국민분열  사회적갈등을  괜히 만들 필요는 없다고 본다. 울나라  땅덩어리도 작은데 분명 문제가 생길 것으로 본다.그래서 난  반대한다.</t>
+          <t>지금 조선족들도 ㅈㄴ 버거워 죽겠구만</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8226,7 +10171,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>적당히들 해라</t>
+          <t>절대 반대</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8246,7 +10196,12 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>지금 조선족들도 ㅈㄴ 버거워 죽겠구만</t>
+          <t>대책없는 수용은 안되죠  이건 수용이 아니라 떠맡는거죠</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8266,7 +10221,12 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>절대 반대</t>
+          <t>문슬람 일당은 전부 이상한 것들만 있지. 교주 겸 신부터 사람죽은데 가서 고맙다고 적는 싸이코패스니까</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8286,7 +10246,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>대책없는 수용은 안되죠  이건 수용이 아니라 떠맡는거죠</t>
+          <t>아프간난민 절대받아들이지마세요</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8306,7 +10271,12 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>문슬람 일당은 전부 이상한 것들만 있지. 교주 겸 신부터 사람죽은데 가서 고맙다고 적는 싸이코패스니까</t>
+          <t>정 난민 받을거면 찬성인들 집으로 받아주십쇼.</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8326,7 +10296,12 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>아프간난민 절대받아들이지마세요</t>
+          <t>본인들 옆집에하나씩 받으면 인정 아니면 같이 살던가</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8346,7 +10321,12 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>정 난민 받을거면 찬성인들 집으로 받아주십쇼.</t>
+          <t>들어오는 순간 쥐 굴에 들어온 고슴도치로 변하게 돼 있다.</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8366,7 +10346,12 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>본인들 옆집에하나씩 받으면 인정 아니면 같이 살던가</t>
+          <t>대한민국  국민살기도 힘든데.난민이 말이되냐</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8386,7 +10371,12 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>들어오는 순간 쥐 굴에 들어온 고슴도치로 변하게 돼 있다.</t>
+          <t>직장인 이모씨(50)네 집으로만 보내.</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8406,7 +10396,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>대한민국  국민살기도 힘든데.난민이 말이되냐</t>
+          <t>정우성씨 집에 받으면 해결됩니다</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8426,7 +10421,12 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>직장인 이모씨(50)네 집으로만 보내.</t>
+          <t>우리가더불쌍하다ㅜㅜ자국민부터좀돌보아주자에휴..ㅜㅜ</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8446,7 +10446,12 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>정우성씨 집에 받으면 해결됩니다</t>
+          <t>반대</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8466,7 +10471,12 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>우리가더불쌍하다ㅜㅜ자국민부터좀돌보아주자에휴..ㅜㅜ</t>
+          <t>쟤들이 그냥 외국인이냐!!!??? 이슬람이라는 사이비 종교가 큰 문제인거잖아!!!</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8486,7 +10496,12 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>찬성하는 인간들 집에서 홈스테이 시키면 깔끔하게 해결되는 문제 아니냐?</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8506,7 +10521,12 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>쟤들이 그냥 외국인이냐!!!??? 이슬람이라는 사이비 종교가 큰 문제인거잖아!!!</t>
+          <t>18세 이상 이뿐 여자난민만 받아들여서 노총각들에게 무료나눔해라</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8526,7 +10546,12 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>찬성하는 인간들 집에서 홈스테이 시키면 깔끔하게 해결되는 문제 아니냐?</t>
+          <t>결사반대!!! 시위라도 할 수 있음 동참하겠다</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8546,7 +10571,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>18세 이상 이뿐 여자난민만 받아들여서 노총각들에게 무료나눔해라</t>
+          <t>의떤 * * * 들이 찬성하냐.다  아프칸으로 보냐라</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8566,7 +10596,12 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>결사반대!!! 시위라도 할 수 있음 동참하겠다</t>
+          <t>무서워 절대 반대</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8586,7 +10621,12 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>의떤 * * * 들이 찬성하냐.다  아프칸으로 보냐라</t>
+          <t>이슬람 짱깨는 무조건 반대 그외 ㅆㄱㄴ</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8606,7 +10646,12 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>무서워 절대 반대</t>
+          <t>우린 난민 안 받아도 된다 북한에 있는 사람들 2000만이 다 난민이다 왜 이슬람 난민을 아무관계도 없는 우리가 받냐 받을려면 불교 국가인 미얀마 난민을 받지 이슬람 절대 반대다</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8626,7 +10671,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>이슬람 짱깨는 무조건 반대 그외 ㅆㄱㄴ</t>
+          <t>찬성하는 사람들 집으로 보냄되겠네</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8646,7 +10696,12 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>우린 난민 안 받아도 된다 북한에 있는 사람들 2000만이 다 난민이다 왜 이슬람 난민을 아무관계도 없는 우리가 받냐 받을려면 불교 국가인 미얀마 난민을 받지 이슬람 절대 반대다</t>
+          <t>받지말아요</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8666,7 +10721,12 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>찬성하는 사람들 집으로 보냄되겠네</t>
+          <t>예멘 난민 관리도 안되서 난리인데..제발 분수에 맞는짓  좀 하자</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8686,7 +10746,12 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>받지말아요</t>
+          <t>찬성한 사람들이 한명씩 데려가던지</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8706,7 +10771,12 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>예멘 난민 관리도 안되서 난리인데..제발 분수에 맞는짓  좀 하자</t>
+          <t>미국이싼똥을 우리가치우냐? 미국이받아라.</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8726,7 +10796,12 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>찬성한 사람들이 한명씩 데려가던지</t>
+          <t>무슬림?골치 아프다</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8746,7 +10821,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>미국이싼똥을 우리가치우냐? 미국이받아라.</t>
+          <t>자국민도 일상적으로 짓밟는 사회에 백인이 아닌 인종을 수용한다. 역사인식과 시민의식이 없는 사회에 가당한 소리일까. 자살률 세계 최고 출산율 세계 최저이지만 대부분 눈길도 한 번 제대로 주지않는 더불어 살기 힘든 사회에 왠 헛소리?</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8766,7 +10846,12 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>무슬림?골치 아프다</t>
+          <t>반대</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8786,7 +10871,12 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>자국민도 일상적으로 짓밟는 사회에 백인이 아닌 인종을 수용한다. 역사인식과 시민의식이 없는 사회에 가당한 소리일까. 자살률 세계 최고 출산율 세계 최저이지만 대부분 눈길도 한 번 제대로 주지않는 더불어 살기 힘든 사회에 왠 헛소리?</t>
+          <t>지금 짱꿔도 통제 못하는데 배부른 소리하네, 니들집에 들이던가 그럴 배짱도 없으면서 착한척 선비질은 오지게 하네</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8806,7 +10896,12 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>범죄만 저지르지 않는다면?   그래 외국놈들도 서울에 살고 싶어할끼다  그서울 한번뒤져봐라  난 대구 날씨경제 다좋음</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8826,7 +10921,12 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>지금 짱꿔도 통제 못하는데 배부른 소리하네, 니들집에 들이던가 그럴 배짱도 없으면서 착한척 선비질은 오지게 하네</t>
+          <t>미국이할일을 우리가 떠맡는게 문제잖아요</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8846,7 +10946,12 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>범죄만 저지르지 않는다면?   그래 외국놈들도 서울에 살고 싶어할끼다  그서울 한번뒤져봐라  난 대구 날씨경제 다좋음</t>
+          <t>인도적차원? 북돼지 딸랑거리는 인권 변호사 문죄인은 정작 같은민족인 탈북자,북한동포들의 인권은 나몰라라하는데!  뭔놈의 아프칸난민을 받어!!ㅡ툭하면 난민인권떠드는 연예인 정모씨에게나 보내라</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8866,7 +10971,12 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>미국이할일을 우리가 떠맡는게 문제잖아요</t>
+          <t>북한 인권 냅두는데 아프간 쯤이야</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8886,7 +10996,12 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>인도적차원? 북돼지 딸랑거리는 인권 변호사 문죄인은 정작 같은민족인 탈북자,북한동포들의 인권은 나몰라라하는데!  뭔놈의 아프칸난민을 받어!!ㅡ툭하면 난민인권떠드는 연예인 정모씨에게나 보내라</t>
+          <t>진중권이가 아프간 난민들을 위해 자기 집을 쉐어한다고 하네..중권이한테 보내면 될듯...</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8906,7 +11021,12 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>북한 인권 냅두는데 아프간 쯤이야</t>
+          <t>아프간 여성,아이들 난민수용하고 무슬림은 개종 뒤 국적부여 하는 대신에 페미메갈들 아프간에 보내 여성인권운동 시키면 될 듯.</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8926,7 +11046,12 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>진중권이가 아프간 난민들을 위해 자기 집을 쉐어한다고 하네..중권이한테 보내면 될듯...</t>
+          <t>선진국이 되려면 외국인 수용은 당연하다 생각합니다.우리도 6.25때 수많은 국가에서 미개한 조선인 받아줬는데 그거 생각하면 우리도 받아줘야하는게 맞는거 같습니다</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -8946,7 +11071,12 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>아프간 여성,아이들 난민수용하고 무슬림은 개종 뒤 국적부여 하는 대신에 페미메갈들 아프간에 보내 여성인권운동 시키면 될 듯.</t>
+          <t>우리 개신교가 솔선수범해서 예수의 사랑을 실천해라 미군 똥은 향기도 좋다던데 아프칸 난민 똥도 향기로울 거야 미국이 까라면 까</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -8966,7 +11096,12 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>선진국이 되려면 외국인 수용은 당연하다 생각합니다.우리도 6.25때 수많은 국가에서 미개한 조선인 받아줬는데 그거 생각하면 우리도 받아줘야하는게 맞는거 같습니다</t>
+          <t>나만 우리만 살고 부자 ? 더불어 당이있들이 더불어 함께 같이살다 가자  잘 사는게 뭐별 다른것 없다 오갈데 없는 나그네 인생들 돕고살자  영원한것 없다 지구는 한가족</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -8986,7 +11121,12 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>우리 개신교가 솔선수범해서 예수의 사랑을 실천해라 미군 똥은 향기도 좋다던데 아프칸 난민 똥도 향기로울 거야 미국이 까라면 까</t>
+          <t>난 찬성  사람이 없어서  방이 안나간다 ㅋㅋ</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9006,7 +11146,12 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>나만 우리만 살고 부자 ? 더불어 당이있들이 더불어 함께 같이살다 가자  잘 사는게 뭐별 다른것 없다 오갈데 없는 나그네 인생들 돕고살자  영원한것 없다 지구는 한가족</t>
+          <t>남자들은 다 돌려 보내고 여자 아이들만 난민으로 받아 주자!! 아프칸 남자들 지들도 자존심이 있으면 수용해라</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9026,7 +11171,12 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>난 찬성  사람이 없어서  방이 안나간다 ㅋㅋ</t>
+          <t>난민이 아프간만 있는것도 아니고 갑자기 오지랖인가. 미얀마.시리아.레바논.팔레스타인.이라크 등 정치적 난민이 넘치는데 왜 아프간만?</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9046,7 +11196,12 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>남자들은 다 돌려 보내고 여자 아이들만 난민으로 받아 주자!! 아프칸 남자들 지들도 자존심이 있으면 수용해라</t>
+          <t>그렇게 난민 불쌍하면 북한 인권생각해보라. 제 식구도 모르는척하면서 무슨놈의 난민 수용이냐?  지금 있는 이슬람 애들 쫓아내고 각 대학에 있는 이슬람 기도실 폐쇄해라. 불교국가에서 무슨 이슬람기도실을 만들어? 원효대사가 울겠네</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9066,7 +11221,12 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>난민이 아프간만 있는것도 아니고 갑자기 오지랖인가. 미얀마.시리아.레바논.팔레스타인.이라크 등 정치적 난민이 넘치는데 왜 아프간만?</t>
+          <t>무슬림은 반대합니다.</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9086,7 +11246,12 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>그렇게 난민 불쌍하면 북한 인권생각해보라. 제 식구도 모르는척하면서 무슨놈의 난민 수용이냐?  지금 있는 이슬람 애들 쫓아내고 각 대학에 있는 이슬람 기도실 폐쇄해라. 불교국가에서 무슨 이슬람기도실을 만들어? 원효대사가 울겠네</t>
+          <t>쯔앙께도 받아주는데 뭔 상관임. 나라다운 나라 만들겠다는데ㅎㅎ</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9106,7 +11271,12 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>무슬림은 반대합니다.</t>
+          <t>국짐당에서 원일이냐? 난민 수용하다니.미국 하는일은  무조건 환영하는 국짐당.</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9126,7 +11296,12 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>쯔앙께도 받아주는데 뭔 상관임. 나라다운 나라 만들겠다는데ㅎㅎ</t>
+          <t>종교의 자유는 있지만 무슬림이 여성과 노약자 무시하는 짖은 절대 우리나라에서 저지를수 없는 범죄임을 깨닫게 하고 질서를 잘 지키도록 교육시킬 자신있으면 들어와도 된다.</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9146,7 +11321,12 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>국짐당에서 원일이냐? 난민 수용하다니.미국 하는일은  무조건 환영하는 국짐당.</t>
+          <t>한남이 오늘 의부딸또 강간햇다고 뉴스에 떳다  눈칼달럿으면  글알지?</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9166,7 +11346,12 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>종교의 자유는 있지만 무슬림이 여성과 노약자 무시하는 짖은 절대 우리나라에서 저지를수 없는 범죄임을 깨닫게 하고 질서를 잘 지키도록 교육시킬 자신있으면 들어와도 된다.</t>
+          <t>엥 이미 이 땅도 탈레반이 점령하고 있는거같은데ㅋ 한남들 사상은 이미 탈레반이랑 다를 게 없잖슈 ㅋ</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9186,7 +11371,12 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>한남이 오늘 의부딸또 강간햇다고 뉴스에 떳다  눈칼달럿으면  글알지?</t>
+          <t>일본 한국이 미군주둔 비율로 2:1 정도로 일본도 승인하면 반대할 입장은 아님</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9206,7 +11396,12 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>엥 이미 이 땅도 탈레반이 점령하고 있는거같은데ㅋ 한남들 사상은 이미 탈레반이랑 다를 게 없잖슈 ㅋ</t>
+          <t>미국에서 한다잖아!  태극기부대들 다찬성해야지. 좋은것만 미국따라가고 맘에안들면 달님 탓하냐? 양심이 았는것들이냐?</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9226,7 +11421,12 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>일본 한국이 미군주둔 비율로 2:1 정도로 일본도 승인하면 반대할 입장은 아님</t>
+          <t>댓글들보니 도와줄 마음들은 있는건가? 수용여부를 떠나서 그게 존재해야 논의 진행을 할 수 있는데.</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9246,7 +11446,12 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>미국에서 한다잖아!  태극기부대들 다찬성해야지. 좋은것만 미국따라가고 맘에안들면 달님 탓하냐? 양심이 았는것들이냐?</t>
+          <t>일어나지도 않은 일에 벌써부터 웬 갈등이래...</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9266,7 +11471,12 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>댓글들보니 도와줄 마음들은 있는건가? 수용여부를 떠나서 그게 존재해야 논의 진행을 할 수 있는데.</t>
+          <t>미국이 아프간 난민 받으라 강요하니까 성조기 들고 설치는 사람들 집으로 보내세요. 그들이 미국이라면 꺼뻑 죽으니까미국말 잘 듣겠죠</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9286,7 +11496,12 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>일어나지도 않은 일에 벌써부터 웬 갈등이래...</t>
+          <t>불쌍하잖아 6.25때 우리도 도움  받었잖아</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9306,7 +11521,12 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>미국이 아프간 난민 받으라 강요하니까 성조기 들고 설치는 사람들 집으로 보내세요. 그들이 미국이라면 꺼뻑 죽으니까미국말 잘 듣겠죠</t>
+          <t>우려하는 사람들이 많아서 난민 못 받겠지만.. 그래도 아이들 정도는 괜찮지 않을까?</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9326,7 +11546,12 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>불쌍하잖아 6.25때 우리도 도움  받었잖아</t>
+          <t>언제까지 단일민족? 이러다 대한민국이 사라진다. 순수혈동은 이기주의!</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9346,7 +11571,12 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>우려하는 사람들이 많아서 난민 못 받겠지만.. 그래도 아이들 정도는 괜찮지 않을까?</t>
+          <t>너무 걱정하지 마세요. 미국에 비협조적인 달레반 덕분에 아프간 난민 한국에 못들어 올겁니다. 들어와도 "주한미군 부대 안에서 수용"한다고 하잖아요. 지금 이보다 더 문제는 [백신수급, 집값안정, 경기활성화] 라는 점을 기억하세요.</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9366,7 +11596,12 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>언제까지 단일민족? 이러다 대한민국이 사라진다. 순수혈동은 이기주의!</t>
+          <t>절대 반대다!!</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9386,7 +11621,12 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>너무 걱정하지 마세요. 미국에 비협조적인 달레반 덕분에 아프간 난민 한국에 못들어 올겁니다. 들어와도 "주한미군 부대 안에서 수용"한다고 하잖아요. 지금 이보다 더 문제는 [백신수급, 집값안정, 경기활성화] 라는 점을 기억하세요.</t>
+          <t>대한민국은 찌질하지 말자.</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9406,7 +11646,12 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>절대 반대다!!</t>
+          <t>아프간이 앞으로 어찌될지 아무도 모른다. 희귀자원의 보국이다. 게다가 나라가 어지러워 피란하는 사람들이다. 우리가 올챙이 적 생각 못해서야 되겠나. 사냥꾼을 피해 들어온 사슴을 내쫒을 것인가? 국제사회의 일원이며 세계시민으로 역활도 고려해야 할 때인 듯.</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9426,7 +11671,12 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>대한민국은 찌질하지 말자.</t>
+          <t>그게 문제가 아니고 이게 다 미국 때문에 발생한 일이니 주한미군 즉각 철수시켜야 합니다</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9446,7 +11696,12 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>아프간이 앞으로 어찌될지 아무도 모른다. 희귀자원의 보국이다. 게다가 나라가 어지러워 피란하는 사람들이다. 우리가 올챙이 적 생각 못해서야 되겠나. 사냥꾼을 피해 들어온 사슴을 내쫒을 것인가? 국제사회의 일원이며 세계시민으로 역활도 고려해야 할 때인 듯.</t>
+          <t>6.25때 생각못하는 국민성에 진짜 얼굴이 붉어진다 인성이 보인다</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9466,7 +11721,12 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>그게 문제가 아니고 이게 다 미국 때문에 발생한 일이니 주한미군 즉각 철수시켜야 합니다</t>
+          <t>..미국과 소파협정때문에 한국정부가 반대해도 둘어올껄... 전작권도 2005년 노무현대통령이 2015년에 돌려받겠다는 약조를 받았지만 박근혜년 거부함으로써 미국이 전쟁을 일으키거나 북한이 전쟁을 일으키면 미국이 지시하는데로 움직여야하는 반 식민지 국가다.. 국민의 힘은 매국노집단이자 부역자들이다...제발정부탓하지말아라지금 국짐당은 긍정적이란다. 태극기들어 국징당앞으로가서 시위라도해라.</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9486,7 +11746,12 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>6.25때 생각못하는 국민성에 진짜 얼굴이 붉어진다 인성이 보인다</t>
+          <t>일단 사람을 살리고봐야할것 아닙니까. 어려움에 처한 아프간국민들을 매몰차게 내버리면 텔레반에게 죽을지도 모르는데..어떻게 사람들이 자기 이익만 생각하고 이렇게 냉정합니까.  좀 돕자구요.</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9506,7 +11771,12 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>..미국과 소파협정때문에 한국정부가 반대해도 둘어올껄... 전작권도 2005년 노무현대통령이 2015년에 돌려받겠다는 약조를 받았지만 박근혜년 거부함으로써 미국이 전쟁을 일으키거나 북한이 전쟁을 일으키면 미국이 지시하는데로 움직여야하는 반 식민지 국가다.. 국민의 힘은 매국노집단이자 부역자들이다...제발정부탓하지말아라지금 국짐당은 긍정적이란다. 태극기들어 국징당앞으로가서 시위라도해라.</t>
+          <t>미국은 홀로 희생하고 내손에는 피 뭍이는거 싫다고? 정말 한심한 민족 같습니다. 6.25는 둘째 치고라도 미군 당장 철수하면 어쩌나 하는 인간들이 쓰면 뱉겠다는거네? 독일도 유럽에서 난민이나 외국인 노동자 가장 싫어했지만, 어쩔수 없는 노동인구 감소 때문에 이제는 경제의 중요한 자원이 됐습니다.그렇게 저렇게 살다보면 다양성을 서로 존중할때가 옵니다. 머지않아 저출산으로 해외 이민을 적극 장려하는 시간이 옵니다.조선족은 괜찮고 아랍인들은 오면 자폭이나 하는 집단인줄 아나요?</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9526,7 +11796,12 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>일단 사람을 살리고봐야할것 아닙니까. 어려움에 처한 아프간국민들을 매몰차게 내버리면 텔레반에게 죽을지도 모르는데..어떻게 사람들이 자기 이익만 생각하고 이렇게 냉정합니까.  좀 돕자구요.</t>
+          <t>난민 반대한다고? 10월3일이 뭔 날인지 기억해라!!! 이 나라가 홍익인간의 뜻으로 만든나라가 맞는지!!!돌아봐라..난민반대? 부끄럽고,수치스럽다.IT강국 대한민국이 불법체류자도 색출 못하는 바보 나라냐?대한민국 출입국사무소,국정원은 닭대가리만 뽑는다고 우길 참이냐!!! 가뜩이나 제조업 인력난인데, 이 참에 검증된 난민은 취업도 시키고, 똑똑하고 잘난 난민들은 선별해서 귀화도 시켜라. 난민들은 페북,인스타하면서 BTS의 나라가 조국보다 더 따뜻하다고 전세계에 홍보할거다!!! 그렇게 대한민국은 선진국으로 한발짝 더 나아가는거다!!</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9546,7 +11821,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>미국은 홀로 희생하고 내손에는 피 뭍이는거 싫다고? 정말 한심한 민족 같습니다. 6.25는 둘째 치고라도 미군 당장 철수하면 어쩌나 하는 인간들이 쓰면 뱉겠다는거네? 독일도 유럽에서 난민이나 외국인 노동자 가장 싫어했지만, 어쩔수 없는 노동인구 감소 때문에 이제는 경제의 중요한 자원이 됐습니다.그렇게 저렇게 살다보면 다양성을 서로 존중할때가 옵니다. 머지않아 저출산으로 해외 이민을 적극 장려하는 시간이 옵니다.조선족은 괜찮고 아랍인들은 오면 자폭이나 하는 집단인줄 아나요?</t>
+          <t>1.4후퇴때  우리나라 난민들 배에태운  흥남철수를 생각해라미군은 그때 그배에 우리 난민들 태우려고 모든 물자와 장비 탱크 무기를 버리고 1만의 국민을 살렸다  우리도 우리생각만하지말고  그때 도움받았던것을 기억해야한다  우리가 이제 그때의 미국의 상황인것이라고 생각하면  무슨말인지 알거다</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9566,7 +11846,12 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>난민 반대한다고? 10월3일이 뭔 날인지 기억해라!!! 이 나라가 홍익인간의 뜻으로 만든나라가 맞는지!!!돌아봐라..난민반대? 부끄럽고,수치스럽다.IT강국 대한민국이 불법체류자도 색출 못하는 바보 나라냐?대한민국 출입국사무소,국정원은 닭대가리만 뽑는다고 우길 참이냐!!! 가뜩이나 제조업 인력난인데, 이 참에 검증된 난민은 취업도 시키고, 똑똑하고 잘난 난민들은 선별해서 귀화도 시켜라. 난민들은 페북,인스타하면서 BTS의 나라가 조국보다 더 따뜻하다고 전세계에 홍보할거다!!! 그렇게 대한민국은 선진국으로 한발짝 더 나아가는거다!!</t>
+          <t>이주민에 대한 지나친 혐오나 반대는 바람직 하지 않은 것 같고(특히나 순혈주의에 기반한~.) 우리 사회에 크게 문제를 일으키지 않는다면 수용을 고려해 봐야 합니다.혹시나 압니까? 그들 중에 인류사 발전에 크게 기여할 사람이 나올런지? 서로 다른 사람들이 모여 살면 다소 불편한 때도 있겠지만 새로운 기술이나 혁신적인 문화가 탄생할 수 있습니다.고려 말 우리를 혹독하게 괴롭힌 왜구들에게 포를 만들어 물리친 최무선이 화약 제조기법을 습득한 사람들이 바로 이슬람권 사람으로 알고 있습니다만~.넓은 시야는 때로 혁신을 기대하게 합니다.</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9586,7 +11871,12 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>1.4후퇴때  우리나라 난민들 배에태운  흥남철수를 생각해라미군은 그때 그배에 우리 난민들 태우려고 모든 물자와 장비 탱크 무기를 버리고 1만의 국민을 살렸다  우리도 우리생각만하지말고  그때 도움받았던것을 기억해야한다  우리가 이제 그때의 미국의 상황인것이라고 생각하면  무슨말인지 알거다</t>
+          <t>10월3일은 개천절...홍익인간의 뜻으로 대한민국은 탄생했다고 가르친다. 홍익인간!!!널리 인간을 이롭게 한다라는 뜻이다!!! 대한민국은 매년마다 늙다리들불러모아 개천절기념식 치르고, 대통령까지 참석하는 쌩쑈개구라치 나라다. 나만 잘살면 된다..1950년~1960년 개거지나라 대한민국이 전세계 원조받았으면서, 살만하니까 배신을 하는 나라로 변모했다. 이게 현재 대한민국이다. 자랑스러운 나라? 욱끼고 있네....다른 나라는 몰라도 대한민국은 그러면 안된다.</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9606,7 +11896,12 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>이주민에 대한 지나친 혐오나 반대는 바람직 하지 않은 것 같고(특히나 순혈주의에 기반한~.) 우리 사회에 크게 문제를 일으키지 않는다면 수용을 고려해 봐야 합니다.혹시나 압니까? 그들 중에 인류사 발전에 크게 기여할 사람이 나올런지? 서로 다른 사람들이 모여 살면 다소 불편한 때도 있겠지만 새로운 기술이나 혁신적인 문화가 탄생할 수 있습니다.고려 말 우리를 혹독하게 괴롭힌 왜구들에게 포를 만들어 물리친 최무선이 화약 제조기법을 습득한 사람들이 바로 이슬람권 사람으로 알고 있습니다만~.넓은 시야는 때로 혁신을 기대하게 합니다.</t>
+          <t>개념없는 한국인 .. .  도와주면 어디덧나나 이기주의자들</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9626,7 +11921,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>10월3일은 개천절...홍익인간의 뜻으로 대한민국은 탄생했다고 가르친다. 홍익인간!!!널리 인간을 이롭게 한다라는 뜻이다!!! 대한민국은 매년마다 늙다리들불러모아 개천절기념식 치르고, 대통령까지 참석하는 쌩쑈개구라치 나라다. 나만 잘살면 된다..1950년~1960년 개거지나라 대한민국이 전세계 원조받았으면서, 살만하니까 배신을 하는 나라로 변모했다. 이게 현재 대한민국이다. 자랑스러운 나라? 욱끼고 있네....다른 나라는 몰라도 대한민국은 그러면 안된다.</t>
+          <t>우리 6.25난민, 일제강점기난민의 어려운 시기를 돌아보라.넓고 크게 인간을 포용해야 함은 당연하다. 반대하는 자는 니가 지구를 떠나거라. 달나라에 혼자 살거라</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9646,7 +11946,12 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>개념없는 한국인 .. .  도와주면 어디덧나나 이기주의자들</t>
+          <t>적어도 우리나라 군대와 기업에 종사한 인원과 그 가족은 데려와야 한다고 봄, 그들이 우리나라에 종사 했다는 이유로 죽임을 당하는데 보고만 있으면 안됨</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9666,7 +11971,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>우리 6.25난민, 일제강점기난민의 어려운 시기를 돌아보라.넓고 크게 인간을 포용해야 함은 당연하다. 반대하는 자는 니가 지구를 떠나거라. 달나라에 혼자 살거라</t>
+          <t>어차피 한국이 받아봤자 미국처럼 수만명 받는것도 아니고 끽해야 작은 초등학교 한학년 인원수도 안되는 몇백명 정도라 상관없음</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9686,7 +11996,12 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>적어도 우리나라 군대와 기업에 종사한 인원과 그 가족은 데려와야 한다고 봄, 그들이 우리나라에 종사 했다는 이유로 죽임을 당하는데 보고만 있으면 안됨</t>
+          <t>받아라 불쌍하다 우리도 힘든 625  잊지말자</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9706,7 +12021,12 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>어차피 한국이 받아봤자 미국처럼 수만명 받는것도 아니고 끽해야 작은 초등학교 한학년 인원수도 안되는 몇백명 정도라 상관없음</t>
+          <t>어려울때 도외주는게 진정한 것이다. 우리와 터키가 형제의 나라라고 하는 이유가 한국전쟁때 도와준 고마움이 밌어서 이지 않은가. 한국전쟁때 많은 나라들의 도움이 없었으면 지금의 대한민국이 없었을수도 있다. 이제는 우리나라가 도움을 줄때다. 이 참에 시스템 잘 정비해서 도와주자. 단일민족 그런거에 집착하지 말고..</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9726,7 +12046,12 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>받아라 불쌍하다 우리도 힘든 625  잊지말자</t>
+          <t>육이오때는 우리나라에 무슨 인연이 있다고 20몇개국이 목숨걸고 참전했겠냐...이제 처먹고 살만하니 난민들 벌레 보듯하네...우리가 저꼴 보다 더하게 당한지 100년도 안됐다 이것들아 네일베 쓰레기들 이럴땐 육이오 안찾네</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9746,7 +12071,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>어려울때 도외주는게 진정한 것이다. 우리와 터키가 형제의 나라라고 하는 이유가 한국전쟁때 도와준 고마움이 밌어서 이지 않은가. 한국전쟁때 많은 나라들의 도움이 없었으면 지금의 대한민국이 없었을수도 있다. 이제는 우리나라가 도움을 줄때다. 이 참에 시스템 잘 정비해서 도와주자. 단일민족 그런거에 집착하지 말고..</t>
+          <t>수용하는게 맞다</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -9766,7 +12096,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>육이오때는 우리나라에 무슨 인연이 있다고 20몇개국이 목숨걸고 참전했겠냐...이제 처먹고 살만하니 난민들 벌레 보듯하네...우리가 저꼴 보다 더하게 당한지 100년도 안됐다 이것들아 네일베 쓰레기들 이럴땐 육이오 안찾네</t>
+          <t>생명은 모두 존중받아야합니다</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9786,7 +12121,12 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>수용하는게 맞다</t>
+          <t>무슬림이 다~~안좋은건 아닐것입니다...그중 lsls나탈래반 같이 급진무장세력들과 그에 동조하는 사람들때문에 한국국민들이 반대를 하시는것 입니다...그러나!! 아프간인들중 한국처럼,민주주의를 신봉하시는 분들도 계실겁니다...상황을 바꿔 생각해 보시는것도한가지 방법일것 입니다...최후의 방법은 한국이 아프간인들을 포용하는것이 최선이 될수도 있다는겁니다</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9806,7 +12146,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>생명은 모두 존중받아야합니다</t>
+          <t>인구도 줄어드는데 수용해야지.. 시민권도 부여하자. 외국인 노동자보다 오히려 국가에 대한 충성도가 높은거다.</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9826,7 +12171,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>무슬림이 다~~안좋은건 아닐것입니다...그중 lsls나탈래반 같이 급진무장세력들과 그에 동조하는 사람들때문에 한국국민들이 반대를 하시는것 입니다...그러나!! 아프간인들중 한국처럼,민주주의를 신봉하시는 분들도 계실겁니다...상황을 바꿔 생각해 보시는것도한가지 방법일것 입니다...최후의 방법은 한국이 아프간인들을 포용하는것이 최선이 될수도 있다는겁니다</t>
+          <t>20세기 세계 최고수준의 난민국이 대한민국이었다. 일제강점기, 6.25 때문에 미국으로 러시아로 중국으로 수백만의 난민이 외국으로 간곳이 한국이다. 그런데, 얼마간의 난민조차 극혐하는 이기적인 국민들을 보면 어느수준의 거부감은 인정하지만 대놓고 혐오하는건 수준낮고 씁쓸한 일이다.</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9846,7 +12196,12 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>인구도 줄어드는데 수용해야지.. 시민권도 부여하자. 외국인 노동자보다 오히려 국가에 대한 충성도가 높은거다.</t>
+          <t>받아주는데 찬성합니다우리도 아프칸 처지  될수도있는데,,</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -9866,47 +12221,12 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>20세기 세계 최고수준의 난민국이 대한민국이었다. 일제강점기, 6.25 때문에 미국으로 러시아로 중국으로 수백만의 난민이 외국으로 간곳이 한국이다. 그런데, 얼마간의 난민조차 극혐하는 이기적인 국민들을 보면 어느수준의 거부감은 인정하지만 대놓고 혐오하는건 수준낮고 씁쓸한 일이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>sksr****</t>
-        </is>
-      </c>
-      <c r="C473" t="inlineStr">
-        <is>
-          <t>2021.08.22. 21:30</t>
-        </is>
-      </c>
-      <c r="D473" t="inlineStr">
-        <is>
-          <t>받아주는데 찬성합니다우리도 아프칸 처지  될수도있는데,,</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>gala****</t>
-        </is>
-      </c>
-      <c r="C474" t="inlineStr">
-        <is>
-          <t>2021.08.23. 17:41</t>
-        </is>
-      </c>
-      <c r="D474" t="inlineStr">
-        <is>
           <t>한국도 어려운 시절이 있었지요. 당연히 난민을 받아주고 정착할 수 있도록 도와야지요.  난민에 대한 막연한 불안감이나 근거없는 주장을 펼치지 맙시다. 인도주의적으로 도웁시다</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>

--- a/data/news1_아프간난민수용보도에찬반뜨거워.xlsx
+++ b/data/news1_아프간난민수용보도에찬반뜨거워.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E472"/>
+  <dimension ref="A1:F471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>추천수</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>비추천수</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>951</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>698</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>435</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>277</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>149</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>101</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>93</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>90</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>68</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>63</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>53</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>52</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>47</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>42</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>41</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>38</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>72</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>31</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>28</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>21</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>24</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>19</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>17</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>16</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>15</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>14</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>13</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>13</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>13</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>12</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>11</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>11</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>11</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>8</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>7</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>6</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>5</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>3</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>2</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5104,6 +6034,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5129,6 +6064,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5154,6 +6094,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5179,6 +6124,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5204,6 +6154,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5229,6 +6184,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5254,6 +6214,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5279,6 +6244,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5304,6 +6274,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5329,6 +6304,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5354,6 +6334,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5379,6 +6364,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5404,6 +6394,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5429,6 +6424,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6079,6 +7204,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6104,6 +7234,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6129,6 +7264,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6154,6 +7294,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6179,6 +7324,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6204,6 +7354,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6229,6 +7384,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6254,6 +7414,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6279,6 +7444,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6304,6 +7474,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6329,6 +7504,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6354,6 +7534,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6379,6 +7564,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6404,6 +7594,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6429,6 +7624,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6454,6 +7654,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6479,6 +7684,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6504,6 +7714,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6529,6 +7744,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6554,6 +7774,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6579,6 +7804,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6604,6 +7834,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6629,6 +7864,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6654,6 +7894,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6679,6 +7924,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6704,6 +7954,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6729,6 +7984,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6754,6 +8014,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6779,6 +8044,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6804,6 +8074,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6829,6 +8104,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6854,6 +8134,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6879,6 +8164,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6904,6 +8194,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6929,6 +8224,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6954,6 +8254,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6979,6 +8284,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7004,6 +8314,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7029,6 +8344,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7054,6 +8374,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7079,6 +8404,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7104,6 +8434,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7129,6 +8464,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7154,6 +8494,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7179,6 +8524,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7204,6 +8554,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7229,6 +8584,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7254,6 +8614,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7279,6 +8644,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7304,6 +8674,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7329,6 +8704,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7354,6 +8734,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7379,6 +8764,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7404,6 +8794,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7429,6 +8824,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7454,6 +8854,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7479,6 +8884,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7504,6 +8914,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7529,6 +8944,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7554,6 +8974,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7579,6 +9004,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7604,6 +9034,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7629,6 +9064,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7654,6 +9094,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7679,6 +9124,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7704,6 +9154,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7729,6 +9184,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7754,6 +9214,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -7779,6 +9244,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -7804,6 +9274,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -7829,6 +9304,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -7854,6 +9334,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7879,6 +9364,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7904,6 +9394,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -7929,6 +9424,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7954,6 +9454,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7979,6 +9484,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8004,6 +9514,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8029,6 +9544,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8054,6 +9574,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -8079,6 +9604,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8104,6 +9634,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -8129,6 +9664,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8154,6 +9694,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8179,6 +9724,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -8204,6 +9754,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -8229,6 +9784,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -8254,6 +9814,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8279,6 +9844,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -8304,6 +9874,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8329,6 +9904,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8354,6 +9934,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -8379,6 +9964,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -8404,6 +9994,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -8429,6 +10024,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -8454,6 +10054,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -8479,6 +10084,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -8504,6 +10114,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -8529,6 +10144,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -8554,6 +10174,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -8579,6 +10204,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -8604,6 +10234,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -8629,6 +10264,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -8654,6 +10294,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -8679,6 +10324,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -8704,6 +10354,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -8729,6 +10384,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -8754,6 +10414,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -8779,6 +10444,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -8804,6 +10474,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -8829,6 +10504,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -8854,6 +10534,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -8879,6 +10564,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -8904,6 +10594,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -8929,6 +10624,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -8954,6 +10654,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -8979,6 +10684,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -9004,6 +10714,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -9029,6 +10744,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -9046,10 +10766,15 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>정우성네 집으로 보내라니까 그러네</t>
+          <t>제발 찬성하는 사람들 집에 보냅시다</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9071,10 +10796,15 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>제발 찬성하는 사람들 집에 보냅시다</t>
+          <t>찬성하는  사람이  있긴 한거냐?  무슬림은  절대 안된다</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9096,10 +10826,15 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>찬성하는  사람이  있긴 한거냐?  무슬림은  절대 안된다</t>
+          <t>여자랑 아이들만 받으면 좋겠다. 아프간 남자들 사상이 이개하고 여자, 아이 우습게 보는거 뻔하잖아.</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9121,10 +10856,15 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>여자랑 아이들만 받으면 좋겠다. 아프간 남자들 사상이 이개하고 여자, 아이 우습게 보는거 뻔하잖아.</t>
+          <t>니가 한두명이라도 데리고 있든가. 니돈주면서 사빌ᆢ</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9146,10 +10886,15 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>니가 한두명이라도 데리고 있든가. 니돈주면서 사빌ᆢ</t>
+          <t>참  어리석은 조선인들   그리약해빠지니  맨 역사가  당하고만살지</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9171,10 +10916,15 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>참  어리석은 조선인들   그리약해빠지니  맨 역사가  당하고만살지</t>
+          <t>처음에 불쌍해서받아줬다가 그들의 신앙 그들의권리 종교자유다 챙겨줘야합니다.!!!!!</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9196,10 +10946,15 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>처음에 불쌍해서받아줬다가 그들의 신앙 그들의권리 종교자유다 챙겨줘야합니다.!!!!!</t>
+          <t>인간좀비</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9221,10 +10976,15 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>인간좀비</t>
+          <t>반대ㆍ절대반대ㆍ무슬림을 같은 인간이라고 생각하지마라</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9246,10 +11006,15 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>반대ㆍ절대반대ㆍ무슬림을 같은 인간이라고 생각하지마라</t>
+          <t>그래 받아줘바 한번 우리나라 어떠케 돌아가는지 보게 나는 밤마다 물떠넣고 빌어야지 난민들이 문재앙이랑 난민찬성한놈들 대가리 해드샷하게^^ 다 죽어나가바야 정신 차리겟지^^ 아이구 미래에 어떠케 될지 상상이가네^^ 애들한테 공부 때랴치고 총싸움을 가르쳐야하나? ^^ 젓갈같은한국^^ 아주 멋지다 분수도 모르거 ^^</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9271,10 +11036,15 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>그래 받아줘바 한번 우리나라 어떠케 돌아가는지 보게 나는 밤마다 물떠넣고 빌어야지 난민들이 문재앙이랑 난민찬성한놈들 대가리 해드샷하게^^ 다 죽어나가바야 정신 차리겟지^^ 아이구 미래에 어떠케 될지 상상이가네^^ 애들한테 공부 때랴치고 총싸움을 가르쳐야하나? ^^ 젓갈같은한국^^ 아주 멋지다 분수도 모르거 ^^</t>
+          <t>한반도에 만약 정은이가 쳐들어 와서 장악한다면 우리도 저꼴 날수 있는데.. 도울수 있을때 도와야 우리도 도움을 받지</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9296,10 +11066,15 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>한반도에 만약 정은이가 쳐들어 와서 장악한다면 우리도 저꼴 날수 있는데.. 도울수 있을때 도와야 우리도 도움을 받지</t>
+          <t>받아서 군대 보내자</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9321,10 +11096,15 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>받아서 군대 보내자</t>
+          <t>절대반대</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9346,10 +11126,15 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>절대반대</t>
+          <t>난민 받자는 애들 자기네집에 받자하면 눈뒤집어까고 왜 우리집에 들이라는데!!!!!!!빼애애액!!!!!이랄거 100프로</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9371,10 +11156,15 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>난민 받자는 애들 자기네집에 받자하면 눈뒤집어까고 왜 우리집에 들이라는데!!!!!!!빼애애액!!!!!이랄거 100프로</t>
+          <t>중국으로 보내면 되는데 ㅋㅋㅋ 그래야 탈레반이 위구르쪽 침투해서 중국이랑 싸우지 ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9396,10 +11186,15 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>중국으로 보내면 되는데 ㅋㅋㅋ 그래야 탈레반이 위구르쪽 침투해서 중국이랑 싸우지 ㅋㅋㅋ</t>
+          <t>교회는 교리대로 사니? 인간을 사랑하냐? 돈으로만 보더라! 무슬림도 인간이다.</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9421,10 +11216,15 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>교회는 교리대로 사니? 인간을 사랑하냐? 돈으로만 보더라! 무슬림도 인간이다.</t>
+          <t>난민으로 가장한 이슬람을 걸러낼 재주 있으면 받으세요.  지금도 가짜 난민 이슬람 애들이 넘칩니다. 밤되면 끼리끼리 모여서 여성들을 바라보며 휘파람부는 이슬람 아그들… 이놈들아 사원짓겠다고 난리인데 어쩔겁니까?</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9446,10 +11246,15 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>난민으로 가장한 이슬람을 걸러낼 재주 있으면 받으세요.  지금도 가짜 난민 이슬람 애들이 넘칩니다. 밤되면 끼리끼리 모여서 여성들을 바라보며 휘파람부는 이슬람 아그들… 이놈들아 사원짓겠다고 난리인데 어쩔겁니까?</t>
+          <t>중동 국가들  외노자는 수백만씩 수입하면서 같은 이슬람수용해야 uae 쿠웨이트 카타르 사우디는 많은 난민수용해야 왜 다 서구쪽에서 수용하나</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9471,10 +11276,15 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>중동 국가들  외노자는 수백만씩 수입하면서 같은 이슬람수용해야 uae 쿠웨이트 카타르 사우디는 많은 난민수용해야 왜 다 서구쪽에서 수용하나</t>
+          <t>미국이.만든  상황  미국으로 데려가라   땅도 .넓 잖아... 미국 데려가 .남의나라에  민폐 하지말고</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9496,10 +11306,15 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>미국이.만든  상황  미국으로 데려가라   땅도 .넓 잖아... 미국 데려가 .남의나라에  민폐 하지말고</t>
+          <t>코로나  로 4단계  잊었나  자영업자 말하는광경이 암보이나 ... 응  뭘 허자는 거어 .미국은 왜  만든 사태  땅 넓은 미국으로 데려가라  왜 남이 나라에  데리고 올려하나 미국 데려가라</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9521,10 +11336,15 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>코로나  로 4단계  잊었나  자영업자 말하는광경이 암보이나 ... 응  뭘 허자는 거어 .미국은 왜  만든 사태  땅 넓은 미국으로 데려가라  왜 남이 나라에  데리고 올려하나 미국 데려가라</t>
+          <t>코로나 시국에 난민 받다가 얼마나 더 큰 확산을 당하려고? 게다가 이슬람 애들은 프랑스 선생들 목자르듯이 마음에 안들면 바로 살인에 강간 까지 하고 테러는 기본이다 .... 그리고 일자리는 어쩔건데? 일도 안하고 무의도식 국민 세금으로 먹여주고 입혀주냐? 그보다 더 어렵고 힘들게 사는 국민들 부터 챙겨라</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9546,10 +11366,15 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>코로나 시국에 난민 받다가 얼마나 더 큰 확산을 당하려고? 게다가 이슬람 애들은 프랑스 선생들 목자르듯이 마음에 안들면 바로 살인에 강간 까지 하고 테러는 기본이다 .... 그리고 일자리는 어쩔건데? 일도 안하고 무의도식 국민 세금으로 먹여주고 입혀주냐? 그보다 더 어렵고 힘들게 사는 국민들 부터 챙겨라</t>
+          <t>무슬림 반대다.절대 반대.</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9571,10 +11396,15 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>무슬림 반대다.절대 반대.</t>
+          <t>북한사람도 정착문제, 한국사람 내집 장만하고 결혼하고 가정 꾸리는게 해결 되었을 때 받는거지.지금 북한은 커녕 남한에서도 지역갈등, 성별갈등, 세대갈등 최대치로 끌어 올리고서는 누가 누굴 받습니까?</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9596,10 +11426,15 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>북한사람도 정착문제, 한국사람 내집 장만하고 결혼하고 가정 꾸리는게 해결 되었을 때 받는거지.지금 북한은 커녕 남한에서도 지역갈등, 성별갈등, 세대갈등 최대치로 끌어 올리고서는 누가 누굴 받습니까?</t>
+          <t>난민 수용 좋다 다만 이슬람은 종교도 아니고 사악한 살인보복집단이다 이슬람을 버리는 조건으로 난민 받아 드려라 이런 조건없이 무조건 난민 받아주면 조국도 시간문제이지 이슬람화 되어 아프간 쪼 나기 때문이다, 이슬람의 확산속도는 빠르다</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9621,10 +11456,15 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>난민 수용 좋다 다만 이슬람은 종교도 아니고 사악한 살인보복집단이다 이슬람을 버리는 조건으로 난민 받아 드려라 이런 조건없이 무조건 난민 받아주면 조국도 시간문제이지 이슬람화 되어 아프간 쪼 나기 때문이다, 이슬람의 확산속도는 빠르다</t>
+          <t>미국이 까라면 까야지...</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9646,10 +11486,15 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>미국이 까라면 까야지...</t>
+          <t>성인군자 껍데기 쓰고싶고 관심받고 싶어하는 정신병자들이 많네ㅋㅋㅋ</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9671,10 +11516,15 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>성인군자 껍데기 쓰고싶고 관심받고 싶어하는 정신병자들이 많네ㅋㅋㅋ</t>
+          <t>찬성하는것들 집에수용하고 정착금도줘라   개슬람들</t>
         </is>
       </c>
       <c r="E370" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9696,10 +11546,15 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>찬성하는것들 집에수용하고 정착금도줘라   개슬람들</t>
+          <t>다 필요없고 우리라도 우선 잘 살고보자</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9721,10 +11576,15 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>다 필요없고 우리라도 우선 잘 살고보자</t>
+          <t>절대로  안돼  결사반대      !!!!</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9746,10 +11606,15 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>절대로  안돼  결사반대      !!!!</t>
+          <t>문재앙 사저에서 지내게 해야</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9771,10 +11636,15 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>문재앙 사저에서 지내게 해야</t>
+          <t>우성이형! 형네 집 방 남지?</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9796,10 +11666,15 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>우성이형! 형네 집 방 남지?</t>
+          <t>찬성하는 사람들 집에서 의식주 해결해주고 이슬람들한테 생활맞추어 2년간 생활해라</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9821,10 +11696,15 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>찬성하는 사람들 집에서 의식주 해결해주고 이슬람들한테 생활맞추어 2년간 생활해라</t>
+          <t>외국인 혐오가 아니라 믿을 수 없는 무슬림이라서 그런거야 가뜩이나 짱깨들때문에 힘들구만 왜 또 받으려 하냐? 난민 받아들이자는 싸가지없는 발상 누구한테 배운거냐?</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9846,10 +11726,15 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>외국인 혐오가 아니라 믿을 수 없는 무슬림이라서 그런거야 가뜩이나 짱깨들때문에 힘들구만 왜 또 받으려 하냐? 난민 받아들이자는 싸가지없는 발상 누구한테 배운거냐?</t>
+          <t>난민들 받아들는데 찬성하는 분들만 자기집에서 받으면 되겠네</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9871,10 +11756,15 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>난민들 받아들는데 찬성하는 분들만 자기집에서 받으면 되겠네</t>
+          <t>코로나만 아니라면  무조건반대하는것도 아니지만지금 상황에 코로나가 더 확산될까 무섭네</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9896,10 +11786,15 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>코로나만 아니라면  무조건반대하는것도 아니지만지금 상황에 코로나가 더 확산될까 무섭네</t>
+          <t>인구밀도를봐라 쓰레기장 지을땅도 없는나라가 돈으로 떼워야 들어온들 가난한자들과 같이 살겠지 유럽봐라 유럽은 식민지배의 댓가라하지만 우리가왜</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9921,10 +11816,15 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>인구밀도를봐라 쓰레기장 지을땅도 없는나라가 돈으로 떼워야 들어온들 가난한자들과 같이 살겠지 유럽봐라 유럽은 식민지배의 댓가라하지만 우리가왜</t>
+          <t>찬성한다는 놈들 집안에 데려다 놓는다면 조건부 찬성한다</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9946,10 +11846,15 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>찬성한다는 놈들 집안에 데려다 놓는다면 조건부 찬성한다</t>
+          <t>지들이 싫어 떠난놈들을 왜 우리나라가 책임져야합니다</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9971,10 +11876,15 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>지들이 싫어 떠난놈들을 왜 우리나라가 책임져야합니다</t>
+          <t>대책도 없이 일 좀 키우지 말았으면한다.</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -9996,10 +11906,15 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>대책도 없이 일 좀 키우지 말았으면한다.</t>
+          <t>괜히 이슬람하고 엮힐생각 하지마라.다른 난민국들하곤 차원이 다른 곳.먼 훗날 피의복수나 안 당하면 다행이라고 생각될거다.</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10021,10 +11936,15 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>괜히 이슬람하고 엮힐생각 하지마라.다른 난민국들하곤 차원이 다른 곳.먼 훗날 피의복수나 안 당하면 다행이라고 생각될거다.</t>
+          <t>김재원 장혜영 느그들 집에 인당 난민 50명을 수용하면 생각해봄</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10046,10 +11966,15 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>김재원 장혜영 느그들 집에 인당 난민 50명을 수용하면 생각해봄</t>
+          <t>경북 의성으로 보내면 되겠네</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10071,10 +11996,15 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>경북 의성으로 보내면 되겠네</t>
+          <t>앞으로 발생할  불필요한 국민분열  사회적갈등을  괜히 만들 필요는 없다고 본다. 울나라  땅덩어리도 작은데 분명 문제가 생길 것으로 본다.그래서 난  반대한다.</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10096,10 +12026,15 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>앞으로 발생할  불필요한 국민분열  사회적갈등을  괜히 만들 필요는 없다고 본다. 울나라  땅덩어리도 작은데 분명 문제가 생길 것으로 본다.그래서 난  반대한다.</t>
+          <t>적당히들 해라</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10121,10 +12056,15 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>적당히들 해라</t>
+          <t>지금 조선족들도 ㅈㄴ 버거워 죽겠구만</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10146,10 +12086,15 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>지금 조선족들도 ㅈㄴ 버거워 죽겠구만</t>
+          <t>절대 반대</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10171,10 +12116,15 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>절대 반대</t>
+          <t>대책없는 수용은 안되죠  이건 수용이 아니라 떠맡는거죠</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10196,10 +12146,15 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>대책없는 수용은 안되죠  이건 수용이 아니라 떠맡는거죠</t>
+          <t>문슬람 일당은 전부 이상한 것들만 있지. 교주 겸 신부터 사람죽은데 가서 고맙다고 적는 싸이코패스니까</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10221,10 +12176,15 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>문슬람 일당은 전부 이상한 것들만 있지. 교주 겸 신부터 사람죽은데 가서 고맙다고 적는 싸이코패스니까</t>
+          <t>아프간난민 절대받아들이지마세요</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10246,10 +12206,15 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>아프간난민 절대받아들이지마세요</t>
+          <t>정 난민 받을거면 찬성인들 집으로 받아주십쇼.</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10271,10 +12236,15 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>정 난민 받을거면 찬성인들 집으로 받아주십쇼.</t>
+          <t>본인들 옆집에하나씩 받으면 인정 아니면 같이 살던가</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10296,10 +12266,15 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>본인들 옆집에하나씩 받으면 인정 아니면 같이 살던가</t>
+          <t>들어오는 순간 쥐 굴에 들어온 고슴도치로 변하게 돼 있다.</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10321,10 +12296,15 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>들어오는 순간 쥐 굴에 들어온 고슴도치로 변하게 돼 있다.</t>
+          <t>대한민국  국민살기도 힘든데.난민이 말이되냐</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10346,10 +12326,15 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>대한민국  국민살기도 힘든데.난민이 말이되냐</t>
+          <t>직장인 이모씨(50)네 집으로만 보내.</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10371,10 +12356,15 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>직장인 이모씨(50)네 집으로만 보내.</t>
+          <t>정우성씨 집에 받으면 해결됩니다</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10396,10 +12386,15 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>정우성씨 집에 받으면 해결됩니다</t>
+          <t>우리가더불쌍하다ㅜㅜ자국민부터좀돌보아주자에휴..ㅜㅜ</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10421,10 +12416,15 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>우리가더불쌍하다ㅜㅜ자국민부터좀돌보아주자에휴..ㅜㅜ</t>
+          <t>반대</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10446,10 +12446,15 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>쟤들이 그냥 외국인이냐!!!??? 이슬람이라는 사이비 종교가 큰 문제인거잖아!!!</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10471,10 +12476,15 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>쟤들이 그냥 외국인이냐!!!??? 이슬람이라는 사이비 종교가 큰 문제인거잖아!!!</t>
+          <t>찬성하는 인간들 집에서 홈스테이 시키면 깔끔하게 해결되는 문제 아니냐?</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10496,10 +12506,15 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>찬성하는 인간들 집에서 홈스테이 시키면 깔끔하게 해결되는 문제 아니냐?</t>
+          <t>18세 이상 이뿐 여자난민만 받아들여서 노총각들에게 무료나눔해라</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10521,10 +12536,15 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>18세 이상 이뿐 여자난민만 받아들여서 노총각들에게 무료나눔해라</t>
+          <t>결사반대!!! 시위라도 할 수 있음 동참하겠다</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10546,10 +12566,15 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>결사반대!!! 시위라도 할 수 있음 동참하겠다</t>
+          <t>의떤 * * * 들이 찬성하냐.다  아프칸으로 보냐라</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F405" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10571,10 +12596,15 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>의떤 * * * 들이 찬성하냐.다  아프칸으로 보냐라</t>
+          <t>무서워 절대 반대</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F406" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10596,10 +12626,15 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>무서워 절대 반대</t>
+          <t>이슬람 짱깨는 무조건 반대 그외 ㅆㄱㄴ</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F407" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10621,10 +12656,15 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>이슬람 짱깨는 무조건 반대 그외 ㅆㄱㄴ</t>
+          <t>우린 난민 안 받아도 된다 북한에 있는 사람들 2000만이 다 난민이다 왜 이슬람 난민을 아무관계도 없는 우리가 받냐 받을려면 불교 국가인 미얀마 난민을 받지 이슬람 절대 반대다</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F408" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10646,10 +12686,15 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>우린 난민 안 받아도 된다 북한에 있는 사람들 2000만이 다 난민이다 왜 이슬람 난민을 아무관계도 없는 우리가 받냐 받을려면 불교 국가인 미얀마 난민을 받지 이슬람 절대 반대다</t>
+          <t>찬성하는 사람들 집으로 보냄되겠네</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10671,10 +12716,15 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>찬성하는 사람들 집으로 보냄되겠네</t>
+          <t>받지말아요</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10696,10 +12746,15 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>받지말아요</t>
+          <t>예멘 난민 관리도 안되서 난리인데..제발 분수에 맞는짓  좀 하자</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10721,10 +12776,15 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>예멘 난민 관리도 안되서 난리인데..제발 분수에 맞는짓  좀 하자</t>
+          <t>찬성한 사람들이 한명씩 데려가던지</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10746,10 +12806,15 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>찬성한 사람들이 한명씩 데려가던지</t>
+          <t>미국이싼똥을 우리가치우냐? 미국이받아라.</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10771,10 +12836,15 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>미국이싼똥을 우리가치우냐? 미국이받아라.</t>
+          <t>무슬림?골치 아프다</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10796,10 +12866,15 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>무슬림?골치 아프다</t>
+          <t>자국민도 일상적으로 짓밟는 사회에 백인이 아닌 인종을 수용한다. 역사인식과 시민의식이 없는 사회에 가당한 소리일까. 자살률 세계 최고 출산율 세계 최저이지만 대부분 눈길도 한 번 제대로 주지않는 더불어 살기 힘든 사회에 왠 헛소리?</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10821,10 +12896,15 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>자국민도 일상적으로 짓밟는 사회에 백인이 아닌 인종을 수용한다. 역사인식과 시민의식이 없는 사회에 가당한 소리일까. 자살률 세계 최고 출산율 세계 최저이지만 대부분 눈길도 한 번 제대로 주지않는 더불어 살기 힘든 사회에 왠 헛소리?</t>
+          <t>반대</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10846,10 +12926,15 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>반대</t>
+          <t>지금 짱꿔도 통제 못하는데 배부른 소리하네, 니들집에 들이던가 그럴 배짱도 없으면서 착한척 선비질은 오지게 하네</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10871,10 +12956,15 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>지금 짱꿔도 통제 못하는데 배부른 소리하네, 니들집에 들이던가 그럴 배짱도 없으면서 착한척 선비질은 오지게 하네</t>
+          <t>범죄만 저지르지 않는다면?   그래 외국놈들도 서울에 살고 싶어할끼다  그서울 한번뒤져봐라  난 대구 날씨경제 다좋음</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10896,10 +12986,15 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>범죄만 저지르지 않는다면?   그래 외국놈들도 서울에 살고 싶어할끼다  그서울 한번뒤져봐라  난 대구 날씨경제 다좋음</t>
+          <t>미국이할일을 우리가 떠맡는게 문제잖아요</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10916,15 +13011,20 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>2021.08.22. 23:04</t>
+          <t>2021.09.27. 08:04</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>미국이할일을 우리가 떠맡는게 문제잖아요</t>
+          <t>인도적차원? 북돼지 딸랑거리는 인권 변호사 문죄인은 정작 같은민족인 탈북자,북한동포들의 인권은 나몰라라하는데!  뭔놈의 아프칸난민을 받어!!ㅡ툭하면 난민인권떠드는 연예인 정모씨에게나 보내라</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10946,10 +13046,15 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>인도적차원? 북돼지 딸랑거리는 인권 변호사 문죄인은 정작 같은민족인 탈북자,북한동포들의 인권은 나몰라라하는데!  뭔놈의 아프칸난민을 받어!!ㅡ툭하면 난민인권떠드는 연예인 정모씨에게나 보내라</t>
+          <t>북한 인권 냅두는데 아프간 쯤이야</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10971,10 +13076,15 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>북한 인권 냅두는데 아프간 쯤이야</t>
+          <t>진중권이가 아프간 난민들을 위해 자기 집을 쉐어한다고 하네..중권이한테 보내면 될듯...</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -10996,10 +13106,15 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>진중권이가 아프간 난민들을 위해 자기 집을 쉐어한다고 하네..중권이한테 보내면 될듯...</t>
+          <t>아프간 여성,아이들 난민수용하고 무슬림은 개종 뒤 국적부여 하는 대신에 페미메갈들 아프간에 보내 여성인권운동 시키면 될 듯.</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -11021,12 +13136,17 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>아프간 여성,아이들 난민수용하고 무슬림은 개종 뒤 국적부여 하는 대신에 페미메갈들 아프간에 보내 여성인권운동 시키면 될 듯.</t>
+          <t>선진국이 되려면 외국인 수용은 당연하다 생각합니다.우리도 6.25때 수많은 국가에서 미개한 조선인 받아줬는데 그거 생각하면 우리도 받아줘야하는게 맞는거 같습니다</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11046,10 +13166,15 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>선진국이 되려면 외국인 수용은 당연하다 생각합니다.우리도 6.25때 수많은 국가에서 미개한 조선인 받아줬는데 그거 생각하면 우리도 받아줘야하는게 맞는거 같습니다</t>
+          <t>우리 개신교가 솔선수범해서 예수의 사랑을 실천해라 미군 똥은 향기도 좋다던데 아프칸 난민 똥도 향기로울 거야 미국이 까라면 까</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -11071,10 +13196,15 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>우리 개신교가 솔선수범해서 예수의 사랑을 실천해라 미군 똥은 향기도 좋다던데 아프칸 난민 똥도 향기로울 거야 미국이 까라면 까</t>
+          <t>나만 우리만 살고 부자 ? 더불어 당이있들이 더불어 함께 같이살다 가자  잘 사는게 뭐별 다른것 없다 오갈데 없는 나그네 인생들 돕고살자  영원한것 없다 지구는 한가족</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -11096,12 +13226,17 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>나만 우리만 살고 부자 ? 더불어 당이있들이 더불어 함께 같이살다 가자  잘 사는게 뭐별 다른것 없다 오갈데 없는 나그네 인생들 돕고살자  영원한것 없다 지구는 한가족</t>
+          <t>난 찬성  사람이 없어서  방이 안나간다 ㅋㅋ</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11121,12 +13256,17 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>난 찬성  사람이 없어서  방이 안나간다 ㅋㅋ</t>
+          <t>남자들은 다 돌려 보내고 여자 아이들만 난민으로 받아 주자!! 아프칸 남자들 지들도 자존심이 있으면 수용해라</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11146,12 +13286,17 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>남자들은 다 돌려 보내고 여자 아이들만 난민으로 받아 주자!! 아프칸 남자들 지들도 자존심이 있으면 수용해라</t>
+          <t>난민이 아프간만 있는것도 아니고 갑자기 오지랖인가. 미얀마.시리아.레바논.팔레스타인.이라크 등 정치적 난민이 넘치는데 왜 아프간만?</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11171,12 +13316,17 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>난민이 아프간만 있는것도 아니고 갑자기 오지랖인가. 미얀마.시리아.레바논.팔레스타인.이라크 등 정치적 난민이 넘치는데 왜 아프간만?</t>
+          <t>그렇게 난민 불쌍하면 북한 인권생각해보라. 제 식구도 모르는척하면서 무슨놈의 난민 수용이냐?  지금 있는 이슬람 애들 쫓아내고 각 대학에 있는 이슬람 기도실 폐쇄해라. 불교국가에서 무슨 이슬람기도실을 만들어? 원효대사가 울겠네</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11196,12 +13346,17 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>그렇게 난민 불쌍하면 북한 인권생각해보라. 제 식구도 모르는척하면서 무슨놈의 난민 수용이냐?  지금 있는 이슬람 애들 쫓아내고 각 대학에 있는 이슬람 기도실 폐쇄해라. 불교국가에서 무슨 이슬람기도실을 만들어? 원효대사가 울겠네</t>
+          <t>무슬림은 반대합니다.</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11221,12 +13376,17 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>무슬림은 반대합니다.</t>
+          <t>쯔앙께도 받아주는데 뭔 상관임. 나라다운 나라 만들겠다는데ㅎㅎ</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11246,12 +13406,17 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>쯔앙께도 받아주는데 뭔 상관임. 나라다운 나라 만들겠다는데ㅎㅎ</t>
+          <t>국짐당에서 원일이냐? 난민 수용하다니.미국 하는일은  무조건 환영하는 국짐당.</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11271,12 +13436,17 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>국짐당에서 원일이냐? 난민 수용하다니.미국 하는일은  무조건 환영하는 국짐당.</t>
+          <t>종교의 자유는 있지만 무슬림이 여성과 노약자 무시하는 짖은 절대 우리나라에서 저지를수 없는 범죄임을 깨닫게 하고 질서를 잘 지키도록 교육시킬 자신있으면 들어와도 된다.</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11296,12 +13466,17 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>종교의 자유는 있지만 무슬림이 여성과 노약자 무시하는 짖은 절대 우리나라에서 저지를수 없는 범죄임을 깨닫게 하고 질서를 잘 지키도록 교육시킬 자신있으면 들어와도 된다.</t>
+          <t>한남이 오늘 의부딸또 강간햇다고 뉴스에 떳다  눈칼달럿으면  글알지?</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11321,12 +13496,17 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>한남이 오늘 의부딸또 강간햇다고 뉴스에 떳다  눈칼달럿으면  글알지?</t>
+          <t>엥 이미 이 땅도 탈레반이 점령하고 있는거같은데ㅋ 한남들 사상은 이미 탈레반이랑 다를 게 없잖슈 ㅋ</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11346,12 +13526,17 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>엥 이미 이 땅도 탈레반이 점령하고 있는거같은데ㅋ 한남들 사상은 이미 탈레반이랑 다를 게 없잖슈 ㅋ</t>
+          <t>일본 한국이 미군주둔 비율로 2:1 정도로 일본도 승인하면 반대할 입장은 아님</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11371,12 +13556,17 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>일본 한국이 미군주둔 비율로 2:1 정도로 일본도 승인하면 반대할 입장은 아님</t>
+          <t>미국에서 한다잖아!  태극기부대들 다찬성해야지. 좋은것만 미국따라가고 맘에안들면 달님 탓하냐? 양심이 았는것들이냐?</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11396,12 +13586,17 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>미국에서 한다잖아!  태극기부대들 다찬성해야지. 좋은것만 미국따라가고 맘에안들면 달님 탓하냐? 양심이 았는것들이냐?</t>
+          <t>댓글들보니 도와줄 마음들은 있는건가? 수용여부를 떠나서 그게 존재해야 논의 진행을 할 수 있는데.</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11421,12 +13616,17 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>댓글들보니 도와줄 마음들은 있는건가? 수용여부를 떠나서 그게 존재해야 논의 진행을 할 수 있는데.</t>
+          <t>일어나지도 않은 일에 벌써부터 웬 갈등이래...</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -11446,12 +13646,17 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>일어나지도 않은 일에 벌써부터 웬 갈등이래...</t>
+          <t>미국이 아프간 난민 받으라 강요하니까 성조기 들고 설치는 사람들 집으로 보내세요. 그들이 미국이라면 꺼뻑 죽으니까미국말 잘 듣겠죠</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11471,12 +13676,17 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>미국이 아프간 난민 받으라 강요하니까 성조기 들고 설치는 사람들 집으로 보내세요. 그들이 미국이라면 꺼뻑 죽으니까미국말 잘 듣겠죠</t>
+          <t>불쌍하잖아 6.25때 우리도 도움  받었잖아</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11496,12 +13706,17 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>불쌍하잖아 6.25때 우리도 도움  받었잖아</t>
+          <t>우려하는 사람들이 많아서 난민 못 받겠지만.. 그래도 아이들 정도는 괜찮지 않을까?</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11521,12 +13736,17 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>우려하는 사람들이 많아서 난민 못 받겠지만.. 그래도 아이들 정도는 괜찮지 않을까?</t>
+          <t>언제까지 단일민족? 이러다 대한민국이 사라진다. 순수혈동은 이기주의!</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11546,12 +13766,17 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>언제까지 단일민족? 이러다 대한민국이 사라진다. 순수혈동은 이기주의!</t>
+          <t>너무 걱정하지 마세요. 미국에 비협조적인 달레반 덕분에 아프간 난민 한국에 못들어 올겁니다. 들어와도 "주한미군 부대 안에서 수용"한다고 하잖아요. 지금 이보다 더 문제는 [백신수급, 집값안정, 경기활성화] 라는 점을 기억하세요.</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11571,12 +13796,17 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>너무 걱정하지 마세요. 미국에 비협조적인 달레반 덕분에 아프간 난민 한국에 못들어 올겁니다. 들어와도 "주한미군 부대 안에서 수용"한다고 하잖아요. 지금 이보다 더 문제는 [백신수급, 집값안정, 경기활성화] 라는 점을 기억하세요.</t>
+          <t>절대 반대다!!</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11596,12 +13826,17 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>절대 반대다!!</t>
+          <t>대한민국은 찌질하지 말자.</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -11621,12 +13856,17 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>대한민국은 찌질하지 말자.</t>
+          <t>아프간이 앞으로 어찌될지 아무도 모른다. 희귀자원의 보국이다. 게다가 나라가 어지러워 피란하는 사람들이다. 우리가 올챙이 적 생각 못해서야 되겠나. 사냥꾼을 피해 들어온 사슴을 내쫒을 것인가? 국제사회의 일원이며 세계시민으로 역활도 고려해야 할 때인 듯.</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -11646,12 +13886,17 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>아프간이 앞으로 어찌될지 아무도 모른다. 희귀자원의 보국이다. 게다가 나라가 어지러워 피란하는 사람들이다. 우리가 올챙이 적 생각 못해서야 되겠나. 사냥꾼을 피해 들어온 사슴을 내쫒을 것인가? 국제사회의 일원이며 세계시민으로 역활도 고려해야 할 때인 듯.</t>
+          <t>그게 문제가 아니고 이게 다 미국 때문에 발생한 일이니 주한미군 즉각 철수시켜야 합니다</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -11671,12 +13916,17 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>그게 문제가 아니고 이게 다 미국 때문에 발생한 일이니 주한미군 즉각 철수시켜야 합니다</t>
+          <t>6.25때 생각못하는 국민성에 진짜 얼굴이 붉어진다 인성이 보인다</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11696,12 +13946,17 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>6.25때 생각못하는 국민성에 진짜 얼굴이 붉어진다 인성이 보인다</t>
+          <t>..미국과 소파협정때문에 한국정부가 반대해도 둘어올껄... 전작권도 2005년 노무현대통령이 2015년에 돌려받겠다는 약조를 받았지만 박근혜년 거부함으로써 미국이 전쟁을 일으키거나 북한이 전쟁을 일으키면 미국이 지시하는데로 움직여야하는 반 식민지 국가다.. 국민의 힘은 매국노집단이자 부역자들이다...제발정부탓하지말아라지금 국짐당은 긍정적이란다. 태극기들어 국징당앞으로가서 시위라도해라.</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11721,12 +13976,17 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>..미국과 소파협정때문에 한국정부가 반대해도 둘어올껄... 전작권도 2005년 노무현대통령이 2015년에 돌려받겠다는 약조를 받았지만 박근혜년 거부함으로써 미국이 전쟁을 일으키거나 북한이 전쟁을 일으키면 미국이 지시하는데로 움직여야하는 반 식민지 국가다.. 국민의 힘은 매국노집단이자 부역자들이다...제발정부탓하지말아라지금 국짐당은 긍정적이란다. 태극기들어 국징당앞으로가서 시위라도해라.</t>
+          <t>일단 사람을 살리고봐야할것 아닙니까. 어려움에 처한 아프간국민들을 매몰차게 내버리면 텔레반에게 죽을지도 모르는데..어떻게 사람들이 자기 이익만 생각하고 이렇게 냉정합니까.  좀 돕자구요.</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11746,12 +14006,17 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>일단 사람을 살리고봐야할것 아닙니까. 어려움에 처한 아프간국민들을 매몰차게 내버리면 텔레반에게 죽을지도 모르는데..어떻게 사람들이 자기 이익만 생각하고 이렇게 냉정합니까.  좀 돕자구요.</t>
+          <t>미국은 홀로 희생하고 내손에는 피 뭍이는거 싫다고? 정말 한심한 민족 같습니다. 6.25는 둘째 치고라도 미군 당장 철수하면 어쩌나 하는 인간들이 쓰면 뱉겠다는거네? 독일도 유럽에서 난민이나 외국인 노동자 가장 싫어했지만, 어쩔수 없는 노동인구 감소 때문에 이제는 경제의 중요한 자원이 됐습니다.그렇게 저렇게 살다보면 다양성을 서로 존중할때가 옵니다. 머지않아 저출산으로 해외 이민을 적극 장려하는 시간이 옵니다.조선족은 괜찮고 아랍인들은 오면 자폭이나 하는 집단인줄 아나요?</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11771,12 +14036,17 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>미국은 홀로 희생하고 내손에는 피 뭍이는거 싫다고? 정말 한심한 민족 같습니다. 6.25는 둘째 치고라도 미군 당장 철수하면 어쩌나 하는 인간들이 쓰면 뱉겠다는거네? 독일도 유럽에서 난민이나 외국인 노동자 가장 싫어했지만, 어쩔수 없는 노동인구 감소 때문에 이제는 경제의 중요한 자원이 됐습니다.그렇게 저렇게 살다보면 다양성을 서로 존중할때가 옵니다. 머지않아 저출산으로 해외 이민을 적극 장려하는 시간이 옵니다.조선족은 괜찮고 아랍인들은 오면 자폭이나 하는 집단인줄 아나요?</t>
+          <t>난민 반대한다고? 10월3일이 뭔 날인지 기억해라!!! 이 나라가 홍익인간의 뜻으로 만든나라가 맞는지!!!돌아봐라..난민반대? 부끄럽고,수치스럽다.IT강국 대한민국이 불법체류자도 색출 못하는 바보 나라냐?대한민국 출입국사무소,국정원은 닭대가리만 뽑는다고 우길 참이냐!!! 가뜩이나 제조업 인력난인데, 이 참에 검증된 난민은 취업도 시키고, 똑똑하고 잘난 난민들은 선별해서 귀화도 시켜라. 난민들은 페북,인스타하면서 BTS의 나라가 조국보다 더 따뜻하다고 전세계에 홍보할거다!!! 그렇게 대한민국은 선진국으로 한발짝 더 나아가는거다!!</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11796,12 +14066,17 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>난민 반대한다고? 10월3일이 뭔 날인지 기억해라!!! 이 나라가 홍익인간의 뜻으로 만든나라가 맞는지!!!돌아봐라..난민반대? 부끄럽고,수치스럽다.IT강국 대한민국이 불법체류자도 색출 못하는 바보 나라냐?대한민국 출입국사무소,국정원은 닭대가리만 뽑는다고 우길 참이냐!!! 가뜩이나 제조업 인력난인데, 이 참에 검증된 난민은 취업도 시키고, 똑똑하고 잘난 난민들은 선별해서 귀화도 시켜라. 난민들은 페북,인스타하면서 BTS의 나라가 조국보다 더 따뜻하다고 전세계에 홍보할거다!!! 그렇게 대한민국은 선진국으로 한발짝 더 나아가는거다!!</t>
+          <t>1.4후퇴때  우리나라 난민들 배에태운  흥남철수를 생각해라미군은 그때 그배에 우리 난민들 태우려고 모든 물자와 장비 탱크 무기를 버리고 1만의 국민을 살렸다  우리도 우리생각만하지말고  그때 도움받았던것을 기억해야한다  우리가 이제 그때의 미국의 상황인것이라고 생각하면  무슨말인지 알거다</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11821,12 +14096,17 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>1.4후퇴때  우리나라 난민들 배에태운  흥남철수를 생각해라미군은 그때 그배에 우리 난민들 태우려고 모든 물자와 장비 탱크 무기를 버리고 1만의 국민을 살렸다  우리도 우리생각만하지말고  그때 도움받았던것을 기억해야한다  우리가 이제 그때의 미국의 상황인것이라고 생각하면  무슨말인지 알거다</t>
+          <t>이주민에 대한 지나친 혐오나 반대는 바람직 하지 않은 것 같고(특히나 순혈주의에 기반한~.) 우리 사회에 크게 문제를 일으키지 않는다면 수용을 고려해 봐야 합니다.혹시나 압니까? 그들 중에 인류사 발전에 크게 기여할 사람이 나올런지? 서로 다른 사람들이 모여 살면 다소 불편한 때도 있겠지만 새로운 기술이나 혁신적인 문화가 탄생할 수 있습니다.고려 말 우리를 혹독하게 괴롭힌 왜구들에게 포를 만들어 물리친 최무선이 화약 제조기법을 습득한 사람들이 바로 이슬람권 사람으로 알고 있습니다만~.넓은 시야는 때로 혁신을 기대하게 합니다.</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11846,12 +14126,17 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>이주민에 대한 지나친 혐오나 반대는 바람직 하지 않은 것 같고(특히나 순혈주의에 기반한~.) 우리 사회에 크게 문제를 일으키지 않는다면 수용을 고려해 봐야 합니다.혹시나 압니까? 그들 중에 인류사 발전에 크게 기여할 사람이 나올런지? 서로 다른 사람들이 모여 살면 다소 불편한 때도 있겠지만 새로운 기술이나 혁신적인 문화가 탄생할 수 있습니다.고려 말 우리를 혹독하게 괴롭힌 왜구들에게 포를 만들어 물리친 최무선이 화약 제조기법을 습득한 사람들이 바로 이슬람권 사람으로 알고 있습니다만~.넓은 시야는 때로 혁신을 기대하게 합니다.</t>
+          <t>10월3일은 개천절...홍익인간의 뜻으로 대한민국은 탄생했다고 가르친다. 홍익인간!!!널리 인간을 이롭게 한다라는 뜻이다!!! 대한민국은 매년마다 늙다리들불러모아 개천절기념식 치르고, 대통령까지 참석하는 쌩쑈개구라치 나라다. 나만 잘살면 된다..1950년~1960년 개거지나라 대한민국이 전세계 원조받았으면서, 살만하니까 배신을 하는 나라로 변모했다. 이게 현재 대한민국이다. 자랑스러운 나라? 욱끼고 있네....다른 나라는 몰라도 대한민국은 그러면 안된다.</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -11871,12 +14156,17 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>10월3일은 개천절...홍익인간의 뜻으로 대한민국은 탄생했다고 가르친다. 홍익인간!!!널리 인간을 이롭게 한다라는 뜻이다!!! 대한민국은 매년마다 늙다리들불러모아 개천절기념식 치르고, 대통령까지 참석하는 쌩쑈개구라치 나라다. 나만 잘살면 된다..1950년~1960년 개거지나라 대한민국이 전세계 원조받았으면서, 살만하니까 배신을 하는 나라로 변모했다. 이게 현재 대한민국이다. 자랑스러운 나라? 욱끼고 있네....다른 나라는 몰라도 대한민국은 그러면 안된다.</t>
+          <t>개념없는 한국인 .. .  도와주면 어디덧나나 이기주의자들</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -11896,12 +14186,17 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>개념없는 한국인 .. .  도와주면 어디덧나나 이기주의자들</t>
+          <t>우리 6.25난민, 일제강점기난민의 어려운 시기를 돌아보라.넓고 크게 인간을 포용해야 함은 당연하다. 반대하는 자는 니가 지구를 떠나거라. 달나라에 혼자 살거라</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
           <t>1</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -11921,12 +14216,17 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>우리 6.25난민, 일제강점기난민의 어려운 시기를 돌아보라.넓고 크게 인간을 포용해야 함은 당연하다. 반대하는 자는 니가 지구를 떠나거라. 달나라에 혼자 살거라</t>
+          <t>적어도 우리나라 군대와 기업에 종사한 인원과 그 가족은 데려와야 한다고 봄, 그들이 우리나라에 종사 했다는 이유로 죽임을 당하는데 보고만 있으면 안됨</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -11946,12 +14246,17 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>적어도 우리나라 군대와 기업에 종사한 인원과 그 가족은 데려와야 한다고 봄, 그들이 우리나라에 종사 했다는 이유로 죽임을 당하는데 보고만 있으면 안됨</t>
+          <t>어차피 한국이 받아봤자 미국처럼 수만명 받는것도 아니고 끽해야 작은 초등학교 한학년 인원수도 안되는 몇백명 정도라 상관없음</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -11971,12 +14276,17 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>어차피 한국이 받아봤자 미국처럼 수만명 받는것도 아니고 끽해야 작은 초등학교 한학년 인원수도 안되는 몇백명 정도라 상관없음</t>
+          <t>받아라 불쌍하다 우리도 힘든 625  잊지말자</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -11996,12 +14306,17 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>받아라 불쌍하다 우리도 힘든 625  잊지말자</t>
+          <t>어려울때 도외주는게 진정한 것이다. 우리와 터키가 형제의 나라라고 하는 이유가 한국전쟁때 도와준 고마움이 밌어서 이지 않은가. 한국전쟁때 많은 나라들의 도움이 없었으면 지금의 대한민국이 없었을수도 있다. 이제는 우리나라가 도움을 줄때다. 이 참에 시스템 잘 정비해서 도와주자. 단일민족 그런거에 집착하지 말고..</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -12021,12 +14336,17 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>어려울때 도외주는게 진정한 것이다. 우리와 터키가 형제의 나라라고 하는 이유가 한국전쟁때 도와준 고마움이 밌어서 이지 않은가. 한국전쟁때 많은 나라들의 도움이 없었으면 지금의 대한민국이 없었을수도 있다. 이제는 우리나라가 도움을 줄때다. 이 참에 시스템 잘 정비해서 도와주자. 단일민족 그런거에 집착하지 말고..</t>
+          <t>육이오때는 우리나라에 무슨 인연이 있다고 20몇개국이 목숨걸고 참전했겠냐...이제 처먹고 살만하니 난민들 벌레 보듯하네...우리가 저꼴 보다 더하게 당한지 100년도 안됐다 이것들아 네일베 쓰레기들 이럴땐 육이오 안찾네</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -12046,12 +14366,17 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>육이오때는 우리나라에 무슨 인연이 있다고 20몇개국이 목숨걸고 참전했겠냐...이제 처먹고 살만하니 난민들 벌레 보듯하네...우리가 저꼴 보다 더하게 당한지 100년도 안됐다 이것들아 네일베 쓰레기들 이럴땐 육이오 안찾네</t>
+          <t>수용하는게 맞다</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -12071,12 +14396,17 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>수용하는게 맞다</t>
+          <t>생명은 모두 존중받아야합니다</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -12096,12 +14426,17 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>생명은 모두 존중받아야합니다</t>
+          <t>무슬림이 다~~안좋은건 아닐것입니다...그중 lsls나탈래반 같이 급진무장세력들과 그에 동조하는 사람들때문에 한국국민들이 반대를 하시는것 입니다...그러나!! 아프간인들중 한국처럼,민주주의를 신봉하시는 분들도 계실겁니다...상황을 바꿔 생각해 보시는것도한가지 방법일것 입니다...최후의 방법은 한국이 아프간인들을 포용하는것이 최선이 될수도 있다는겁니다</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -12121,12 +14456,17 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>무슬림이 다~~안좋은건 아닐것입니다...그중 lsls나탈래반 같이 급진무장세력들과 그에 동조하는 사람들때문에 한국국민들이 반대를 하시는것 입니다...그러나!! 아프간인들중 한국처럼,민주주의를 신봉하시는 분들도 계실겁니다...상황을 바꿔 생각해 보시는것도한가지 방법일것 입니다...최후의 방법은 한국이 아프간인들을 포용하는것이 최선이 될수도 있다는겁니다</t>
+          <t>인구도 줄어드는데 수용해야지.. 시민권도 부여하자. 외국인 노동자보다 오히려 국가에 대한 충성도가 높은거다.</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -12146,12 +14486,17 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>인구도 줄어드는데 수용해야지.. 시민권도 부여하자. 외국인 노동자보다 오히려 국가에 대한 충성도가 높은거다.</t>
+          <t>20세기 세계 최고수준의 난민국이 대한민국이었다. 일제강점기, 6.25 때문에 미국으로 러시아로 중국으로 수백만의 난민이 외국으로 간곳이 한국이다. 그런데, 얼마간의 난민조차 극혐하는 이기적인 국민들을 보면 어느수준의 거부감은 인정하지만 대놓고 혐오하는건 수준낮고 씁쓸한 일이다.</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -12171,12 +14516,17 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>20세기 세계 최고수준의 난민국이 대한민국이었다. 일제강점기, 6.25 때문에 미국으로 러시아로 중국으로 수백만의 난민이 외국으로 간곳이 한국이다. 그런데, 얼마간의 난민조차 극혐하는 이기적인 국민들을 보면 어느수준의 거부감은 인정하지만 대놓고 혐오하는건 수준낮고 씁쓸한 일이다.</t>
+          <t>받아주는데 찬성합니다우리도 아프칸 처지  될수도있는데,,</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>6</t>
         </is>
       </c>
     </row>
@@ -12196,37 +14546,17 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>받아주는데 찬성합니다우리도 아프칸 처지  될수도있는데,,</t>
+          <t>한국도 어려운 시절이 있었지요. 당연히 난민을 받아주고 정착할 수 있도록 도와야지요.  난민에 대한 막연한 불안감이나 근거없는 주장을 펼치지 맙시다. 인도주의적으로 도웁시다</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>rnld****</t>
-        </is>
-      </c>
-      <c r="C472" t="inlineStr">
-        <is>
-          <t>2021.08.23. 01:09</t>
-        </is>
-      </c>
-      <c r="D472" t="inlineStr">
-        <is>
-          <t>한국도 어려운 시절이 있었지요. 당연히 난민을 받아주고 정착할 수 있도록 도와야지요.  난민에 대한 막연한 불안감이나 근거없는 주장을 펼치지 맙시다. 인도주의적으로 도웁시다</t>
-        </is>
-      </c>
-      <c r="E472" t="inlineStr">
-        <is>
           <t>2</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>13</t>
         </is>
       </c>
     </row>
